--- a/Code/Results/Cases/Case_4_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_1/res_line/pl_mw.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.675371722812258</v>
+        <v>1.6753717228124</v>
       </c>
       <c r="C2">
-        <v>0.8010776269430266</v>
+        <v>0.8010776269431403</v>
       </c>
       <c r="D2">
-        <v>0.2522400507276217</v>
+        <v>0.2522400507276501</v>
       </c>
       <c r="E2">
-        <v>0.1436442000342595</v>
+        <v>0.1436442000342808</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.749149046853574</v>
+        <v>2.749149046853546</v>
       </c>
       <c r="H2">
-        <v>1.983238969314172</v>
+        <v>1.983238969314144</v>
       </c>
       <c r="I2">
-        <v>0.02682235284797585</v>
+        <v>0.02682235284801315</v>
       </c>
       <c r="J2">
         <v>0.5726760997287386</v>
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.439732676588648</v>
+        <v>1.439732676588591</v>
       </c>
       <c r="C3">
         <v>0.6878927533802539</v>
@@ -459,28 +459,28 @@
         <v>0.2192578932357918</v>
       </c>
       <c r="E3">
-        <v>0.1262913813361699</v>
+        <v>0.1262913813362303</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.461883977147906</v>
+        <v>2.461883977147934</v>
       </c>
       <c r="H3">
-        <v>1.794848423853097</v>
+        <v>1.794848423853139</v>
       </c>
       <c r="I3">
-        <v>0.02394012184601912</v>
+        <v>0.02394012184598715</v>
       </c>
       <c r="J3">
-        <v>0.4919781171255337</v>
+        <v>0.4919781171255195</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.6599925337794019</v>
+        <v>0.6599925337794161</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.297778223787901</v>
+        <v>1.297778223787844</v>
       </c>
       <c r="C4">
         <v>0.6199204332899058</v>
       </c>
       <c r="D4">
-        <v>0.1994910885318575</v>
+        <v>0.1994910885316301</v>
       </c>
       <c r="E4">
-        <v>0.115931121379294</v>
+        <v>0.1159311213792762</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -509,16 +509,16 @@
         <v>1.682576319164255</v>
       </c>
       <c r="I4">
-        <v>0.02222626980462117</v>
+        <v>0.02222626980462827</v>
       </c>
       <c r="J4">
-        <v>0.4434145461567169</v>
+        <v>0.4434145461567098</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5964833188877208</v>
+        <v>0.5964833188877137</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.240514811931632</v>
+        <v>1.240514811931746</v>
       </c>
       <c r="C5">
-        <v>0.5925476312558544</v>
+        <v>0.5925476312558828</v>
       </c>
       <c r="D5">
-        <v>0.1915418397904176</v>
+        <v>0.1915418397904034</v>
       </c>
       <c r="E5">
-        <v>0.1117740078975409</v>
+        <v>0.1117740078975302</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,10 +544,10 @@
         <v>2.221785702040478</v>
       </c>
       <c r="H5">
-        <v>1.637577104669134</v>
+        <v>1.63757710466912</v>
       </c>
       <c r="I5">
-        <v>0.02154020199911777</v>
+        <v>0.02154020199913731</v>
       </c>
       <c r="J5">
         <v>0.4238355264240283</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5709152720684827</v>
+        <v>0.5709152720684898</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.23103875420594</v>
+        <v>1.231038754206082</v>
       </c>
       <c r="C6">
-        <v>0.5880205654357269</v>
+        <v>0.5880205654359827</v>
       </c>
       <c r="D6">
-        <v>0.1902278314849752</v>
+        <v>0.1902278314851031</v>
       </c>
       <c r="E6">
-        <v>0.1110873806161727</v>
+        <v>0.1110873806161692</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,19 +582,19 @@
         <v>2.210436069836632</v>
       </c>
       <c r="H6">
-        <v>1.630147656213666</v>
+        <v>1.63014765621368</v>
       </c>
       <c r="I6">
-        <v>0.02142697962715268</v>
+        <v>0.02142697962716156</v>
       </c>
       <c r="J6">
-        <v>0.4205961846702522</v>
+        <v>0.420596184670238</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5666872074462432</v>
+        <v>0.5666872074462574</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>1.29700371168471</v>
       </c>
       <c r="C7">
-        <v>0.6195500230684559</v>
+        <v>0.6195500230682001</v>
       </c>
       <c r="D7">
-        <v>0.1993834733982283</v>
+        <v>0.1993834733982425</v>
       </c>
       <c r="E7">
-        <v>0.1158748064147019</v>
+        <v>0.1158748064147055</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.28958263037913</v>
+        <v>2.289582630379172</v>
       </c>
       <c r="H7">
         <v>1.681966525412832</v>
       </c>
       <c r="I7">
-        <v>0.0222169694183183</v>
+        <v>0.02221696941829343</v>
       </c>
       <c r="J7">
-        <v>0.4431496881410339</v>
+        <v>0.4431496881410482</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5961372971988297</v>
+        <v>0.5961372971988439</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,13 +643,13 @@
         <v>1.593492296994697</v>
       </c>
       <c r="C8">
-        <v>0.7616992859342702</v>
+        <v>0.761699285934526</v>
       </c>
       <c r="D8">
-        <v>0.2407571913767157</v>
+        <v>0.2407571913767299</v>
       </c>
       <c r="E8">
-        <v>0.1375939682952918</v>
+        <v>0.1375939682953167</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,19 +658,19 @@
         <v>2.648962639556274</v>
       </c>
       <c r="H8">
-        <v>1.917511310744047</v>
+        <v>1.917511310744061</v>
       </c>
       <c r="I8">
-        <v>0.02581588869258766</v>
+        <v>0.02581588869261253</v>
       </c>
       <c r="J8">
-        <v>0.5446236280269048</v>
+        <v>0.5446236280268835</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.7289714161319054</v>
+        <v>0.7289714161319338</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,31 +678,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.201775975618034</v>
+        <v>2.201775975617977</v>
       </c>
       <c r="C9">
-        <v>1.055445687054117</v>
+        <v>1.055445687053805</v>
       </c>
       <c r="D9">
-        <v>0.3265452905214232</v>
+        <v>0.3265452905215653</v>
       </c>
       <c r="E9">
-        <v>0.182993853216658</v>
+        <v>0.1829938532166651</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.401286175135937</v>
+        <v>3.401286175135994</v>
       </c>
       <c r="H9">
-        <v>2.411602388058455</v>
+        <v>2.411602388058427</v>
       </c>
       <c r="I9">
-        <v>0.03340342846307109</v>
+        <v>0.03340342846309419</v>
       </c>
       <c r="J9">
-        <v>0.7533116426282547</v>
+        <v>0.7533116426282902</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.673452268374888</v>
+        <v>2.673452268374831</v>
       </c>
       <c r="C10">
-        <v>1.285079360661825</v>
+        <v>1.285079360661655</v>
       </c>
       <c r="D10">
-        <v>0.3937104572672752</v>
+        <v>0.3937104572677299</v>
       </c>
       <c r="E10">
-        <v>0.2188191140983662</v>
+        <v>0.218819114098352</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.995523430920514</v>
+        <v>3.995523430920457</v>
       </c>
       <c r="H10">
-        <v>2.802552288273176</v>
+        <v>2.802552288273134</v>
       </c>
       <c r="I10">
-        <v>0.03944076764962823</v>
+        <v>0.0394407676496531</v>
       </c>
       <c r="J10">
-        <v>0.915571719201111</v>
+        <v>0.9155717192010826</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.217877407768114</v>
+        <v>1.217877407768128</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.895659341854639</v>
+        <v>2.895659341854696</v>
       </c>
       <c r="C11">
-        <v>1.393807247093264</v>
+        <v>1.39380724709298</v>
       </c>
       <c r="D11">
-        <v>0.4255110307560983</v>
+        <v>0.4255110307563541</v>
       </c>
       <c r="E11">
-        <v>0.235856255149713</v>
+        <v>0.2358562551496988</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.278206284162195</v>
+        <v>4.278206284162167</v>
       </c>
       <c r="H11">
-        <v>2.988689745612845</v>
+        <v>2.988689745612817</v>
       </c>
       <c r="I11">
-        <v>0.04232529662500362</v>
+        <v>0.04232529662499296</v>
       </c>
       <c r="J11">
-        <v>0.9921414181360433</v>
+        <v>0.9921414181360575</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.319278119830187</v>
+        <v>1.319278119830159</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.9811266775219</v>
+        <v>2.98112667752207</v>
       </c>
       <c r="C12">
-        <v>1.435719766133445</v>
+        <v>1.435719766133388</v>
       </c>
       <c r="D12">
-        <v>0.4377669507886139</v>
+        <v>0.4377669507880455</v>
       </c>
       <c r="E12">
-        <v>0.2424344690488951</v>
+        <v>0.2424344690489093</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.387360823001245</v>
+        <v>4.387360823001217</v>
       </c>
       <c r="H12">
-        <v>3.060588177106098</v>
+        <v>3.060588177106084</v>
       </c>
       <c r="I12">
-        <v>0.0434412092274048</v>
+        <v>0.04344120922741368</v>
       </c>
       <c r="J12">
-        <v>1.021614116419769</v>
+        <v>1.021614116419784</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.358344360849159</v>
+        <v>1.358344360849188</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.962656978393284</v>
+        <v>2.96265697839317</v>
       </c>
       <c r="C13">
-        <v>1.426658019077991</v>
+        <v>1.42665801907782</v>
       </c>
       <c r="D13">
-        <v>0.4351173036669138</v>
+        <v>0.4351173036673401</v>
       </c>
       <c r="E13">
-        <v>0.2410117436434049</v>
+        <v>0.241011743643412</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.36375279588782</v>
+        <v>4.363752795887791</v>
       </c>
       <c r="H13">
-        <v>3.045036867606498</v>
+        <v>3.045036867606512</v>
       </c>
       <c r="I13">
-        <v>0.04319976126073755</v>
+        <v>0.04319976126072156</v>
       </c>
       <c r="J13">
-        <v>1.015243973477041</v>
+        <v>1.015243973477055</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.349899072553256</v>
+        <v>1.349899072553242</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.902662873793759</v>
+        <v>2.902662873793588</v>
       </c>
       <c r="C14">
         <v>1.397239792654489</v>
       </c>
       <c r="D14">
-        <v>0.4265148316305556</v>
+        <v>0.4265148316305272</v>
       </c>
       <c r="E14">
-        <v>0.2363947834383069</v>
+        <v>0.2363947834383566</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,10 +886,10 @@
         <v>4.28714214179962</v>
       </c>
       <c r="H14">
-        <v>2.994575182905876</v>
+        <v>2.994575182905848</v>
       </c>
       <c r="I14">
-        <v>0.0424166066700451</v>
+        <v>0.04241660667007174</v>
       </c>
       <c r="J14">
         <v>0.994556074066324</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.322478034358028</v>
+        <v>1.322478034358042</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.866094237114851</v>
+        <v>2.866094237114794</v>
       </c>
       <c r="C15">
-        <v>1.379320709532578</v>
+        <v>1.379320709532863</v>
       </c>
       <c r="D15">
-        <v>0.4212745217877796</v>
+        <v>0.421274521787808</v>
       </c>
       <c r="E15">
-        <v>0.2335839079764739</v>
+        <v>0.2335839079764455</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.240501266385053</v>
+        <v>4.240501266385024</v>
       </c>
       <c r="H15">
-        <v>2.96385698773021</v>
+        <v>2.963856987730239</v>
       </c>
       <c r="I15">
-        <v>0.04194009762165507</v>
+        <v>0.0419400976216604</v>
       </c>
       <c r="J15">
-        <v>0.981948946796706</v>
+        <v>0.9819489467966918</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.305772452951402</v>
+        <v>1.305772452951416</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,34 +947,34 @@
         <v>2.659102546026304</v>
       </c>
       <c r="C16">
-        <v>1.278069896812838</v>
+        <v>1.278069896812895</v>
       </c>
       <c r="D16">
-        <v>0.391660123778621</v>
+        <v>0.3916601237788484</v>
       </c>
       <c r="E16">
-        <v>0.2177222414529965</v>
+        <v>0.2177222414529751</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.977325294055049</v>
+        <v>3.977325294055021</v>
       </c>
       <c r="H16">
         <v>2.790572630508905</v>
       </c>
       <c r="I16">
-        <v>0.03925534224279836</v>
+        <v>0.03925534224275573</v>
       </c>
       <c r="J16">
-        <v>0.9106298068726346</v>
+        <v>0.9106298068726204</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.211337666107923</v>
+        <v>1.211337666107951</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -988,10 +988,10 @@
         <v>1.217131868074148</v>
       </c>
       <c r="D17">
-        <v>0.3738348086831422</v>
+        <v>0.3738348086829717</v>
       </c>
       <c r="E17">
-        <v>0.2081945404578676</v>
+        <v>0.2081945404579031</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1003,16 +1003,16 @@
         <v>2.686537872862004</v>
       </c>
       <c r="I17">
-        <v>0.03764618202256109</v>
+        <v>0.03764618202251491</v>
       </c>
       <c r="J17">
-        <v>0.8676374781471168</v>
+        <v>0.867637478147131</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.154470706824505</v>
+        <v>1.154470706824519</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.463101746284963</v>
+        <v>2.463101746285133</v>
       </c>
       <c r="C18">
-        <v>1.18247482636815</v>
+        <v>1.182474826368605</v>
       </c>
       <c r="D18">
-        <v>0.363697156158409</v>
+        <v>0.363697156158679</v>
       </c>
       <c r="E18">
-        <v>0.2027827313622623</v>
+        <v>0.2027827313623263</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,19 +1038,19 @@
         <v>3.729487167724812</v>
       </c>
       <c r="H18">
-        <v>2.627465321244102</v>
+        <v>2.627465321244117</v>
       </c>
       <c r="I18">
-        <v>0.03673337854449343</v>
+        <v>0.03673337854447922</v>
       </c>
       <c r="J18">
-        <v>0.8431633497149136</v>
+        <v>0.843163349714942</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.122119435928646</v>
+        <v>1.122119435928632</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.43913539658854</v>
+        <v>2.439135396588483</v>
       </c>
       <c r="C19">
-        <v>1.170804518424802</v>
+        <v>1.17080451842503</v>
       </c>
       <c r="D19">
-        <v>0.360283510228669</v>
+        <v>0.3602835102288537</v>
       </c>
       <c r="E19">
         <v>0.200961548175421</v>
@@ -1073,22 +1073,22 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.699278044708365</v>
+        <v>3.699278044708393</v>
       </c>
       <c r="H19">
         <v>2.607589702517856</v>
       </c>
       <c r="I19">
-        <v>0.03642640326657975</v>
+        <v>0.03642640326652646</v>
       </c>
       <c r="J19">
-        <v>0.8349181846175497</v>
+        <v>0.8349181846175782</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.111224094391027</v>
+        <v>1.111224094391034</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.547443708947696</v>
+        <v>2.547443708947469</v>
       </c>
       <c r="C20">
-        <v>1.223577314118302</v>
+        <v>1.223577314118586</v>
       </c>
       <c r="D20">
-        <v>0.3757202100476036</v>
+        <v>0.3757202100478878</v>
       </c>
       <c r="E20">
-        <v>0.2092015785663364</v>
+        <v>0.2092015785663293</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,19 +1114,19 @@
         <v>3.835966750904703</v>
       </c>
       <c r="H20">
-        <v>2.69753184356334</v>
+        <v>2.697531843563297</v>
       </c>
       <c r="I20">
-        <v>0.03781613585369215</v>
+        <v>0.03781613585368326</v>
       </c>
       <c r="J20">
-        <v>0.8721872601977765</v>
+        <v>0.8721872601978049</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.160486587610762</v>
+        <v>1.160486587610755</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.920246738728849</v>
+        <v>2.920246738728792</v>
       </c>
       <c r="C21">
-        <v>1.405859453143194</v>
+        <v>1.405859453142568</v>
       </c>
       <c r="D21">
-        <v>0.4290354828390548</v>
+        <v>0.4290354828391116</v>
       </c>
       <c r="E21">
-        <v>0.2377472824578533</v>
+        <v>0.2377472824579101</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.309584409242262</v>
+        <v>4.309584409242234</v>
       </c>
       <c r="H21">
-        <v>3.009356745529743</v>
+        <v>3.009356745529715</v>
       </c>
       <c r="I21">
-        <v>0.04264596457364256</v>
+        <v>0.04264596457360703</v>
       </c>
       <c r="J21">
-        <v>1.000618941356336</v>
+        <v>1.000618941356308</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.330513153206425</v>
+        <v>1.330513153206411</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.171735110839961</v>
+        <v>3.171735110840132</v>
       </c>
       <c r="C22">
-        <v>1.52937749892692</v>
+        <v>1.529377498926976</v>
       </c>
       <c r="D22">
-        <v>0.4651462060103313</v>
+        <v>0.4651462060105871</v>
       </c>
       <c r="E22">
-        <v>0.2571535228174184</v>
+        <v>0.2571535228174895</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>4.631607156343563</v>
+        <v>4.631607156343449</v>
       </c>
       <c r="H22">
-        <v>3.221513236692232</v>
+        <v>3.221513236692189</v>
       </c>
       <c r="I22">
-        <v>0.0459423393170546</v>
+        <v>0.04594233931708303</v>
       </c>
       <c r="J22">
         <v>1.087387215833346</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.445594537556119</v>
+        <v>1.44559453755609</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.036709539173216</v>
+        <v>3.036709539172875</v>
       </c>
       <c r="C23">
-        <v>1.463004720706067</v>
+        <v>1.463004720705726</v>
       </c>
       <c r="D23">
-        <v>0.4457444624002846</v>
+        <v>0.4457444624000857</v>
       </c>
       <c r="E23">
-        <v>0.2467198350024447</v>
+        <v>0.246719835002601</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.458470847802232</v>
+        <v>4.458470847802289</v>
       </c>
       <c r="H23">
-        <v>3.107433917026043</v>
+        <v>3.1074339170261</v>
       </c>
       <c r="I23">
-        <v>0.04416880140836987</v>
+        <v>0.04416880140840007</v>
       </c>
       <c r="J23">
-        <v>1.040787869455926</v>
+        <v>1.04078786945594</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.383769497968217</v>
+        <v>1.383769497968231</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.541465262203928</v>
+        <v>2.541465262203815</v>
       </c>
       <c r="C24">
-        <v>1.220662162788017</v>
+        <v>1.220662162788244</v>
       </c>
       <c r="D24">
         <v>0.3748674788713515</v>
       </c>
       <c r="E24">
-        <v>0.2087460931855887</v>
+        <v>0.208746093185546</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,10 +1266,10 @@
         <v>3.828410599733274</v>
       </c>
       <c r="H24">
-        <v>2.692559185537448</v>
+        <v>2.692559185537419</v>
       </c>
       <c r="I24">
-        <v>0.03773926161352037</v>
+        <v>0.03773926161357188</v>
       </c>
       <c r="J24">
         <v>0.8701295536026805</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.157765749830823</v>
+        <v>1.15776574983083</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.033546075556586</v>
+        <v>2.033546075556501</v>
       </c>
       <c r="C25">
-        <v>0.9739311965915931</v>
+        <v>0.9739311965918205</v>
       </c>
       <c r="D25">
-        <v>0.3027155159297905</v>
+        <v>0.3027155159297621</v>
       </c>
       <c r="E25">
-        <v>0.170339314870354</v>
+        <v>0.1703393148702617</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.191479855617715</v>
+        <v>3.191479855617757</v>
       </c>
       <c r="H25">
         <v>2.273699811056858</v>
       </c>
       <c r="I25">
-        <v>0.0312808002031808</v>
+        <v>0.03128080020315949</v>
       </c>
       <c r="J25">
-        <v>0.6955308118950541</v>
+        <v>0.6955308118950754</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.9273296657071555</v>
+        <v>0.9273296657071484</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_1/res_line/pl_mw.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.6753717228124</v>
+        <v>1.675371722812258</v>
       </c>
       <c r="C2">
-        <v>0.8010776269431403</v>
+        <v>0.8010776269430266</v>
       </c>
       <c r="D2">
-        <v>0.2522400507276501</v>
+        <v>0.2522400507276217</v>
       </c>
       <c r="E2">
-        <v>0.1436442000342808</v>
+        <v>0.1436442000342595</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.749149046853546</v>
+        <v>2.749149046853574</v>
       </c>
       <c r="H2">
-        <v>1.983238969314144</v>
+        <v>1.983238969314172</v>
       </c>
       <c r="I2">
-        <v>0.02682235284801315</v>
+        <v>0.02682235284797585</v>
       </c>
       <c r="J2">
         <v>0.5726760997287386</v>
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.439732676588591</v>
+        <v>1.439732676588648</v>
       </c>
       <c r="C3">
         <v>0.6878927533802539</v>
@@ -459,28 +459,28 @@
         <v>0.2192578932357918</v>
       </c>
       <c r="E3">
-        <v>0.1262913813362303</v>
+        <v>0.1262913813361699</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.461883977147934</v>
+        <v>2.461883977147906</v>
       </c>
       <c r="H3">
-        <v>1.794848423853139</v>
+        <v>1.794848423853097</v>
       </c>
       <c r="I3">
-        <v>0.02394012184598715</v>
+        <v>0.02394012184601912</v>
       </c>
       <c r="J3">
-        <v>0.4919781171255195</v>
+        <v>0.4919781171255337</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.6599925337794161</v>
+        <v>0.6599925337794019</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.297778223787844</v>
+        <v>1.297778223787901</v>
       </c>
       <c r="C4">
         <v>0.6199204332899058</v>
       </c>
       <c r="D4">
-        <v>0.1994910885316301</v>
+        <v>0.1994910885318575</v>
       </c>
       <c r="E4">
-        <v>0.1159311213792762</v>
+        <v>0.115931121379294</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -509,16 +509,16 @@
         <v>1.682576319164255</v>
       </c>
       <c r="I4">
-        <v>0.02222626980462827</v>
+        <v>0.02222626980462117</v>
       </c>
       <c r="J4">
-        <v>0.4434145461567098</v>
+        <v>0.4434145461567169</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5964833188877137</v>
+        <v>0.5964833188877208</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.240514811931746</v>
+        <v>1.240514811931632</v>
       </c>
       <c r="C5">
-        <v>0.5925476312558828</v>
+        <v>0.5925476312558544</v>
       </c>
       <c r="D5">
-        <v>0.1915418397904034</v>
+        <v>0.1915418397904176</v>
       </c>
       <c r="E5">
-        <v>0.1117740078975302</v>
+        <v>0.1117740078975409</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,10 +544,10 @@
         <v>2.221785702040478</v>
       </c>
       <c r="H5">
-        <v>1.63757710466912</v>
+        <v>1.637577104669134</v>
       </c>
       <c r="I5">
-        <v>0.02154020199913731</v>
+        <v>0.02154020199911777</v>
       </c>
       <c r="J5">
         <v>0.4238355264240283</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5709152720684898</v>
+        <v>0.5709152720684827</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.231038754206082</v>
+        <v>1.23103875420594</v>
       </c>
       <c r="C6">
-        <v>0.5880205654359827</v>
+        <v>0.5880205654357269</v>
       </c>
       <c r="D6">
-        <v>0.1902278314851031</v>
+        <v>0.1902278314849752</v>
       </c>
       <c r="E6">
-        <v>0.1110873806161692</v>
+        <v>0.1110873806161727</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,19 +582,19 @@
         <v>2.210436069836632</v>
       </c>
       <c r="H6">
-        <v>1.63014765621368</v>
+        <v>1.630147656213666</v>
       </c>
       <c r="I6">
-        <v>0.02142697962716156</v>
+        <v>0.02142697962715268</v>
       </c>
       <c r="J6">
-        <v>0.420596184670238</v>
+        <v>0.4205961846702522</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5666872074462574</v>
+        <v>0.5666872074462432</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>1.29700371168471</v>
       </c>
       <c r="C7">
-        <v>0.6195500230682001</v>
+        <v>0.6195500230684559</v>
       </c>
       <c r="D7">
-        <v>0.1993834733982425</v>
+        <v>0.1993834733982283</v>
       </c>
       <c r="E7">
-        <v>0.1158748064147055</v>
+        <v>0.1158748064147019</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.289582630379172</v>
+        <v>2.28958263037913</v>
       </c>
       <c r="H7">
         <v>1.681966525412832</v>
       </c>
       <c r="I7">
-        <v>0.02221696941829343</v>
+        <v>0.0222169694183183</v>
       </c>
       <c r="J7">
-        <v>0.4431496881410482</v>
+        <v>0.4431496881410339</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5961372971988439</v>
+        <v>0.5961372971988297</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,13 +643,13 @@
         <v>1.593492296994697</v>
       </c>
       <c r="C8">
-        <v>0.761699285934526</v>
+        <v>0.7616992859342702</v>
       </c>
       <c r="D8">
-        <v>0.2407571913767299</v>
+        <v>0.2407571913767157</v>
       </c>
       <c r="E8">
-        <v>0.1375939682953167</v>
+        <v>0.1375939682952918</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,19 +658,19 @@
         <v>2.648962639556274</v>
       </c>
       <c r="H8">
-        <v>1.917511310744061</v>
+        <v>1.917511310744047</v>
       </c>
       <c r="I8">
-        <v>0.02581588869261253</v>
+        <v>0.02581588869258766</v>
       </c>
       <c r="J8">
-        <v>0.5446236280268835</v>
+        <v>0.5446236280269048</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.7289714161319338</v>
+        <v>0.7289714161319054</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,31 +678,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.201775975617977</v>
+        <v>2.201775975618034</v>
       </c>
       <c r="C9">
-        <v>1.055445687053805</v>
+        <v>1.055445687054117</v>
       </c>
       <c r="D9">
-        <v>0.3265452905215653</v>
+        <v>0.3265452905214232</v>
       </c>
       <c r="E9">
-        <v>0.1829938532166651</v>
+        <v>0.182993853216658</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.401286175135994</v>
+        <v>3.401286175135937</v>
       </c>
       <c r="H9">
-        <v>2.411602388058427</v>
+        <v>2.411602388058455</v>
       </c>
       <c r="I9">
-        <v>0.03340342846309419</v>
+        <v>0.03340342846307109</v>
       </c>
       <c r="J9">
-        <v>0.7533116426282902</v>
+        <v>0.7533116426282547</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.673452268374831</v>
+        <v>2.673452268374888</v>
       </c>
       <c r="C10">
-        <v>1.285079360661655</v>
+        <v>1.285079360661825</v>
       </c>
       <c r="D10">
-        <v>0.3937104572677299</v>
+        <v>0.3937104572672752</v>
       </c>
       <c r="E10">
-        <v>0.218819114098352</v>
+        <v>0.2188191140983662</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.995523430920457</v>
+        <v>3.995523430920514</v>
       </c>
       <c r="H10">
-        <v>2.802552288273134</v>
+        <v>2.802552288273176</v>
       </c>
       <c r="I10">
-        <v>0.0394407676496531</v>
+        <v>0.03944076764962823</v>
       </c>
       <c r="J10">
-        <v>0.9155717192010826</v>
+        <v>0.915571719201111</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.217877407768128</v>
+        <v>1.217877407768114</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.895659341854696</v>
+        <v>2.895659341854639</v>
       </c>
       <c r="C11">
-        <v>1.39380724709298</v>
+        <v>1.393807247093264</v>
       </c>
       <c r="D11">
-        <v>0.4255110307563541</v>
+        <v>0.4255110307560983</v>
       </c>
       <c r="E11">
-        <v>0.2358562551496988</v>
+        <v>0.235856255149713</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.278206284162167</v>
+        <v>4.278206284162195</v>
       </c>
       <c r="H11">
-        <v>2.988689745612817</v>
+        <v>2.988689745612845</v>
       </c>
       <c r="I11">
-        <v>0.04232529662499296</v>
+        <v>0.04232529662500362</v>
       </c>
       <c r="J11">
-        <v>0.9921414181360575</v>
+        <v>0.9921414181360433</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.319278119830159</v>
+        <v>1.319278119830187</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.98112667752207</v>
+        <v>2.9811266775219</v>
       </c>
       <c r="C12">
-        <v>1.435719766133388</v>
+        <v>1.435719766133445</v>
       </c>
       <c r="D12">
-        <v>0.4377669507880455</v>
+        <v>0.4377669507886139</v>
       </c>
       <c r="E12">
-        <v>0.2424344690489093</v>
+        <v>0.2424344690488951</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.387360823001217</v>
+        <v>4.387360823001245</v>
       </c>
       <c r="H12">
-        <v>3.060588177106084</v>
+        <v>3.060588177106098</v>
       </c>
       <c r="I12">
-        <v>0.04344120922741368</v>
+        <v>0.0434412092274048</v>
       </c>
       <c r="J12">
-        <v>1.021614116419784</v>
+        <v>1.021614116419769</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.358344360849188</v>
+        <v>1.358344360849159</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.96265697839317</v>
+        <v>2.962656978393284</v>
       </c>
       <c r="C13">
-        <v>1.42665801907782</v>
+        <v>1.426658019077991</v>
       </c>
       <c r="D13">
-        <v>0.4351173036673401</v>
+        <v>0.4351173036669138</v>
       </c>
       <c r="E13">
-        <v>0.241011743643412</v>
+        <v>0.2410117436434049</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.363752795887791</v>
+        <v>4.36375279588782</v>
       </c>
       <c r="H13">
-        <v>3.045036867606512</v>
+        <v>3.045036867606498</v>
       </c>
       <c r="I13">
-        <v>0.04319976126072156</v>
+        <v>0.04319976126073755</v>
       </c>
       <c r="J13">
-        <v>1.015243973477055</v>
+        <v>1.015243973477041</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.349899072553242</v>
+        <v>1.349899072553256</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.902662873793588</v>
+        <v>2.902662873793759</v>
       </c>
       <c r="C14">
         <v>1.397239792654489</v>
       </c>
       <c r="D14">
-        <v>0.4265148316305272</v>
+        <v>0.4265148316305556</v>
       </c>
       <c r="E14">
-        <v>0.2363947834383566</v>
+        <v>0.2363947834383069</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,10 +886,10 @@
         <v>4.28714214179962</v>
       </c>
       <c r="H14">
-        <v>2.994575182905848</v>
+        <v>2.994575182905876</v>
       </c>
       <c r="I14">
-        <v>0.04241660667007174</v>
+        <v>0.0424166066700451</v>
       </c>
       <c r="J14">
         <v>0.994556074066324</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.322478034358042</v>
+        <v>1.322478034358028</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.866094237114794</v>
+        <v>2.866094237114851</v>
       </c>
       <c r="C15">
-        <v>1.379320709532863</v>
+        <v>1.379320709532578</v>
       </c>
       <c r="D15">
-        <v>0.421274521787808</v>
+        <v>0.4212745217877796</v>
       </c>
       <c r="E15">
-        <v>0.2335839079764455</v>
+        <v>0.2335839079764739</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.240501266385024</v>
+        <v>4.240501266385053</v>
       </c>
       <c r="H15">
-        <v>2.963856987730239</v>
+        <v>2.96385698773021</v>
       </c>
       <c r="I15">
-        <v>0.0419400976216604</v>
+        <v>0.04194009762165507</v>
       </c>
       <c r="J15">
-        <v>0.9819489467966918</v>
+        <v>0.981948946796706</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.305772452951416</v>
+        <v>1.305772452951402</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,34 +947,34 @@
         <v>2.659102546026304</v>
       </c>
       <c r="C16">
-        <v>1.278069896812895</v>
+        <v>1.278069896812838</v>
       </c>
       <c r="D16">
-        <v>0.3916601237788484</v>
+        <v>0.391660123778621</v>
       </c>
       <c r="E16">
-        <v>0.2177222414529751</v>
+        <v>0.2177222414529965</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.977325294055021</v>
+        <v>3.977325294055049</v>
       </c>
       <c r="H16">
         <v>2.790572630508905</v>
       </c>
       <c r="I16">
-        <v>0.03925534224275573</v>
+        <v>0.03925534224279836</v>
       </c>
       <c r="J16">
-        <v>0.9106298068726204</v>
+        <v>0.9106298068726346</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.211337666107951</v>
+        <v>1.211337666107923</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -988,10 +988,10 @@
         <v>1.217131868074148</v>
       </c>
       <c r="D17">
-        <v>0.3738348086829717</v>
+        <v>0.3738348086831422</v>
       </c>
       <c r="E17">
-        <v>0.2081945404579031</v>
+        <v>0.2081945404578676</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1003,16 +1003,16 @@
         <v>2.686537872862004</v>
       </c>
       <c r="I17">
-        <v>0.03764618202251491</v>
+        <v>0.03764618202256109</v>
       </c>
       <c r="J17">
-        <v>0.867637478147131</v>
+        <v>0.8676374781471168</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.154470706824519</v>
+        <v>1.154470706824505</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.463101746285133</v>
+        <v>2.463101746284963</v>
       </c>
       <c r="C18">
-        <v>1.182474826368605</v>
+        <v>1.18247482636815</v>
       </c>
       <c r="D18">
-        <v>0.363697156158679</v>
+        <v>0.363697156158409</v>
       </c>
       <c r="E18">
-        <v>0.2027827313623263</v>
+        <v>0.2027827313622623</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,19 +1038,19 @@
         <v>3.729487167724812</v>
       </c>
       <c r="H18">
-        <v>2.627465321244117</v>
+        <v>2.627465321244102</v>
       </c>
       <c r="I18">
-        <v>0.03673337854447922</v>
+        <v>0.03673337854449343</v>
       </c>
       <c r="J18">
-        <v>0.843163349714942</v>
+        <v>0.8431633497149136</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.122119435928632</v>
+        <v>1.122119435928646</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.439135396588483</v>
+        <v>2.43913539658854</v>
       </c>
       <c r="C19">
-        <v>1.17080451842503</v>
+        <v>1.170804518424802</v>
       </c>
       <c r="D19">
-        <v>0.3602835102288537</v>
+        <v>0.360283510228669</v>
       </c>
       <c r="E19">
         <v>0.200961548175421</v>
@@ -1073,22 +1073,22 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.699278044708393</v>
+        <v>3.699278044708365</v>
       </c>
       <c r="H19">
         <v>2.607589702517856</v>
       </c>
       <c r="I19">
-        <v>0.03642640326652646</v>
+        <v>0.03642640326657975</v>
       </c>
       <c r="J19">
-        <v>0.8349181846175782</v>
+        <v>0.8349181846175497</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.111224094391034</v>
+        <v>1.111224094391027</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.547443708947469</v>
+        <v>2.547443708947696</v>
       </c>
       <c r="C20">
-        <v>1.223577314118586</v>
+        <v>1.223577314118302</v>
       </c>
       <c r="D20">
-        <v>0.3757202100478878</v>
+        <v>0.3757202100476036</v>
       </c>
       <c r="E20">
-        <v>0.2092015785663293</v>
+        <v>0.2092015785663364</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,19 +1114,19 @@
         <v>3.835966750904703</v>
       </c>
       <c r="H20">
-        <v>2.697531843563297</v>
+        <v>2.69753184356334</v>
       </c>
       <c r="I20">
-        <v>0.03781613585368326</v>
+        <v>0.03781613585369215</v>
       </c>
       <c r="J20">
-        <v>0.8721872601978049</v>
+        <v>0.8721872601977765</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.160486587610755</v>
+        <v>1.160486587610762</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.920246738728792</v>
+        <v>2.920246738728849</v>
       </c>
       <c r="C21">
-        <v>1.405859453142568</v>
+        <v>1.405859453143194</v>
       </c>
       <c r="D21">
-        <v>0.4290354828391116</v>
+        <v>0.4290354828390548</v>
       </c>
       <c r="E21">
-        <v>0.2377472824579101</v>
+        <v>0.2377472824578533</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.309584409242234</v>
+        <v>4.309584409242262</v>
       </c>
       <c r="H21">
-        <v>3.009356745529715</v>
+        <v>3.009356745529743</v>
       </c>
       <c r="I21">
-        <v>0.04264596457360703</v>
+        <v>0.04264596457364256</v>
       </c>
       <c r="J21">
-        <v>1.000618941356308</v>
+        <v>1.000618941356336</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.330513153206411</v>
+        <v>1.330513153206425</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.171735110840132</v>
+        <v>3.171735110839961</v>
       </c>
       <c r="C22">
-        <v>1.529377498926976</v>
+        <v>1.52937749892692</v>
       </c>
       <c r="D22">
-        <v>0.4651462060105871</v>
+        <v>0.4651462060103313</v>
       </c>
       <c r="E22">
-        <v>0.2571535228174895</v>
+        <v>0.2571535228174184</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>4.631607156343449</v>
+        <v>4.631607156343563</v>
       </c>
       <c r="H22">
-        <v>3.221513236692189</v>
+        <v>3.221513236692232</v>
       </c>
       <c r="I22">
-        <v>0.04594233931708303</v>
+        <v>0.0459423393170546</v>
       </c>
       <c r="J22">
         <v>1.087387215833346</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.44559453755609</v>
+        <v>1.445594537556119</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.036709539172875</v>
+        <v>3.036709539173216</v>
       </c>
       <c r="C23">
-        <v>1.463004720705726</v>
+        <v>1.463004720706067</v>
       </c>
       <c r="D23">
-        <v>0.4457444624000857</v>
+        <v>0.4457444624002846</v>
       </c>
       <c r="E23">
-        <v>0.246719835002601</v>
+        <v>0.2467198350024447</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.458470847802289</v>
+        <v>4.458470847802232</v>
       </c>
       <c r="H23">
-        <v>3.1074339170261</v>
+        <v>3.107433917026043</v>
       </c>
       <c r="I23">
-        <v>0.04416880140840007</v>
+        <v>0.04416880140836987</v>
       </c>
       <c r="J23">
-        <v>1.04078786945594</v>
+        <v>1.040787869455926</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.383769497968231</v>
+        <v>1.383769497968217</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.541465262203815</v>
+        <v>2.541465262203928</v>
       </c>
       <c r="C24">
-        <v>1.220662162788244</v>
+        <v>1.220662162788017</v>
       </c>
       <c r="D24">
         <v>0.3748674788713515</v>
       </c>
       <c r="E24">
-        <v>0.208746093185546</v>
+        <v>0.2087460931855887</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,10 +1266,10 @@
         <v>3.828410599733274</v>
       </c>
       <c r="H24">
-        <v>2.692559185537419</v>
+        <v>2.692559185537448</v>
       </c>
       <c r="I24">
-        <v>0.03773926161357188</v>
+        <v>0.03773926161352037</v>
       </c>
       <c r="J24">
         <v>0.8701295536026805</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.15776574983083</v>
+        <v>1.157765749830823</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.033546075556501</v>
+        <v>2.033546075556586</v>
       </c>
       <c r="C25">
-        <v>0.9739311965918205</v>
+        <v>0.9739311965915931</v>
       </c>
       <c r="D25">
-        <v>0.3027155159297621</v>
+        <v>0.3027155159297905</v>
       </c>
       <c r="E25">
-        <v>0.1703393148702617</v>
+        <v>0.170339314870354</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.191479855617757</v>
+        <v>3.191479855617715</v>
       </c>
       <c r="H25">
         <v>2.273699811056858</v>
       </c>
       <c r="I25">
-        <v>0.03128080020315949</v>
+        <v>0.0312808002031808</v>
       </c>
       <c r="J25">
-        <v>0.6955308118950754</v>
+        <v>0.6955308118950541</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.9273296657071484</v>
+        <v>0.9273296657071555</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_1/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.675371722812258</v>
+        <v>1.675428941514099</v>
       </c>
       <c r="C2">
-        <v>0.8010776269430266</v>
+        <v>0.8001742208526537</v>
       </c>
       <c r="D2">
-        <v>0.2522400507276217</v>
+        <v>0.252241105601712</v>
       </c>
       <c r="E2">
-        <v>0.1436442000342595</v>
+        <v>0.1436614742525961</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.749149046853574</v>
+        <v>0.882126922833919</v>
       </c>
       <c r="H2">
-        <v>1.983238969314172</v>
+        <v>1.862330656162214</v>
       </c>
       <c r="I2">
-        <v>0.02682235284797585</v>
+        <v>1.97771089784041</v>
       </c>
       <c r="J2">
-        <v>0.5726760997287386</v>
+        <v>0.0268281064755076</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5724794454342259</v>
       </c>
       <c r="L2">
-        <v>0.7657776876665778</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.7656295576572063</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.439732676588648</v>
+        <v>1.439821268733169</v>
       </c>
       <c r="C3">
-        <v>0.6878927533802539</v>
+        <v>0.6871200282270138</v>
       </c>
       <c r="D3">
-        <v>0.2192578932357918</v>
+        <v>0.2192613518114541</v>
       </c>
       <c r="E3">
-        <v>0.1262913813361699</v>
+        <v>0.1263083232532409</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.461883977147906</v>
+        <v>0.7836442362286959</v>
       </c>
       <c r="H3">
-        <v>1.794848423853097</v>
+        <v>1.674674286943372</v>
       </c>
       <c r="I3">
-        <v>0.02394012184601912</v>
+        <v>1.789966698060255</v>
       </c>
       <c r="J3">
-        <v>0.4919781171255337</v>
+        <v>0.02394571462240869</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4918191210948351</v>
       </c>
       <c r="L3">
-        <v>0.6599925337794019</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.6598732013720507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.297778223787901</v>
+        <v>1.297879702100403</v>
       </c>
       <c r="C4">
-        <v>0.6199204332899058</v>
+        <v>0.6192241394275868</v>
       </c>
       <c r="D4">
-        <v>0.1994910885318575</v>
+        <v>0.1994956380005419</v>
       </c>
       <c r="E4">
-        <v>0.115931121379294</v>
+        <v>0.1159478164456083</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.290513809776158</v>
+        <v>0.724814650962216</v>
       </c>
       <c r="H4">
-        <v>1.682576319164255</v>
+        <v>1.562811581354538</v>
       </c>
       <c r="I4">
-        <v>0.02222626980462117</v>
+        <v>1.67808466071223</v>
       </c>
       <c r="J4">
-        <v>0.4434145461567169</v>
+        <v>0.02223179139235576</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4432763254377647</v>
       </c>
       <c r="L4">
-        <v>0.5964833188877208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.5963793251548424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.240514811931632</v>
+        <v>1.240620151194349</v>
       </c>
       <c r="C5">
-        <v>0.5925476312558544</v>
+        <v>0.5918816708450265</v>
       </c>
       <c r="D5">
-        <v>0.1915418397904176</v>
+        <v>0.1915467550213208</v>
       </c>
       <c r="E5">
-        <v>0.1117740078975409</v>
+        <v>0.1117905975573663</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.221785702040478</v>
+        <v>0.7012013953415703</v>
       </c>
       <c r="H5">
-        <v>1.637577104669134</v>
+        <v>1.517970173348957</v>
       </c>
       <c r="I5">
-        <v>0.02154020199911777</v>
+        <v>1.633243024366436</v>
       </c>
       <c r="J5">
-        <v>0.4238355264240283</v>
+        <v>0.02154570179753001</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.423705264104683</v>
       </c>
       <c r="L5">
-        <v>0.5709152720684827</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.5708170257011815</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.23103875420594</v>
+        <v>1.23114465632824</v>
       </c>
       <c r="C6">
-        <v>0.5880205654357269</v>
+        <v>0.5873595966590131</v>
       </c>
       <c r="D6">
-        <v>0.1902278314849752</v>
+        <v>0.1902328031671203</v>
       </c>
       <c r="E6">
-        <v>0.1110873806161727</v>
+        <v>0.1111039526348634</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.210436069836632</v>
+        <v>0.6973007661786426</v>
       </c>
       <c r="H6">
-        <v>1.630147656213666</v>
+        <v>1.510566422886313</v>
       </c>
       <c r="I6">
-        <v>0.02142697962715268</v>
+        <v>1.625839667406169</v>
       </c>
       <c r="J6">
-        <v>0.4205961846702522</v>
+        <v>0.02143247624952949</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4204672153865729</v>
       </c>
       <c r="L6">
-        <v>0.5666872074462432</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.5665898873213777</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.29700371168471</v>
+        <v>1.297105247434558</v>
       </c>
       <c r="C7">
-        <v>0.6195500230684559</v>
+        <v>0.6188541414069277</v>
       </c>
       <c r="D7">
-        <v>0.1993834733982283</v>
+        <v>0.1993880280969336</v>
       </c>
       <c r="E7">
-        <v>0.1158748064147019</v>
+        <v>0.1158915000720171</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.28958263037913</v>
+        <v>0.7244948006668608</v>
       </c>
       <c r="H7">
-        <v>1.681966525412832</v>
+        <v>1.5622039505933</v>
       </c>
       <c r="I7">
-        <v>0.0222169694183183</v>
+        <v>1.67747699728244</v>
       </c>
       <c r="J7">
-        <v>0.4431496881410339</v>
+        <v>0.02222249068264226</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4430115767061835</v>
       </c>
       <c r="L7">
-        <v>0.5961372971988297</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.5960333829095816</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.593492296994697</v>
+        <v>1.593561794397147</v>
       </c>
       <c r="C8">
-        <v>0.7616992859342702</v>
+        <v>0.7608418217744486</v>
       </c>
       <c r="D8">
-        <v>0.2407571913767157</v>
+        <v>0.2407591667267894</v>
       </c>
       <c r="E8">
-        <v>0.1375939682952918</v>
+        <v>0.1376111407980432</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.648962639556274</v>
+        <v>0.8477970295088824</v>
       </c>
       <c r="H8">
-        <v>1.917511310744047</v>
+        <v>1.796865576078105</v>
       </c>
       <c r="I8">
-        <v>0.02581588869258766</v>
+        <v>1.912207720038978</v>
       </c>
       <c r="J8">
-        <v>0.5446236280269048</v>
+        <v>0.02582158135290591</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.5444404985489228</v>
       </c>
       <c r="L8">
-        <v>0.7289714161319054</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.7288337574807997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.201775975618034</v>
+        <v>2.2017206757032</v>
       </c>
       <c r="C9">
-        <v>1.055445687054117</v>
+        <v>1.054233489760691</v>
       </c>
       <c r="D9">
-        <v>0.3265452905214232</v>
+        <v>0.3265381595943637</v>
       </c>
       <c r="E9">
-        <v>0.182993853216658</v>
+        <v>0.1830112785803522</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.401286175135937</v>
+        <v>1.105238776364303</v>
       </c>
       <c r="H9">
-        <v>2.411602388058455</v>
+        <v>2.288832007987679</v>
       </c>
       <c r="I9">
-        <v>0.03340342846307109</v>
+        <v>2.404631277644398</v>
       </c>
       <c r="J9">
-        <v>0.7533116426282547</v>
+        <v>0.03340965379733163</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.7530172230992562</v>
       </c>
       <c r="L9">
-        <v>1.003489701037786</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1.003262651056339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.673452268374888</v>
+        <v>2.673248195101621</v>
       </c>
       <c r="C10">
-        <v>1.285079360661825</v>
+        <v>1.283570533239015</v>
       </c>
       <c r="D10">
-        <v>0.3937104572672752</v>
+        <v>0.3936924160001922</v>
       </c>
       <c r="E10">
-        <v>0.2188191140983662</v>
+        <v>0.218835660108887</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.995523430920514</v>
+        <v>1.308142182694013</v>
       </c>
       <c r="H10">
-        <v>2.802552288273176</v>
+        <v>2.677888327222831</v>
       </c>
       <c r="I10">
-        <v>0.03944076764962823</v>
+        <v>2.794284121935334</v>
       </c>
       <c r="J10">
-        <v>0.915571719201111</v>
+        <v>0.03944745232236002</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.9151740758115068</v>
       </c>
       <c r="L10">
-        <v>1.217877407768114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1.217562579428673</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.895659341854639</v>
+        <v>2.895369574820791</v>
       </c>
       <c r="C11">
-        <v>1.393807247093264</v>
+        <v>1.392151935241259</v>
       </c>
       <c r="D11">
-        <v>0.4255110307560983</v>
+        <v>0.4254865760794644</v>
       </c>
       <c r="E11">
-        <v>0.235856255149713</v>
+        <v>0.2358719597786845</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.278206284162195</v>
+        <v>1.404563196261563</v>
       </c>
       <c r="H11">
-        <v>2.988689745612845</v>
+        <v>2.863070325649602</v>
       </c>
       <c r="I11">
-        <v>0.04232529662500362</v>
+        <v>2.979807895524971</v>
       </c>
       <c r="J11">
-        <v>0.9921414181360433</v>
+        <v>0.04233218462515076</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.9916900017843773</v>
       </c>
       <c r="L11">
-        <v>1.319278119830187</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1.318916214140941</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.9811266775219</v>
+        <v>2.980801264644867</v>
       </c>
       <c r="C12">
-        <v>1.435719766133445</v>
+        <v>1.434006927057737</v>
       </c>
       <c r="D12">
-        <v>0.4377669507886139</v>
+        <v>0.4377397994298917</v>
       </c>
       <c r="E12">
-        <v>0.2424344690488951</v>
+        <v>0.2424497670603216</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.387360823001245</v>
+        <v>1.441779899895323</v>
       </c>
       <c r="H12">
-        <v>3.060588177106098</v>
+        <v>2.934591478229351</v>
       </c>
       <c r="I12">
-        <v>0.0434412092274048</v>
+        <v>3.051469707626438</v>
       </c>
       <c r="J12">
-        <v>1.021614116419769</v>
+        <v>0.04344817074572838</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.021141126286551</v>
       </c>
       <c r="L12">
-        <v>1.358344360849159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1.357963345085125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.962656978393284</v>
+        <v>2.962339395744436</v>
       </c>
       <c r="C13">
-        <v>1.426658019077991</v>
+        <v>1.4249576682667</v>
       </c>
       <c r="D13">
-        <v>0.4351173036669138</v>
+        <v>0.4350907461249847</v>
       </c>
       <c r="E13">
-        <v>0.2410117436434049</v>
+        <v>0.2410271336113041</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.36375279588782</v>
+        <v>1.43373132054063</v>
       </c>
       <c r="H13">
-        <v>3.045036867606498</v>
+        <v>2.9191221427659</v>
       </c>
       <c r="I13">
-        <v>0.04319976126073755</v>
+        <v>3.035969561563277</v>
       </c>
       <c r="J13">
-        <v>1.015243973477041</v>
+        <v>0.04320670715387465</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.014775687757322</v>
       </c>
       <c r="L13">
-        <v>1.349899072553256</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1.349522234271632</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.902662873793759</v>
+        <v>2.902370242158611</v>
       </c>
       <c r="C14">
-        <v>1.397239792654489</v>
+        <v>1.395579791811883</v>
       </c>
       <c r="D14">
-        <v>0.4265148316305556</v>
+        <v>0.4264901608648586</v>
       </c>
       <c r="E14">
-        <v>0.2363947834383069</v>
+        <v>0.2364104565450589</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.28714214179962</v>
+        <v>1.407610218472257</v>
       </c>
       <c r="H14">
-        <v>2.994575182905876</v>
+        <v>2.868925045566698</v>
       </c>
       <c r="I14">
-        <v>0.0424166066700451</v>
+        <v>2.9856739561491</v>
       </c>
       <c r="J14">
-        <v>0.994556074066324</v>
+        <v>0.04242350080726709</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.9941029086106425</v>
       </c>
       <c r="L14">
-        <v>1.322478034358028</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1.322114583863709</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.866094237114851</v>
+        <v>2.865816452244701</v>
       </c>
       <c r="C15">
-        <v>1.379320709532578</v>
+        <v>1.377685143092265</v>
       </c>
       <c r="D15">
-        <v>0.4212745217877796</v>
+        <v>0.421250969789071</v>
       </c>
       <c r="E15">
-        <v>0.2335839079764739</v>
+        <v>0.2335997422014131</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.240501266385053</v>
+        <v>1.391705621331795</v>
       </c>
       <c r="H15">
-        <v>2.96385698773021</v>
+        <v>2.838366843671253</v>
       </c>
       <c r="I15">
-        <v>0.04194009762165507</v>
+        <v>2.955056910856896</v>
       </c>
       <c r="J15">
-        <v>0.981948946796706</v>
+        <v>0.0419469595073938</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.981504877467998</v>
       </c>
       <c r="L15">
-        <v>1.305772452951402</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1.305417027179161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.659102546026304</v>
+        <v>2.658903661843624</v>
       </c>
       <c r="C16">
-        <v>1.278069896812838</v>
+        <v>1.276570378199494</v>
       </c>
       <c r="D16">
-        <v>0.391660123778621</v>
+        <v>0.3916424677079817</v>
       </c>
       <c r="E16">
-        <v>0.2177222414529965</v>
+        <v>0.2177388316288003</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.977325294055049</v>
+        <v>1.301932887382065</v>
       </c>
       <c r="H16">
-        <v>2.790572630508905</v>
+        <v>2.665969055215072</v>
       </c>
       <c r="I16">
-        <v>0.03925534224279836</v>
+        <v>2.782344026742081</v>
       </c>
       <c r="J16">
-        <v>0.9106298068726346</v>
+        <v>0.03926201330826729</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.9102355219170875</v>
       </c>
       <c r="L16">
-        <v>1.211337666107923</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1.211025750090627</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.534224570380275</v>
+        <v>2.534069085296323</v>
       </c>
       <c r="C17">
-        <v>1.217131868074148</v>
+        <v>1.215712597094239</v>
       </c>
       <c r="D17">
-        <v>0.3738348086831422</v>
+        <v>0.3738203602854355</v>
       </c>
       <c r="E17">
-        <v>0.2081945404578676</v>
+        <v>0.2082114659983816</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.819260822797816</v>
+        <v>1.247989359307695</v>
       </c>
       <c r="H17">
-        <v>2.686537872862004</v>
+        <v>2.562452746885924</v>
       </c>
       <c r="I17">
-        <v>0.03764618202256109</v>
+        <v>2.678653251963539</v>
       </c>
       <c r="J17">
-        <v>0.8676374781471168</v>
+        <v>0.0376527329799945</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.8672718396095718</v>
       </c>
       <c r="L17">
-        <v>1.154470706824505</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1.154183488520921</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.463101746284963</v>
+        <v>2.462969570608834</v>
       </c>
       <c r="C18">
-        <v>1.18247482636815</v>
+        <v>1.181100653117539</v>
       </c>
       <c r="D18">
-        <v>0.363697156158409</v>
+        <v>0.3636844205494754</v>
       </c>
       <c r="E18">
-        <v>0.2027827313622623</v>
+        <v>0.2027998100754687</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.729487167724812</v>
+        <v>1.21734253952485</v>
       </c>
       <c r="H18">
-        <v>2.627465321244102</v>
+        <v>2.503669663825093</v>
       </c>
       <c r="I18">
-        <v>0.03673337854449343</v>
+        <v>2.619776382748839</v>
       </c>
       <c r="J18">
-        <v>0.8431633497149136</v>
+        <v>0.03673986009739316</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.8428135627486029</v>
       </c>
       <c r="L18">
-        <v>1.122119435928646</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1.121845768749523</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.43913539658854</v>
+        <v>2.439010845545909</v>
       </c>
       <c r="C19">
-        <v>1.170804518424802</v>
+        <v>1.169445443403845</v>
       </c>
       <c r="D19">
-        <v>0.360283510228669</v>
+        <v>0.3602713334176286</v>
       </c>
       <c r="E19">
-        <v>0.200961548175421</v>
+        <v>0.2009786725656042</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.699278044708365</v>
+        <v>1.207028207405244</v>
       </c>
       <c r="H19">
-        <v>2.607589702517856</v>
+        <v>2.483890611896442</v>
       </c>
       <c r="I19">
-        <v>0.03642640326657975</v>
+        <v>2.599966669161589</v>
       </c>
       <c r="J19">
-        <v>0.8349181846175497</v>
+        <v>0.036432861330983</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.8345736635971974</v>
       </c>
       <c r="L19">
-        <v>1.111224094391027</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1.110954909849632</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.547443708947696</v>
+        <v>2.547283778950714</v>
       </c>
       <c r="C20">
-        <v>1.223577314118302</v>
+        <v>1.222149612802866</v>
       </c>
       <c r="D20">
-        <v>0.3757202100476036</v>
+        <v>0.3757054342520689</v>
       </c>
       <c r="E20">
-        <v>0.2092015785663364</v>
+        <v>0.2092184726731929</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.835966750904703</v>
+        <v>1.25369165057171</v>
       </c>
       <c r="H20">
-        <v>2.69753184356334</v>
+        <v>2.573392444920501</v>
       </c>
       <c r="I20">
-        <v>0.03781613585369215</v>
+        <v>2.689610834919975</v>
       </c>
       <c r="J20">
-        <v>0.8721872601977765</v>
+        <v>0.03782269964641927</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.8718186384076176</v>
       </c>
       <c r="L20">
-        <v>1.160486587610762</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1.16019680957821</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.920246738728849</v>
+        <v>2.919946870614126</v>
       </c>
       <c r="C21">
-        <v>1.405859453143194</v>
+        <v>1.404187659957188</v>
       </c>
       <c r="D21">
-        <v>0.4290354828390548</v>
+        <v>0.4290102657079444</v>
       </c>
       <c r="E21">
-        <v>0.2377472824578533</v>
+        <v>0.2377628750202447</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.309584409242262</v>
+        <v>1.415262526159978</v>
       </c>
       <c r="H21">
-        <v>3.009356745529743</v>
+        <v>2.883629328346018</v>
       </c>
       <c r="I21">
-        <v>0.04264596457364256</v>
+        <v>3.000406859542409</v>
       </c>
       <c r="J21">
-        <v>1.000618941356336</v>
+        <v>0.04265287403353568</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.000161369685387</v>
       </c>
       <c r="L21">
-        <v>1.330513153206425</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1.33014580755156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.171735110839961</v>
+        <v>3.171324770271269</v>
       </c>
       <c r="C22">
-        <v>1.52937749892692</v>
+        <v>1.527533936294901</v>
       </c>
       <c r="D22">
-        <v>0.4651462060103313</v>
+        <v>0.465112562656401</v>
       </c>
       <c r="E22">
-        <v>0.2571535228174184</v>
+        <v>0.2571677346458401</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>4.631607156343563</v>
+        <v>1.525028724354826</v>
       </c>
       <c r="H22">
-        <v>3.221513236692232</v>
+        <v>3.09465680138905</v>
       </c>
       <c r="I22">
-        <v>0.0459423393170546</v>
+        <v>3.211865743550462</v>
       </c>
       <c r="J22">
-        <v>1.087387215833346</v>
+        <v>0.04594945236797265</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.086864302716833</v>
       </c>
       <c r="L22">
-        <v>1.445594537556119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1.445168852940014</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.036709539173216</v>
+        <v>3.036360137914869</v>
       </c>
       <c r="C23">
-        <v>1.463004720706067</v>
+        <v>1.461254110171865</v>
       </c>
       <c r="D23">
-        <v>0.4457444624002846</v>
+        <v>0.4457154868281634</v>
       </c>
       <c r="E23">
-        <v>0.2467198350024447</v>
+        <v>0.2467348423959308</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.458470847802232</v>
+        <v>1.466020915369398</v>
       </c>
       <c r="H23">
-        <v>3.107433917026043</v>
+        <v>2.981189078039336</v>
       </c>
       <c r="I23">
-        <v>0.04416880140836987</v>
+        <v>3.098161374536474</v>
       </c>
       <c r="J23">
-        <v>1.040787869455926</v>
+        <v>0.04417580900960338</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.0403005806252</v>
       </c>
       <c r="L23">
-        <v>1.383769497968217</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1.383375750642216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.541465262203928</v>
+        <v>2.541307346820588</v>
       </c>
       <c r="C24">
-        <v>1.220662162788017</v>
+        <v>1.219238276030694</v>
       </c>
       <c r="D24">
-        <v>0.3748674788713515</v>
+        <v>0.3748528514971099</v>
       </c>
       <c r="E24">
-        <v>0.2087460931855887</v>
+        <v>0.2087630016253215</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.828410599733274</v>
+        <v>1.251112512776643</v>
       </c>
       <c r="H24">
-        <v>2.692559185537448</v>
+        <v>2.568444350194454</v>
       </c>
       <c r="I24">
-        <v>0.03773926161352037</v>
+        <v>2.684654634204051</v>
       </c>
       <c r="J24">
-        <v>0.8701295536026805</v>
+        <v>0.03774581960434453</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.8697622824479936</v>
       </c>
       <c r="L24">
-        <v>1.157765749830823</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1.157477131051408</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.033546075556586</v>
+        <v>2.033532943920761</v>
       </c>
       <c r="C25">
-        <v>0.9739311965915931</v>
+        <v>0.9728202103256365</v>
       </c>
       <c r="D25">
-        <v>0.3027155159297905</v>
+        <v>0.3027114395244439</v>
       </c>
       <c r="E25">
-        <v>0.170339314870354</v>
+        <v>0.1703568017330142</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.191479855617715</v>
+        <v>1.033517174820204</v>
       </c>
       <c r="H25">
-        <v>2.273699811056858</v>
+        <v>2.151555577549644</v>
       </c>
       <c r="I25">
-        <v>0.0312808002031808</v>
+        <v>2.267190091019145</v>
       </c>
       <c r="J25">
-        <v>0.6955308118950541</v>
+        <v>0.0312868644384956</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.6952696462784616</v>
       </c>
       <c r="L25">
-        <v>0.9273296657071555</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0.9271300096534318</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_1/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.675428941514099</v>
+        <v>1.930546355585392</v>
       </c>
       <c r="C2">
-        <v>0.8001742208526537</v>
+        <v>0.1479639811587674</v>
       </c>
       <c r="D2">
-        <v>0.252241105601712</v>
+        <v>0.2363122573714804</v>
       </c>
       <c r="E2">
-        <v>0.1436614742525961</v>
+        <v>0.05018997768434019</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.882126922833919</v>
+        <v>0.0008830997671925478</v>
       </c>
       <c r="H2">
-        <v>1.862330656162214</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.97771089784041</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0268281064755076</v>
+        <v>0.02725568341434403</v>
       </c>
       <c r="K2">
-        <v>0.5724794454342259</v>
+        <v>0.3977284762850601</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2319284607714707</v>
       </c>
       <c r="M2">
-        <v>0.7656295576572063</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.3897078322097656</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>9.727908833090908</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.439821268733169</v>
+        <v>1.74244116604811</v>
       </c>
       <c r="C3">
-        <v>0.6871200282270138</v>
+        <v>0.1239697053385242</v>
       </c>
       <c r="D3">
-        <v>0.2192613518114541</v>
+        <v>0.2226431172490493</v>
       </c>
       <c r="E3">
-        <v>0.1263083232532409</v>
+        <v>0.04881172946026524</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.7836442362286959</v>
+        <v>0.0008950856095387271</v>
       </c>
       <c r="H3">
-        <v>1.674674286943372</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.789966698060255</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02394571462240869</v>
+        <v>0.02474923367920923</v>
       </c>
       <c r="K3">
-        <v>0.4918191210948351</v>
+        <v>0.3533957453584691</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2193242199255394</v>
       </c>
       <c r="M3">
-        <v>0.6598732013720507</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.3567695361657073</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>8.76728375239432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.297879702100403</v>
+        <v>1.633040497153928</v>
       </c>
       <c r="C4">
-        <v>0.6192241394275868</v>
+        <v>0.1099266831879788</v>
       </c>
       <c r="D4">
-        <v>0.1994956380005419</v>
+        <v>0.2145820604379907</v>
       </c>
       <c r="E4">
-        <v>0.1159478164456083</v>
+        <v>0.04799323437074943</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.724814650962216</v>
+        <v>0.0009025933248820581</v>
       </c>
       <c r="H4">
-        <v>1.562811581354538</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.67808466071223</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02223179139235576</v>
+        <v>0.02324201453312469</v>
       </c>
       <c r="K4">
-        <v>0.4432763254377647</v>
+        <v>0.327599062099388</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2120669094322878</v>
       </c>
       <c r="M4">
-        <v>0.5963793251548424</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.337665379925042</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>8.189635474497578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.240620151194349</v>
+        <v>1.58983975568114</v>
       </c>
       <c r="C5">
-        <v>0.5918816708450265</v>
+        <v>0.1043528356296548</v>
       </c>
       <c r="D5">
-        <v>0.1915467550213208</v>
+        <v>0.2113728627630564</v>
       </c>
       <c r="E5">
-        <v>0.1117905975573663</v>
+        <v>0.04766579757949252</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.7012013953415703</v>
+        <v>0.0009056936009003655</v>
       </c>
       <c r="H5">
-        <v>1.517970173348957</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.633243024366436</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02154570179753001</v>
+        <v>0.02263381795564356</v>
       </c>
       <c r="K5">
-        <v>0.423705264104683</v>
+        <v>0.3174067845685187</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2092209065416242</v>
       </c>
       <c r="M5">
-        <v>0.5708170257011815</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.3301355573885374</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>7.95681906812726</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.23114465632824</v>
+        <v>1.582745573566797</v>
       </c>
       <c r="C6">
-        <v>0.5873595966590131</v>
+        <v>0.1034356236290535</v>
       </c>
       <c r="D6">
-        <v>0.1902328031671203</v>
+        <v>0.210844342789386</v>
       </c>
       <c r="E6">
-        <v>0.1111039526348634</v>
+        <v>0.04761177205736455</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.6973007661786426</v>
+        <v>0.0009062109610476064</v>
       </c>
       <c r="H6">
-        <v>1.510566422886313</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.625839667406169</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02143247624952949</v>
+        <v>0.02253313668987467</v>
       </c>
       <c r="K6">
-        <v>0.4204672153865729</v>
+        <v>0.3157326661533517</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2087547938862713</v>
       </c>
       <c r="M6">
-        <v>0.5665898873213777</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.328899936692352</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>7.918302734009416</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.297105247434558</v>
+        <v>1.63245247460452</v>
       </c>
       <c r="C7">
-        <v>0.6188541414069277</v>
+        <v>0.1098509403099115</v>
       </c>
       <c r="D7">
-        <v>0.1993880280969336</v>
+        <v>0.2145384829735519</v>
       </c>
       <c r="E7">
-        <v>0.1158915000720171</v>
+        <v>0.04798879480235829</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.7244948006668608</v>
+        <v>0.0009026349666037454</v>
       </c>
       <c r="H7">
-        <v>1.5622039505933</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1.67747699728244</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02222249068264226</v>
+        <v>0.02323379030555017</v>
       </c>
       <c r="K7">
-        <v>0.4430115767061835</v>
+        <v>0.3274603565986709</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2120280882526586</v>
       </c>
       <c r="M7">
-        <v>0.5960333829095816</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.3375628292918549</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>8.186485786589316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.593561794397147</v>
+        <v>1.864325256184259</v>
       </c>
       <c r="C8">
-        <v>0.7608418217744486</v>
+        <v>0.1395318938587167</v>
       </c>
       <c r="D8">
-        <v>0.2407591667267894</v>
+        <v>0.2315253662215753</v>
       </c>
       <c r="E8">
-        <v>0.1376111407980432</v>
+        <v>0.04970844029205779</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.8477970295088824</v>
+        <v>0.0008872039261876844</v>
       </c>
       <c r="H8">
-        <v>1.796865576078105</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.912207720038978</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.02582158135290591</v>
+        <v>0.0263836046978696</v>
       </c>
       <c r="K8">
-        <v>0.5444404985489228</v>
+        <v>0.382122817327236</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2274763339323584</v>
       </c>
       <c r="M8">
-        <v>0.7288337574807997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.3781014082447385</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>9.393850368810632</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.2017206757032</v>
+        <v>2.375300224963894</v>
       </c>
       <c r="C9">
-        <v>1.054233489760691</v>
+        <v>0.2044944054597408</v>
       </c>
       <c r="D9">
-        <v>0.3265381595943637</v>
+        <v>0.2678663787489768</v>
       </c>
       <c r="E9">
-        <v>0.1830112785803522</v>
+        <v>0.05334623226420554</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.105238776364303</v>
+        <v>0.0008579402433509255</v>
       </c>
       <c r="H9">
-        <v>2.288832007987679</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>2.404631277644398</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03340965379733163</v>
+        <v>0.03291570508290853</v>
       </c>
       <c r="K9">
-        <v>0.7530172230992562</v>
+        <v>0.502586231628591</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2620961902607206</v>
       </c>
       <c r="M9">
-        <v>1.003262651056339</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.4678533488737529</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>11.88302526460615</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.673248195101621</v>
+        <v>2.797983346587728</v>
       </c>
       <c r="C10">
-        <v>1.283570533239015</v>
+        <v>0.2584758843907622</v>
       </c>
       <c r="D10">
-        <v>0.3936924160001922</v>
+        <v>0.2970578649872238</v>
       </c>
       <c r="E10">
-        <v>0.218835660108887</v>
+        <v>0.05625534208710725</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.308142182694013</v>
+        <v>0.0008367545911451364</v>
       </c>
       <c r="H10">
-        <v>2.677888327222831</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>2.794284121935334</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.03944745232236002</v>
+        <v>0.03810286095923487</v>
       </c>
       <c r="K10">
-        <v>0.9151740758115068</v>
+        <v>0.6024269275761895</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2909913118078578</v>
       </c>
       <c r="M10">
-        <v>1.217562579428673</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.5422900663119776</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>13.82645533969611</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.895369574820791</v>
+        <v>3.004129695545259</v>
       </c>
       <c r="C11">
-        <v>1.392151935241259</v>
+        <v>0.2849914161067773</v>
       </c>
       <c r="D11">
-        <v>0.4254865760794644</v>
+        <v>0.3110548722173831</v>
       </c>
       <c r="E11">
-        <v>0.2358719597786845</v>
+        <v>0.05765078950059177</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.404563196261563</v>
+        <v>0.0008271049218179963</v>
       </c>
       <c r="H11">
-        <v>2.863070325649602</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2.979807895524971</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.04233218462515076</v>
+        <v>0.04059510131637367</v>
       </c>
       <c r="K11">
-        <v>0.9916900017843773</v>
+        <v>0.6512112393980871</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3051141992305304</v>
       </c>
       <c r="M11">
-        <v>1.318916214140941</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.5786188217067547</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>14.74656810183558</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.980801264644867</v>
+        <v>3.084556392701472</v>
       </c>
       <c r="C12">
-        <v>1.434006927057737</v>
+        <v>0.2953766097116102</v>
       </c>
       <c r="D12">
-        <v>0.4377397994298917</v>
+        <v>0.316476267217908</v>
       </c>
       <c r="E12">
-        <v>0.2424497670603216</v>
+        <v>0.05819170929669681</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.441779899895323</v>
+        <v>0.0008234409380279875</v>
       </c>
       <c r="H12">
-        <v>2.934591478229351</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>3.051469707626438</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.04344817074572838</v>
+        <v>0.04156295383599939</v>
       </c>
       <c r="K12">
-        <v>1.021141126286551</v>
+        <v>0.6702620526872707</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.3106260644560734</v>
       </c>
       <c r="M12">
-        <v>1.357963345085125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.5927942728606084</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>15.10130606257525</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.962339395744436</v>
+        <v>3.06712327985872</v>
       </c>
       <c r="C13">
-        <v>1.4249576682667</v>
+        <v>0.2931235214870469</v>
       </c>
       <c r="D13">
-        <v>0.4350907461249847</v>
+        <v>0.3153029704900945</v>
       </c>
       <c r="E13">
-        <v>0.2410271336113041</v>
+        <v>0.0580746184324461</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.43373132054063</v>
+        <v>0.0008242306268530187</v>
       </c>
       <c r="H13">
-        <v>2.9191221427659</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>3.035969561563277</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.04320670715387465</v>
+        <v>0.04135334651100209</v>
       </c>
       <c r="K13">
-        <v>1.014775687757322</v>
+        <v>0.6661317630409869</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.3094312830581316</v>
       </c>
       <c r="M13">
-        <v>1.349522234271632</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.5897215722843114</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>15.02460594101922</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.902370242158611</v>
+        <v>3.010696704721056</v>
       </c>
       <c r="C14">
-        <v>1.395579791811883</v>
+        <v>0.2858385065269573</v>
       </c>
       <c r="D14">
-        <v>0.4264901608648586</v>
+        <v>0.311498354137953</v>
       </c>
       <c r="E14">
-        <v>0.2364104565450589</v>
+        <v>0.05769502720739261</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.407610218472257</v>
+        <v>0.0008268037329358057</v>
       </c>
       <c r="H14">
-        <v>2.868925045566698</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>2.9856739561491</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.04242350080726709</v>
+        <v>0.04067421170292107</v>
       </c>
       <c r="K14">
-        <v>0.9941029086106425</v>
+        <v>0.6527663928586662</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.3055642319622649</v>
       </c>
       <c r="M14">
-        <v>1.322114583863709</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.579776247113422</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>14.77561889991046</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.865816452244701</v>
+        <v>2.976453792976031</v>
       </c>
       <c r="C15">
-        <v>1.377685143092265</v>
+        <v>0.2814231439607227</v>
       </c>
       <c r="D15">
-        <v>0.421250969789071</v>
+        <v>0.3091842634943021</v>
       </c>
       <c r="E15">
-        <v>0.2335997422014131</v>
+        <v>0.05746421400250412</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.391705621331795</v>
+        <v>0.0008283782843787004</v>
       </c>
       <c r="H15">
-        <v>2.838366843671253</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2.955056910856896</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.0419469595073938</v>
+        <v>0.04026152679302974</v>
       </c>
       <c r="K15">
-        <v>0.981504877467998</v>
+        <v>0.6446579700687991</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.3032176488870135</v>
       </c>
       <c r="M15">
-        <v>1.305417027179161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.5737410561409391</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>14.62396614213083</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.658903661843624</v>
+        <v>2.78482023919679</v>
       </c>
       <c r="C16">
-        <v>1.276570378199494</v>
+        <v>0.2567875261168524</v>
       </c>
       <c r="D16">
-        <v>0.3916424677079817</v>
+        <v>0.2961590215744394</v>
       </c>
       <c r="E16">
-        <v>0.2177388316288003</v>
+        <v>0.05616576961575959</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.301932887382065</v>
+        <v>0.0008373843139897197</v>
       </c>
       <c r="H16">
-        <v>2.665969055215072</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2.782344026742081</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.03926201330826729</v>
+        <v>0.03794306240141232</v>
       </c>
       <c r="K16">
-        <v>0.9102355219170875</v>
+        <v>0.599314060546277</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2900899177259504</v>
       </c>
       <c r="M16">
-        <v>1.211025750090627</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.5399707231971149</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>13.76714087114541</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.534069085296323</v>
+        <v>2.671052416225052</v>
       </c>
       <c r="C17">
-        <v>1.215712597094239</v>
+        <v>0.2422169137418706</v>
       </c>
       <c r="D17">
-        <v>0.3738203602854355</v>
+        <v>0.2883639883413593</v>
       </c>
       <c r="E17">
-        <v>0.2082114659983816</v>
+        <v>0.05538906908721408</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.247989359307695</v>
+        <v>0.0008429007715323651</v>
       </c>
       <c r="H17">
-        <v>2.562452746885924</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>2.678653251963539</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.0376527329799945</v>
+        <v>0.03655799046438268</v>
       </c>
       <c r="K17">
-        <v>0.8672718396095718</v>
+        <v>0.5724201160614086</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2823022357154201</v>
       </c>
       <c r="M17">
-        <v>1.154183488520921</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.5199273443689236</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>13.25147737997213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.462969570608834</v>
+        <v>2.606895483984374</v>
       </c>
       <c r="C18">
-        <v>1.181100653117539</v>
+        <v>0.2340162816358315</v>
       </c>
       <c r="D18">
-        <v>0.3636844205494754</v>
+        <v>0.2839468050583207</v>
       </c>
       <c r="E18">
-        <v>0.2027998100754687</v>
+        <v>0.05494896718283115</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.21734253952485</v>
+        <v>0.0008460731053538632</v>
       </c>
       <c r="H18">
-        <v>2.503669663825093</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>2.619776382748839</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.03673986009739316</v>
+        <v>0.03577345896523276</v>
       </c>
       <c r="K18">
-        <v>0.8428135627486029</v>
+        <v>0.5572617684329089</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2779134444385107</v>
       </c>
       <c r="M18">
-        <v>1.121845768749523</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.5086266942648621</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>12.95819494999449</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.439010845545909</v>
+        <v>2.585382612310923</v>
       </c>
       <c r="C19">
-        <v>1.169445443403845</v>
+        <v>0.231268892497809</v>
       </c>
       <c r="D19">
-        <v>0.3602713334176286</v>
+        <v>0.2824621190630126</v>
       </c>
       <c r="E19">
-        <v>0.2009786725656042</v>
+        <v>0.05480103745763643</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.207028207405244</v>
+        <v>0.0008471473259939786</v>
       </c>
       <c r="H19">
-        <v>2.483890611896442</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>2.599966669161589</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.036432861330983</v>
+        <v>0.03550977519081577</v>
       </c>
       <c r="K19">
-        <v>0.8345736635971974</v>
+        <v>0.5521801557276262</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2764423767529536</v>
       </c>
       <c r="M19">
-        <v>1.110954909849632</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.5048378544820906</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>12.85943250164672</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.547283778950714</v>
+        <v>2.683028333801417</v>
       </c>
       <c r="C20">
-        <v>1.222149612802866</v>
+        <v>0.2437489368305421</v>
       </c>
       <c r="D20">
-        <v>0.3757054342520689</v>
+        <v>0.2891868005671085</v>
       </c>
       <c r="E20">
-        <v>0.2092184726731929</v>
+        <v>0.05547104926935198</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.25369165057171</v>
+        <v>0.0008423136500025772</v>
       </c>
       <c r="H20">
-        <v>2.573392444920501</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>2.689610834919975</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.03782269964641927</v>
+        <v>0.03670414554600221</v>
       </c>
       <c r="K20">
-        <v>0.8718186384076176</v>
+        <v>0.5752502847692469</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2831217294368287</v>
       </c>
       <c r="M20">
-        <v>1.16019680957821</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.5220369986101119</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>13.30602016310894</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.919946870614126</v>
+        <v>3.027203106941045</v>
       </c>
       <c r="C21">
-        <v>1.404187659957188</v>
+        <v>0.2879683836051896</v>
       </c>
       <c r="D21">
-        <v>0.4290102657079444</v>
+        <v>0.3126124189753057</v>
       </c>
       <c r="E21">
-        <v>0.2377628750202447</v>
+        <v>0.0578061642129839</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.415262526159978</v>
+        <v>0.0008260482895054151</v>
       </c>
       <c r="H21">
-        <v>2.883629328346018</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>3.000406859542409</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.04265287403353568</v>
+        <v>0.04087299086521767</v>
       </c>
       <c r="K21">
-        <v>1.000161369685387</v>
+        <v>0.6566756253939516</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3066954258697336</v>
       </c>
       <c r="M21">
-        <v>1.33014580755156</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.5826855014841925</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>14.84857109512865</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.171324770271269</v>
+        <v>3.266144944201812</v>
       </c>
       <c r="C22">
-        <v>1.527533936294901</v>
+        <v>0.3189144400920156</v>
       </c>
       <c r="D22">
-        <v>0.465112562656401</v>
+        <v>0.3286386805027632</v>
       </c>
       <c r="E22">
-        <v>0.2571677346458401</v>
+        <v>0.05940643345865659</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.525028724354826</v>
+        <v>0.00081535551167015</v>
       </c>
       <c r="H22">
-        <v>3.09465680138905</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>3.211865743550462</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.04594945236797265</v>
+        <v>0.04374115531648926</v>
       </c>
       <c r="K22">
-        <v>1.086864302716833</v>
+        <v>0.7133139154877597</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3230712759829686</v>
       </c>
       <c r="M22">
-        <v>1.445168852940014</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.6248014937474267</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>15.89419060572243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.036360137914869</v>
+        <v>3.137193964929168</v>
       </c>
       <c r="C23">
-        <v>1.461254110171865</v>
+        <v>0.3021865026303487</v>
       </c>
       <c r="D23">
-        <v>0.4457154868281634</v>
+        <v>0.3200128362710188</v>
       </c>
       <c r="E23">
-        <v>0.2467348423959308</v>
+        <v>0.05854473794590653</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.466020915369398</v>
+        <v>0.000821071253957269</v>
       </c>
       <c r="H23">
-        <v>2.981189078039336</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>3.098161374536474</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.04417580900960338</v>
+        <v>0.04219527704297832</v>
       </c>
       <c r="K23">
-        <v>1.0403005806252</v>
+        <v>0.6827360387110986</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3142336561881365</v>
       </c>
       <c r="M23">
-        <v>1.383375750642216</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.6020721439176313</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>15.33226413062124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.541307346820588</v>
+        <v>2.677610155852165</v>
       </c>
       <c r="C24">
-        <v>1.219238276030694</v>
+        <v>0.2430557648935121</v>
       </c>
       <c r="D24">
-        <v>0.3748528514971099</v>
+        <v>0.2888146082240013</v>
       </c>
       <c r="E24">
-        <v>0.2087630016253215</v>
+        <v>0.05543396614399043</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.251112512776643</v>
+        <v>0.0008425790844059633</v>
       </c>
       <c r="H24">
-        <v>2.568444350194454</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>2.684654634204051</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.03774581960434453</v>
+        <v>0.03663803255394171</v>
       </c>
       <c r="K24">
-        <v>0.8697622824479936</v>
+        <v>0.5739698274474918</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2827509625075635</v>
       </c>
       <c r="M24">
-        <v>1.157477131051408</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.5210825353649895</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>13.28135155015192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.033532943920761</v>
+        <v>2.229828403989643</v>
       </c>
       <c r="C25">
-        <v>0.9728202103256365</v>
+        <v>0.1859980670280521</v>
       </c>
       <c r="D25">
-        <v>0.3027114395244439</v>
+        <v>0.2576500067016099</v>
       </c>
       <c r="E25">
-        <v>0.1703568017330142</v>
+        <v>0.05232669994106409</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.033517174820204</v>
+        <v>0.0008657778157403807</v>
       </c>
       <c r="H25">
-        <v>2.151555577549644</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>2.267190091019145</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.0312868644384956</v>
+        <v>0.03109459148761218</v>
       </c>
       <c r="K25">
-        <v>0.6952696462784616</v>
+        <v>0.4682731535344047</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2521901575646126</v>
       </c>
       <c r="M25">
-        <v>0.9271300096534318</v>
+        <v>0.4422646629253251</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>11.19280752251311</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_1/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.930546355585392</v>
+        <v>2.067525924052518</v>
       </c>
       <c r="C2">
-        <v>0.1479639811587674</v>
+        <v>0.4068638194197547</v>
       </c>
       <c r="D2">
-        <v>0.2363122573714804</v>
+        <v>0.201764722639254</v>
       </c>
       <c r="E2">
-        <v>0.05018997768434019</v>
+        <v>0.04283644332660685</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008830997671925478</v>
+        <v>0.397105779360075</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.2941468723607983</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.2612396673569108</v>
       </c>
       <c r="J2">
-        <v>0.02725568341434403</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3977284762850601</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2319284607714707</v>
+        <v>0.1604800111389224</v>
       </c>
       <c r="M2">
-        <v>0.3897078322097656</v>
+        <v>0.3624992620703509</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.7393929759461599</v>
       </c>
       <c r="O2">
-        <v>9.727908833090908</v>
+        <v>1.407737722803034</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.74244116604811</v>
+        <v>1.798053472454171</v>
       </c>
       <c r="C3">
-        <v>0.1239697053385242</v>
+        <v>0.3701370852783583</v>
       </c>
       <c r="D3">
-        <v>0.2226431172490493</v>
+        <v>0.1750379752254929</v>
       </c>
       <c r="E3">
-        <v>0.04881172946026524</v>
+        <v>0.04432948418121496</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008950856095387271</v>
+        <v>0.3658206895414366</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.2852127016123944</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.2607838134504163</v>
       </c>
       <c r="J3">
-        <v>0.02474923367920923</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3533957453584691</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2193242199255394</v>
+        <v>0.1456140476527921</v>
       </c>
       <c r="M3">
-        <v>0.3567695361657073</v>
+        <v>0.3158799085782178</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.7581649464730944</v>
       </c>
       <c r="O3">
-        <v>8.76728375239432</v>
+        <v>1.3223332826866</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.633040497153928</v>
+        <v>1.63274361031668</v>
       </c>
       <c r="C4">
-        <v>0.1099266831879788</v>
+        <v>0.3475316696471253</v>
       </c>
       <c r="D4">
-        <v>0.2145820604379907</v>
+        <v>0.1587691038771766</v>
       </c>
       <c r="E4">
-        <v>0.04799323437074943</v>
+        <v>0.04530040853726414</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0009025933248820581</v>
+        <v>0.3474797336131985</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.2802728001212103</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.2611683397788624</v>
       </c>
       <c r="J4">
-        <v>0.02324201453312469</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.327599062099388</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2120669094322878</v>
+        <v>0.1366565657576473</v>
       </c>
       <c r="M4">
-        <v>0.337665379925042</v>
+        <v>0.2873523016786308</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.7706205252401404</v>
       </c>
       <c r="O4">
-        <v>8.189635474497578</v>
+        <v>1.27286707527864</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.58983975568114</v>
+        <v>1.565397180414095</v>
       </c>
       <c r="C5">
-        <v>0.1043528356296548</v>
+        <v>0.338303920724357</v>
       </c>
       <c r="D5">
-        <v>0.2113728627630564</v>
+        <v>0.152170729100078</v>
       </c>
       <c r="E5">
-        <v>0.04766579757949252</v>
+        <v>0.04570950051435263</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0009056936009003655</v>
+        <v>0.3402101629362306</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.2783907578796061</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2614848630880111</v>
       </c>
       <c r="J5">
-        <v>0.02263381795564356</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3174067845685187</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2092209065416242</v>
+        <v>0.1330464890253609</v>
       </c>
       <c r="M5">
-        <v>0.3301355573885374</v>
+        <v>0.2757474359692296</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.7759235986618336</v>
       </c>
       <c r="O5">
-        <v>7.95681906812726</v>
+        <v>1.253414353618382</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.582745573566797</v>
+        <v>1.554214969482473</v>
       </c>
       <c r="C6">
-        <v>0.1034356236290535</v>
+        <v>0.3367706460011277</v>
       </c>
       <c r="D6">
-        <v>0.210844342789386</v>
+        <v>0.151076845337613</v>
       </c>
       <c r="E6">
-        <v>0.04761177205736455</v>
+        <v>0.04577823564027383</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0009062109610476064</v>
+        <v>0.3390150172319366</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.2780859825000732</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2615468687314682</v>
       </c>
       <c r="J6">
-        <v>0.02253313668987467</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3157326661533517</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2087547938862713</v>
+        <v>0.1324493896415433</v>
       </c>
       <c r="M6">
-        <v>0.328899936692352</v>
+        <v>0.2738215744204595</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.7768177183274148</v>
       </c>
       <c r="O6">
-        <v>7.918302734009416</v>
+        <v>1.250225634726775</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.63245247460452</v>
+        <v>1.631835300656689</v>
       </c>
       <c r="C7">
-        <v>0.1098509403099115</v>
+        <v>0.3474072877725831</v>
       </c>
       <c r="D7">
-        <v>0.2145384829735519</v>
+        <v>0.1586799945364135</v>
       </c>
       <c r="E7">
-        <v>0.04798879480235829</v>
+        <v>0.04530587155944676</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0009026349666037454</v>
+        <v>0.3473808833304872</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.2802468957984274</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.261171970739646</v>
       </c>
       <c r="J7">
-        <v>0.02323379030555017</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3274603565986709</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2120280882526586</v>
+        <v>0.1366077197633899</v>
       </c>
       <c r="M7">
-        <v>0.3375628292918549</v>
+        <v>0.2871957170581823</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.7706911321532601</v>
       </c>
       <c r="O7">
-        <v>8.186485786589316</v>
+        <v>1.272601928362718</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.864325256184259</v>
+        <v>1.97456977976546</v>
       </c>
       <c r="C8">
-        <v>0.1395318938587167</v>
+        <v>0.3942106007700659</v>
       </c>
       <c r="D8">
-        <v>0.2315253662215753</v>
+        <v>0.1925173539416818</v>
       </c>
       <c r="E8">
-        <v>0.04970844029205779</v>
+        <v>0.04333987778842419</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008872039261876844</v>
+        <v>0.3861299657782524</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.2909492707777162</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.2609401243934819</v>
       </c>
       <c r="J8">
-        <v>0.0263836046978696</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.382122817327236</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2274763339323584</v>
+        <v>0.1553172480765141</v>
       </c>
       <c r="M8">
-        <v>0.3781014082447385</v>
+        <v>0.3464023202928246</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.7456686783234332</v>
       </c>
       <c r="O8">
-        <v>9.393850368810632</v>
+        <v>1.377647241483146</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.375300224963894</v>
+        <v>2.648755219442705</v>
       </c>
       <c r="C9">
-        <v>0.2044944054597408</v>
+        <v>0.4856573313128081</v>
       </c>
       <c r="D9">
-        <v>0.2678663787489768</v>
+        <v>0.2601992456425819</v>
       </c>
       <c r="E9">
-        <v>0.05334623226420554</v>
+        <v>0.03992351082391066</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008579402433509255</v>
+        <v>0.4696641904127716</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.3165631213409767</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.266100717594167</v>
       </c>
       <c r="J9">
-        <v>0.03291570508290853</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.502586231628591</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2620961902607206</v>
+        <v>0.1934851859406166</v>
       </c>
       <c r="M9">
-        <v>0.4678533488737529</v>
+        <v>0.4634715435916945</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.7042785718084446</v>
       </c>
       <c r="O9">
-        <v>11.88302526460615</v>
+        <v>1.60924343338317</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.797983346587728</v>
+        <v>3.146754157179089</v>
       </c>
       <c r="C10">
-        <v>0.2584758843907622</v>
+        <v>0.5527993491569134</v>
       </c>
       <c r="D10">
-        <v>0.2970578649872238</v>
+        <v>0.3110381140496088</v>
       </c>
       <c r="E10">
-        <v>0.05625534208710725</v>
+        <v>0.03769383658922365</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008367545911451364</v>
+        <v>0.536609429111337</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.3386394886132251</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.273818388127399</v>
       </c>
       <c r="J10">
-        <v>0.03810286095923487</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6024269275761895</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2909913118078578</v>
+        <v>0.2226181564384433</v>
       </c>
       <c r="M10">
-        <v>0.5422900663119776</v>
+        <v>0.5503694144970481</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.6789945754909539</v>
       </c>
       <c r="O10">
-        <v>13.82645533969611</v>
+        <v>1.797981697907915</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.004129695545259</v>
+        <v>3.37422598925076</v>
       </c>
       <c r="C11">
-        <v>0.2849914161067773</v>
+        <v>0.5833736473027784</v>
       </c>
       <c r="D11">
-        <v>0.3110548722173831</v>
+        <v>0.3344796928482054</v>
       </c>
       <c r="E11">
-        <v>0.05765078950059177</v>
+        <v>0.03674329757657624</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008271049218179963</v>
+        <v>0.5685047930506499</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.3494937393166566</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.278300539708507</v>
       </c>
       <c r="J11">
-        <v>0.04059510131637367</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6512112393980871</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3051141992305304</v>
+        <v>0.2361532820616077</v>
       </c>
       <c r="M11">
-        <v>0.5786188217067547</v>
+        <v>0.5901656956940542</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.6687100665360077</v>
       </c>
       <c r="O11">
-        <v>14.74656810183558</v>
+        <v>1.888584478453083</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.084556392701472</v>
+        <v>3.460526732530013</v>
       </c>
       <c r="C12">
-        <v>0.2953766097116102</v>
+        <v>0.5949592341868311</v>
       </c>
       <c r="D12">
-        <v>0.316476267217908</v>
+        <v>0.3434079871804983</v>
       </c>
       <c r="E12">
-        <v>0.05819170929669681</v>
+        <v>0.03639278013225011</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008234409380279875</v>
+        <v>0.5808105226847005</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.3537299154567393</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.2801480719275027</v>
       </c>
       <c r="J12">
-        <v>0.04156295383599939</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6702620526872707</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3106260644560734</v>
+        <v>0.2413232317772582</v>
       </c>
       <c r="M12">
-        <v>0.5927942728606084</v>
+        <v>0.6052800020535258</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.66500005324081</v>
       </c>
       <c r="O12">
-        <v>15.10130606257525</v>
+        <v>1.923638484119181</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.06712327985872</v>
+        <v>3.441932638213757</v>
       </c>
       <c r="C13">
-        <v>0.2931235214870469</v>
+        <v>0.5924636698451309</v>
       </c>
       <c r="D13">
-        <v>0.3153029704900945</v>
+        <v>0.3414827262519111</v>
       </c>
       <c r="E13">
-        <v>0.0580746184324461</v>
+        <v>0.03646784655235535</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008242306268530187</v>
+        <v>0.5781498001033327</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.352811826100762</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.2797433153071545</v>
       </c>
       <c r="J13">
-        <v>0.04135334651100209</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6661317630409869</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3094312830581316</v>
+        <v>0.2402077472205093</v>
       </c>
       <c r="M13">
-        <v>0.5897215722843114</v>
+        <v>0.6020227932993123</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.6657907079072203</v>
       </c>
       <c r="O13">
-        <v>15.02460594101922</v>
+        <v>1.916054816559068</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.010696704721056</v>
+        <v>3.381322584146176</v>
       </c>
       <c r="C14">
-        <v>0.2858385065269573</v>
+        <v>0.5843266249902115</v>
       </c>
       <c r="D14">
-        <v>0.311498354137953</v>
+        <v>0.3352131601958064</v>
       </c>
       <c r="E14">
-        <v>0.05769502720739261</v>
+        <v>0.03671426972752778</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008268037329358057</v>
+        <v>0.5695125089576436</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.3498396737600444</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.2784494633264174</v>
       </c>
       <c r="J14">
-        <v>0.04067421170292107</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6527663928586662</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3055642319622649</v>
+        <v>0.2365777020940101</v>
       </c>
       <c r="M14">
-        <v>0.579776247113422</v>
+        <v>0.5914082342308333</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.6684010873827475</v>
       </c>
       <c r="O14">
-        <v>14.77561889991046</v>
+        <v>1.891453095021774</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.976453792976031</v>
+        <v>3.3442191662146</v>
       </c>
       <c r="C15">
-        <v>0.2814231439607227</v>
+        <v>0.5793435639307916</v>
       </c>
       <c r="D15">
-        <v>0.3091842634943021</v>
+        <v>0.3313797655385287</v>
       </c>
       <c r="E15">
-        <v>0.05746421400250412</v>
+        <v>0.03686644728118127</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008283782843787004</v>
+        <v>0.5642521925913115</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.3480358252629685</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.2776768323779031</v>
       </c>
       <c r="J15">
-        <v>0.04026152679302974</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6446579700687991</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3032176488870135</v>
+        <v>0.2343601084031235</v>
       </c>
       <c r="M15">
-        <v>0.5737410561409391</v>
+        <v>0.5849124695107406</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.6700243394665435</v>
       </c>
       <c r="O15">
-        <v>14.62396614213083</v>
+        <v>1.876482736933809</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.78482023919679</v>
+        <v>3.13190942487887</v>
       </c>
       <c r="C16">
-        <v>0.2567875261168524</v>
+        <v>0.5508021472226972</v>
       </c>
       <c r="D16">
-        <v>0.2961590215744394</v>
+        <v>0.3095130071297234</v>
       </c>
       <c r="E16">
-        <v>0.05616576961575959</v>
+        <v>0.03775726164325732</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008373843139897197</v>
+        <v>0.5345557091598039</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.3379472415044091</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.273545902107589</v>
       </c>
       <c r="J16">
-        <v>0.03794306240141232</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.599314060546277</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2900899177259504</v>
+        <v>0.2217396127803966</v>
       </c>
       <c r="M16">
-        <v>0.5399707231971149</v>
+        <v>0.5477744952768333</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.6796919827819536</v>
       </c>
       <c r="O16">
-        <v>13.76714087114541</v>
+        <v>1.792161309001727</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.671052416225052</v>
+        <v>3.001921923892212</v>
       </c>
       <c r="C17">
-        <v>0.2422169137418706</v>
+        <v>0.5333031243179676</v>
       </c>
       <c r="D17">
-        <v>0.2883639883413593</v>
+        <v>0.2961833643130518</v>
       </c>
       <c r="E17">
-        <v>0.05538906908721408</v>
+        <v>0.03832025931105854</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008429007715323651</v>
+        <v>0.5167211617941092</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.3319724434985005</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.2712677954346141</v>
       </c>
       <c r="J17">
-        <v>0.03655799046438268</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5724201160614086</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2823022357154201</v>
+        <v>0.2140723584019213</v>
       </c>
       <c r="M17">
-        <v>0.5199273443689236</v>
+        <v>0.5250638608956919</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.685941095113499</v>
       </c>
       <c r="O17">
-        <v>13.25147737997213</v>
+        <v>1.741691185009216</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.606895483984374</v>
+        <v>2.927242225413409</v>
       </c>
       <c r="C18">
-        <v>0.2340162816358315</v>
+        <v>0.5232408584824668</v>
       </c>
       <c r="D18">
-        <v>0.2839468050583207</v>
+        <v>0.2885457332825467</v>
       </c>
       <c r="E18">
-        <v>0.05494896718283115</v>
+        <v>0.03865006471599575</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008460731053538632</v>
+        <v>0.506597598904392</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.3286117026768949</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.2700482446857144</v>
       </c>
       <c r="J18">
-        <v>0.03577345896523276</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5572617684329089</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2779134444385107</v>
+        <v>0.2096886891968666</v>
       </c>
       <c r="M18">
-        <v>0.5086266942648621</v>
+        <v>0.5120259535234908</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.6896493970649828</v>
       </c>
       <c r="O18">
-        <v>12.95819494999449</v>
+        <v>1.713104728568936</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.585382612310923</v>
+        <v>2.901970846053246</v>
       </c>
       <c r="C19">
-        <v>0.231268892497809</v>
+        <v>0.519834317631279</v>
       </c>
       <c r="D19">
-        <v>0.2824621190630126</v>
+        <v>0.2859645995434619</v>
       </c>
       <c r="E19">
-        <v>0.05480103745763643</v>
+        <v>0.03876275108902005</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008471473259939786</v>
+        <v>0.5031924196785553</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.3274865629366275</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.2696506024607928</v>
       </c>
       <c r="J19">
-        <v>0.03550977519081577</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5521801557276262</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2764423767529536</v>
+        <v>0.2082088625848968</v>
       </c>
       <c r="M19">
-        <v>0.5048378544820906</v>
+        <v>0.5076155978062076</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.6909242615928903</v>
       </c>
       <c r="O19">
-        <v>12.85943250164672</v>
+        <v>1.703500033517656</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.683028333801417</v>
+        <v>3.015750249287635</v>
       </c>
       <c r="C20">
-        <v>0.2437489368305421</v>
+        <v>0.5351656217963523</v>
       </c>
       <c r="D20">
-        <v>0.2891868005671085</v>
+        <v>0.2975992589187086</v>
       </c>
       <c r="E20">
-        <v>0.05547104926935198</v>
+        <v>0.03825970605241036</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008423136500025772</v>
+        <v>0.5186056272411719</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.3326005607656271</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.2715008365603673</v>
       </c>
       <c r="J20">
-        <v>0.03670414554600221</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5752502847692469</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2831217294368287</v>
+        <v>0.2148857980606067</v>
       </c>
       <c r="M20">
-        <v>0.5220369986101119</v>
+        <v>0.5274788530777954</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.6852640035370072</v>
       </c>
       <c r="O20">
-        <v>13.30602016310894</v>
+        <v>1.74701756735459</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.027203106941045</v>
+        <v>3.399120589678148</v>
       </c>
       <c r="C21">
-        <v>0.2879683836051896</v>
+        <v>0.586716433881719</v>
       </c>
       <c r="D21">
-        <v>0.3126124189753057</v>
+        <v>0.3370532349936894</v>
       </c>
       <c r="E21">
-        <v>0.0578061642129839</v>
+        <v>0.03664163114701324</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008260482895054151</v>
+        <v>0.5720431434118609</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.3507091734025209</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.2788253339712696</v>
       </c>
       <c r="J21">
-        <v>0.04087299086521767</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6566756253939516</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3066954258697336</v>
+        <v>0.2376426946193675</v>
       </c>
       <c r="M21">
-        <v>0.5826855014841925</v>
+        <v>0.5945247341782647</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.6676292698042943</v>
       </c>
       <c r="O21">
-        <v>14.84857109512865</v>
+        <v>1.898658487474876</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.266144944201812</v>
+        <v>3.650634873152967</v>
       </c>
       <c r="C22">
-        <v>0.3189144400920156</v>
+        <v>0.6204548656066038</v>
       </c>
       <c r="D22">
-        <v>0.3286386805027632</v>
+        <v>0.3631419307172621</v>
       </c>
       <c r="E22">
-        <v>0.05940643345865659</v>
+        <v>0.03563922863635671</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.00081535551167015</v>
+        <v>0.6083050154001768</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.3632828148962375</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.2844934320375998</v>
       </c>
       <c r="J22">
-        <v>0.04374115531648926</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.7133139154877597</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3230712759829686</v>
+        <v>0.252776963647122</v>
       </c>
       <c r="M22">
-        <v>0.6248014937474267</v>
+        <v>0.6386045556423667</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.6571842293237893</v>
       </c>
       <c r="O22">
-        <v>15.89419060572243</v>
+        <v>2.00213737051979</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.137193964929168</v>
+        <v>3.516299198481988</v>
       </c>
       <c r="C23">
-        <v>0.3021865026303487</v>
+        <v>0.6024425631258907</v>
       </c>
       <c r="D23">
-        <v>0.3200128362710188</v>
+        <v>0.3491879902057065</v>
       </c>
       <c r="E23">
-        <v>0.05854473794590653</v>
+        <v>0.03616909732290541</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.000821071253957269</v>
+        <v>0.5888219126936463</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.3565012348275189</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.2813839662860929</v>
       </c>
       <c r="J23">
-        <v>0.04219527704297832</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6827360387110986</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3142336561881365</v>
+        <v>0.244674256812786</v>
       </c>
       <c r="M23">
-        <v>0.6020721439176313</v>
+        <v>0.6150522792262763</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.6626568140398561</v>
       </c>
       <c r="O23">
-        <v>15.33226413062124</v>
+        <v>1.946486881431468</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.677610155852165</v>
+        <v>3.00949830400549</v>
       </c>
       <c r="C24">
-        <v>0.2430557648935121</v>
+        <v>0.5343235926768557</v>
       </c>
       <c r="D24">
-        <v>0.2888146082240013</v>
+        <v>0.2969590532019311</v>
       </c>
       <c r="E24">
-        <v>0.05543396614399043</v>
+        <v>0.03828706310518371</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008425790844059633</v>
+        <v>0.5177532577734638</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.3323163583647641</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.2713951986199206</v>
       </c>
       <c r="J24">
-        <v>0.03663803255394171</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5739698274474918</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2827509625075635</v>
+        <v>0.214517966475654</v>
       </c>
       <c r="M24">
-        <v>0.5210825353649895</v>
+        <v>0.5263869771982854</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.6855697572665136</v>
       </c>
       <c r="O24">
-        <v>13.28135155015192</v>
+        <v>1.744608176798721</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.229828403989643</v>
+        <v>2.466007897596171</v>
       </c>
       <c r="C25">
-        <v>0.1859980670280521</v>
+        <v>0.4609386101369068</v>
       </c>
       <c r="D25">
-        <v>0.2576500067016099</v>
+        <v>0.2417171456828413</v>
       </c>
       <c r="E25">
-        <v>0.05232669994106409</v>
+        <v>0.04079945537692931</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008657778157403807</v>
+        <v>0.4461612555969054</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.3090950688229128</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.2640533549266308</v>
       </c>
       <c r="J25">
-        <v>0.03109459148761218</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4682731535344047</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2521901575646126</v>
+        <v>0.1829825613902187</v>
       </c>
       <c r="M25">
-        <v>0.4422646629253251</v>
+        <v>0.4316682285786442</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.7146094264257243</v>
       </c>
       <c r="O25">
-        <v>11.19280752251311</v>
+        <v>1.543553326097594</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_1/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.067525924052518</v>
+        <v>0.8167158455930235</v>
       </c>
       <c r="C2">
-        <v>0.4068638194197547</v>
+        <v>0.243606436479098</v>
       </c>
       <c r="D2">
-        <v>0.201764722639254</v>
+        <v>0.07896030186675773</v>
       </c>
       <c r="E2">
-        <v>0.04283644332660685</v>
+        <v>0.1168246504437014</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.397105779360075</v>
+        <v>0.4998711791772763</v>
       </c>
       <c r="H2">
-        <v>0.2941468723607983</v>
+        <v>0.6319536109086101</v>
       </c>
       <c r="I2">
-        <v>0.2612396673569108</v>
+        <v>0.5996809284984224</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1604800111389224</v>
+        <v>0.2021607255620097</v>
       </c>
       <c r="M2">
-        <v>0.3624992620703509</v>
+        <v>0.1933652658690903</v>
       </c>
       <c r="N2">
-        <v>0.7393929759461599</v>
+        <v>1.235775222517312</v>
       </c>
       <c r="O2">
-        <v>1.407737722803034</v>
+        <v>2.227114164706109</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.798053472454171</v>
+        <v>0.735889592759861</v>
       </c>
       <c r="C3">
-        <v>0.3701370852783583</v>
+        <v>0.231322646927282</v>
       </c>
       <c r="D3">
-        <v>0.1750379752254929</v>
+        <v>0.07156802134579721</v>
       </c>
       <c r="E3">
-        <v>0.04432948418121496</v>
+        <v>0.1178508831497402</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3658206895414366</v>
+        <v>0.496601782877562</v>
       </c>
       <c r="H3">
-        <v>0.2852127016123944</v>
+        <v>0.6343799264883501</v>
       </c>
       <c r="I3">
-        <v>0.2607838134504163</v>
+        <v>0.6049671442674232</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1456140476527921</v>
+        <v>0.199379554674735</v>
       </c>
       <c r="M3">
-        <v>0.3158799085782178</v>
+        <v>0.180185750366455</v>
       </c>
       <c r="N3">
-        <v>0.7581649464730944</v>
+        <v>1.245092473213312</v>
       </c>
       <c r="O3">
-        <v>1.3223332826866</v>
+        <v>2.224971769258616</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.63274361031668</v>
+        <v>0.6863035602764853</v>
       </c>
       <c r="C4">
-        <v>0.3475316696471253</v>
+        <v>0.2237174891204745</v>
       </c>
       <c r="D4">
-        <v>0.1587691038771766</v>
+        <v>0.06706261964929183</v>
       </c>
       <c r="E4">
-        <v>0.04530040853726414</v>
+        <v>0.1185188990756605</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3474797336131985</v>
+        <v>0.4949735912858415</v>
       </c>
       <c r="H4">
-        <v>0.2802728001212103</v>
+        <v>0.6361843334324249</v>
       </c>
       <c r="I4">
-        <v>0.2611683397788624</v>
+        <v>0.6085652076556833</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1366565657576473</v>
+        <v>0.1977714459579119</v>
       </c>
       <c r="M4">
-        <v>0.2873523016786308</v>
+        <v>0.172143436586019</v>
       </c>
       <c r="N4">
-        <v>0.7706205252401404</v>
+        <v>1.251271022627471</v>
       </c>
       <c r="O4">
-        <v>1.27286707527864</v>
+        <v>2.225108455026771</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.565397180414095</v>
+        <v>0.6661086858632643</v>
       </c>
       <c r="C5">
-        <v>0.338303920724357</v>
+        <v>0.2206026875447549</v>
       </c>
       <c r="D5">
-        <v>0.152170729100078</v>
+        <v>0.06523506655933886</v>
       </c>
       <c r="E5">
-        <v>0.04570950051435263</v>
+        <v>0.1188006642823547</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3402101629362306</v>
+        <v>0.4944053419961705</v>
       </c>
       <c r="H5">
-        <v>0.2783907578796061</v>
+        <v>0.6369988018091135</v>
       </c>
       <c r="I5">
-        <v>0.2614848630880111</v>
+        <v>0.6101199930828365</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1330464890253609</v>
+        <v>0.1971412247346862</v>
       </c>
       <c r="M5">
-        <v>0.2757474359692296</v>
+        <v>0.1688789161764319</v>
       </c>
       <c r="N5">
-        <v>0.7759235986618336</v>
+        <v>1.253904044391575</v>
       </c>
       <c r="O5">
-        <v>1.253414353618382</v>
+        <v>2.225529148757857</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.554214969482473</v>
+        <v>0.6627560976664313</v>
       </c>
       <c r="C6">
-        <v>0.3367706460011277</v>
+        <v>0.220084537596648</v>
       </c>
       <c r="D6">
-        <v>0.151076845337613</v>
+        <v>0.06493211259977727</v>
       </c>
       <c r="E6">
-        <v>0.04577823564027383</v>
+        <v>0.1188480279186628</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3390150172319366</v>
+        <v>0.4943167344351806</v>
       </c>
       <c r="H6">
-        <v>0.2780859825000732</v>
+        <v>0.6371388257661863</v>
       </c>
       <c r="I6">
-        <v>0.2615468687314682</v>
+        <v>0.6103835106339162</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1324493896415433</v>
+        <v>0.1970380946578416</v>
       </c>
       <c r="M6">
-        <v>0.2738215744204595</v>
+        <v>0.1683376240071439</v>
       </c>
       <c r="N6">
-        <v>0.7768177183274148</v>
+        <v>1.254348217674007</v>
       </c>
       <c r="O6">
-        <v>1.250225634726775</v>
+        <v>2.225621044784049</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.631835300656689</v>
+        <v>0.6860311553922713</v>
       </c>
       <c r="C7">
-        <v>0.3474072877725831</v>
+        <v>0.2236755449100229</v>
       </c>
       <c r="D7">
-        <v>0.1586799945364135</v>
+        <v>0.06703793845920814</v>
       </c>
       <c r="E7">
-        <v>0.04530587155944676</v>
+        <v>0.1185226604034528</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3473808833304872</v>
+        <v>0.4949655421504673</v>
       </c>
       <c r="H7">
-        <v>0.2802468957984274</v>
+        <v>0.6361949970793859</v>
       </c>
       <c r="I7">
-        <v>0.261171970739646</v>
+        <v>0.6085858175784793</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1366077197633899</v>
+        <v>0.1977628448734947</v>
       </c>
       <c r="M7">
-        <v>0.2871957170581823</v>
+        <v>0.172099358047447</v>
       </c>
       <c r="N7">
-        <v>0.7706911321532601</v>
+        <v>1.251306065832978</v>
       </c>
       <c r="O7">
-        <v>1.272601928362718</v>
+        <v>2.225112651014967</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.97456977976546</v>
+        <v>0.788839114474257</v>
       </c>
       <c r="C8">
-        <v>0.3942106007700659</v>
+        <v>0.2393841306022466</v>
       </c>
       <c r="D8">
-        <v>0.1925173539416818</v>
+        <v>0.0764044990751529</v>
       </c>
       <c r="E8">
-        <v>0.04333987778842419</v>
+        <v>0.1171706354877067</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.3861299657782524</v>
+        <v>0.4986651140945355</v>
       </c>
       <c r="H8">
-        <v>0.2909492707777162</v>
+        <v>0.6327249237267125</v>
       </c>
       <c r="I8">
-        <v>0.2609401243934819</v>
+        <v>0.6014304676505766</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1553172480765141</v>
+        <v>0.2011811560239138</v>
       </c>
       <c r="M8">
-        <v>0.3464023202928246</v>
+        <v>0.1888107295724311</v>
       </c>
       <c r="N8">
-        <v>0.7456686783234332</v>
+        <v>1.238892879177307</v>
       </c>
       <c r="O8">
-        <v>1.377647241483146</v>
+        <v>2.226073977253606</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.648755219442705</v>
+        <v>0.9907249798126827</v>
       </c>
       <c r="C9">
-        <v>0.4856573313128081</v>
+        <v>0.2696837569978641</v>
       </c>
       <c r="D9">
-        <v>0.2601992456425819</v>
+        <v>0.09503837246479918</v>
       </c>
       <c r="E9">
-        <v>0.03992351082391066</v>
+        <v>0.1148195229011626</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4696641904127716</v>
+        <v>0.5089350954133351</v>
       </c>
       <c r="H9">
-        <v>0.3165631213409767</v>
+        <v>0.6284153845717384</v>
       </c>
       <c r="I9">
-        <v>0.266100717594167</v>
+        <v>0.5901964181378361</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1934851859406166</v>
+        <v>0.208671955973962</v>
       </c>
       <c r="M9">
-        <v>0.4634715435916945</v>
+        <v>0.221969955870847</v>
       </c>
       <c r="N9">
-        <v>0.7042785718084446</v>
+        <v>1.218177531808209</v>
       </c>
       <c r="O9">
-        <v>1.60924343338317</v>
+        <v>2.239491735291779</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.146754157179089</v>
+        <v>1.139167875544331</v>
       </c>
       <c r="C10">
-        <v>0.5527993491569134</v>
+        <v>0.2916309076441905</v>
       </c>
       <c r="D10">
-        <v>0.3110381140496088</v>
+        <v>0.1088927987650834</v>
       </c>
       <c r="E10">
-        <v>0.03769383658922365</v>
+        <v>0.1132743752399614</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.536609429111337</v>
+        <v>0.5183287355613544</v>
       </c>
       <c r="H10">
-        <v>0.3386394886132251</v>
+        <v>0.6267693479512388</v>
       </c>
       <c r="I10">
-        <v>0.273818388127399</v>
+        <v>0.5836515004502765</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2226181564384433</v>
+        <v>0.2146532581521541</v>
       </c>
       <c r="M10">
-        <v>0.5503694144970481</v>
+        <v>0.2465603121515159</v>
       </c>
       <c r="N10">
-        <v>0.6789945754909539</v>
+        <v>1.205162584370143</v>
       </c>
       <c r="O10">
-        <v>1.797981697907915</v>
+        <v>2.256400294778388</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.37422598925076</v>
+        <v>1.206713474111325</v>
       </c>
       <c r="C11">
-        <v>0.5833736473027784</v>
+        <v>0.3015458566225675</v>
       </c>
       <c r="D11">
-        <v>0.3344796928482054</v>
+        <v>0.1152316541627272</v>
       </c>
       <c r="E11">
-        <v>0.03674329757657624</v>
+        <v>0.1126108431791146</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.5685047930506499</v>
+        <v>0.5230057625757496</v>
       </c>
       <c r="H11">
-        <v>0.3494937393166566</v>
+        <v>0.6263504587191022</v>
       </c>
       <c r="I11">
-        <v>0.278300539708507</v>
+        <v>0.5810458089727284</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2361532820616077</v>
+        <v>0.2174776295043017</v>
       </c>
       <c r="M11">
-        <v>0.5901656956940542</v>
+        <v>0.2577950332424805</v>
       </c>
       <c r="N11">
-        <v>0.6687100665360077</v>
+        <v>1.199719189377767</v>
       </c>
       <c r="O11">
-        <v>1.888584478453083</v>
+        <v>2.265627992271476</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.460526732530013</v>
+        <v>1.232292645149698</v>
       </c>
       <c r="C12">
-        <v>0.5949592341868311</v>
+        <v>0.30529033220202</v>
       </c>
       <c r="D12">
-        <v>0.3434079871804983</v>
+        <v>0.1176372535958308</v>
       </c>
       <c r="E12">
-        <v>0.03639278013225011</v>
+        <v>0.1123652291364738</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5808105226847005</v>
+        <v>0.5248350453028223</v>
       </c>
       <c r="H12">
-        <v>0.3537299154567393</v>
+        <v>0.6262392519639803</v>
       </c>
       <c r="I12">
-        <v>0.2801480719275027</v>
+        <v>0.5801125989595874</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2413232317772582</v>
+        <v>0.2185619667716736</v>
       </c>
       <c r="M12">
-        <v>0.6052800020535258</v>
+        <v>0.2620561015661877</v>
       </c>
       <c r="N12">
-        <v>0.66500005324081</v>
+        <v>1.197726443737601</v>
       </c>
       <c r="O12">
-        <v>1.923638484119181</v>
+        <v>2.269343411427542</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.441932638213757</v>
+        <v>1.226783687031798</v>
       </c>
       <c r="C13">
-        <v>0.5924636698451309</v>
+        <v>0.3044843446273831</v>
       </c>
       <c r="D13">
-        <v>0.3414827262519111</v>
+        <v>0.117118933264635</v>
       </c>
       <c r="E13">
-        <v>0.03646784655235535</v>
+        <v>0.1124178753256491</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5781498001033327</v>
+        <v>0.5244384863446498</v>
       </c>
       <c r="H13">
-        <v>0.352811826100762</v>
+        <v>0.6262610937705375</v>
       </c>
       <c r="I13">
-        <v>0.2797433153071545</v>
+        <v>0.580311201509307</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2402077472205093</v>
+        <v>0.2183277777589723</v>
       </c>
       <c r="M13">
-        <v>0.6020227932993123</v>
+        <v>0.2611381091113358</v>
       </c>
       <c r="N13">
-        <v>0.6657907079072203</v>
+        <v>1.198152569409331</v>
       </c>
       <c r="O13">
-        <v>1.916054816559068</v>
+        <v>2.268533392777755</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.381322584146176</v>
+        <v>1.208817874045849</v>
       </c>
       <c r="C14">
-        <v>0.5843266249902115</v>
+        <v>0.3018541203960297</v>
       </c>
       <c r="D14">
-        <v>0.3352131601958064</v>
+        <v>0.1154294599443375</v>
       </c>
       <c r="E14">
-        <v>0.03671426972752778</v>
+        <v>0.112590523159386</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5695125089576436</v>
+        <v>0.5231550917521872</v>
       </c>
       <c r="H14">
-        <v>0.3498396737600444</v>
+        <v>0.6263403594804657</v>
       </c>
       <c r="I14">
-        <v>0.2784494633264174</v>
+        <v>0.5809679604294544</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2365777020940101</v>
+        <v>0.2175665421680293</v>
       </c>
       <c r="M14">
-        <v>0.5914082342308333</v>
+        <v>0.2581454605452294</v>
       </c>
       <c r="N14">
-        <v>0.6684010873827475</v>
+        <v>1.199553871519853</v>
       </c>
       <c r="O14">
-        <v>1.891453095021774</v>
+        <v>2.265929229764168</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.3442191662146</v>
+        <v>1.197813396181232</v>
       </c>
       <c r="C15">
-        <v>0.5793435639307916</v>
+        <v>0.3002417111061959</v>
       </c>
       <c r="D15">
-        <v>0.3313797655385287</v>
+        <v>0.1143952868751086</v>
       </c>
       <c r="E15">
-        <v>0.03686644728118127</v>
+        <v>0.1126970106153893</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.5642521925913115</v>
+        <v>0.5223765578185464</v>
       </c>
       <c r="H15">
-        <v>0.3480358252629685</v>
+        <v>0.6263950865256334</v>
       </c>
       <c r="I15">
-        <v>0.2776768323779031</v>
+        <v>0.5813772147184402</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2343601084031235</v>
+        <v>0.2171021900003041</v>
       </c>
       <c r="M15">
-        <v>0.5849124695107406</v>
+        <v>0.2563132452454653</v>
       </c>
       <c r="N15">
-        <v>0.6700243394665435</v>
+        <v>1.200421134836589</v>
       </c>
       <c r="O15">
-        <v>1.876482736933809</v>
+        <v>2.264362903943208</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.13190942487887</v>
+        <v>1.134753849781475</v>
       </c>
       <c r="C16">
-        <v>0.5508021472226972</v>
+        <v>0.2909815393342114</v>
       </c>
       <c r="D16">
-        <v>0.3095130071297234</v>
+        <v>0.1084792703333335</v>
       </c>
       <c r="E16">
-        <v>0.03775726164325732</v>
+        <v>0.1133185299195452</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.5345557091598039</v>
+        <v>0.5180312174269091</v>
       </c>
       <c r="H16">
-        <v>0.3379472415044091</v>
+        <v>0.6268033599325662</v>
       </c>
       <c r="I16">
-        <v>0.273545902107589</v>
+        <v>0.5838292725118599</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2217396127803966</v>
+        <v>0.2144707547855376</v>
       </c>
       <c r="M16">
-        <v>0.5477744952768333</v>
+        <v>0.2458270507612568</v>
       </c>
       <c r="N16">
-        <v>0.6796919827819536</v>
+        <v>1.205527919135832</v>
       </c>
       <c r="O16">
-        <v>1.792161309001727</v>
+        <v>2.255828169074988</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.001921923892212</v>
+        <v>1.096072452397095</v>
       </c>
       <c r="C17">
-        <v>0.5333031243179676</v>
+        <v>0.2852829367180618</v>
       </c>
       <c r="D17">
-        <v>0.2961833643130518</v>
+        <v>0.1048592946286391</v>
       </c>
       <c r="E17">
-        <v>0.03832025931105854</v>
+        <v>0.1137098871782576</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.5167211617941092</v>
+        <v>0.515469008380407</v>
       </c>
       <c r="H17">
-        <v>0.3319724434985005</v>
+        <v>0.627138302479409</v>
       </c>
       <c r="I17">
-        <v>0.2712677954346141</v>
+        <v>0.5854287621407934</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2140723584019213</v>
+        <v>0.2128829025575527</v>
       </c>
       <c r="M17">
-        <v>0.5250638608956919</v>
+        <v>0.2394063449924317</v>
       </c>
       <c r="N17">
-        <v>0.685941095113499</v>
+        <v>1.208782931974966</v>
       </c>
       <c r="O17">
-        <v>1.741691185009216</v>
+        <v>2.250985932500527</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.927242225413409</v>
+        <v>1.073825736246704</v>
       </c>
       <c r="C18">
-        <v>0.5232408584824668</v>
+        <v>0.2819987754809574</v>
       </c>
       <c r="D18">
-        <v>0.2885457332825467</v>
+        <v>0.1027806086105585</v>
       </c>
       <c r="E18">
-        <v>0.03865006471599575</v>
+        <v>0.1139386911382076</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.506597598904392</v>
+        <v>0.5140332948411697</v>
       </c>
       <c r="H18">
-        <v>0.3286117026768949</v>
+        <v>0.6273620057303333</v>
       </c>
       <c r="I18">
-        <v>0.2700482446857144</v>
+        <v>0.5863837211721474</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2096886891968666</v>
+        <v>0.211979352853902</v>
       </c>
       <c r="M18">
-        <v>0.5120259535234908</v>
+        <v>0.2357178992172493</v>
       </c>
       <c r="N18">
-        <v>0.6896493970649828</v>
+        <v>1.210700046481826</v>
       </c>
       <c r="O18">
-        <v>1.713104728568936</v>
+        <v>2.248345359658714</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.901970846053246</v>
+        <v>1.066293735256295</v>
       </c>
       <c r="C19">
-        <v>0.519834317631279</v>
+        <v>0.2808857084874035</v>
       </c>
       <c r="D19">
-        <v>0.2859645995434619</v>
+        <v>0.1020773907309689</v>
       </c>
       <c r="E19">
-        <v>0.03876275108902005</v>
+        <v>0.1140167969535817</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.5031924196785553</v>
+        <v>0.5135537098000498</v>
       </c>
       <c r="H19">
-        <v>0.3274865629366275</v>
+        <v>0.6274430818841807</v>
       </c>
       <c r="I19">
-        <v>0.2696506024607928</v>
+        <v>0.5867130587380736</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2082088625848968</v>
+        <v>0.2116751014798552</v>
       </c>
       <c r="M19">
-        <v>0.5076155978062076</v>
+        <v>0.2344698479118961</v>
       </c>
       <c r="N19">
-        <v>0.6909242615928903</v>
+        <v>1.211356865180761</v>
       </c>
       <c r="O19">
-        <v>1.703500033517656</v>
+        <v>2.247476127265656</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.015750249287635</v>
+        <v>1.100189977671846</v>
       </c>
       <c r="C20">
-        <v>0.5351656217963523</v>
+        <v>0.2858902342844658</v>
       </c>
       <c r="D20">
-        <v>0.2975992589187086</v>
+        <v>0.1052442925731896</v>
       </c>
       <c r="E20">
-        <v>0.03825970605241036</v>
+        <v>0.1136678430800204</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5186056272411719</v>
+        <v>0.5157378259920335</v>
       </c>
       <c r="H20">
-        <v>0.3326005607656271</v>
+        <v>0.6270994335451405</v>
       </c>
       <c r="I20">
-        <v>0.2715008365603673</v>
+        <v>0.5852548734619631</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2148857980606067</v>
+        <v>0.2130509244719434</v>
       </c>
       <c r="M20">
-        <v>0.5274788530777954</v>
+        <v>0.2400893684139547</v>
       </c>
       <c r="N20">
-        <v>0.6852640035370072</v>
+        <v>1.20843178203161</v>
       </c>
       <c r="O20">
-        <v>1.74701756735459</v>
+        <v>2.251486434429864</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.399120589678148</v>
+        <v>1.214094850363722</v>
       </c>
       <c r="C21">
-        <v>0.586716433881719</v>
+        <v>0.3026269566442181</v>
       </c>
       <c r="D21">
-        <v>0.3370532349936894</v>
+        <v>0.1159255579342329</v>
       </c>
       <c r="E21">
-        <v>0.03664163114701324</v>
+        <v>0.1125396590085543</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.5720431434118609</v>
+        <v>0.5235304754839376</v>
       </c>
       <c r="H21">
-        <v>0.3507091734025209</v>
+        <v>0.6263157904969603</v>
       </c>
       <c r="I21">
-        <v>0.2788253339712696</v>
+        <v>0.5807736016474863</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2376426946193675</v>
+        <v>0.2177897341279476</v>
       </c>
       <c r="M21">
-        <v>0.5945247341782647</v>
+        <v>0.2590242934404117</v>
       </c>
       <c r="N21">
-        <v>0.6676292698042943</v>
+        <v>1.199140415208468</v>
       </c>
       <c r="O21">
-        <v>1.898658487474876</v>
+        <v>2.266688133433064</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.650634873152967</v>
+        <v>1.288544097649265</v>
       </c>
       <c r="C22">
-        <v>0.6204548656066038</v>
+        <v>0.3135064113266708</v>
       </c>
       <c r="D22">
-        <v>0.3631419307172621</v>
+        <v>0.1229367532744163</v>
       </c>
       <c r="E22">
-        <v>0.03563922863635671</v>
+        <v>0.1118352604641064</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.6083050154001768</v>
+        <v>0.5289626796728868</v>
       </c>
       <c r="H22">
-        <v>0.3632828148962375</v>
+        <v>0.6260800098028483</v>
       </c>
       <c r="I22">
-        <v>0.2844934320375998</v>
+        <v>0.5781567537837944</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.252776963647122</v>
+        <v>0.2209731082149915</v>
       </c>
       <c r="M22">
-        <v>0.6386045556423667</v>
+        <v>0.2714384372108967</v>
       </c>
       <c r="N22">
-        <v>0.6571842293237893</v>
+        <v>1.193467503022305</v>
       </c>
       <c r="O22">
-        <v>2.00213737051979</v>
+        <v>2.277912110096366</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.516299198481988</v>
+        <v>1.248809093646969</v>
       </c>
       <c r="C23">
-        <v>0.6024425631258907</v>
+        <v>0.3077052991997107</v>
       </c>
       <c r="D23">
-        <v>0.3491879902057065</v>
+        <v>0.1191919752222503</v>
       </c>
       <c r="E23">
-        <v>0.03616909732290541</v>
+        <v>0.1122082007147664</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5888219126936463</v>
+        <v>0.5260323266756188</v>
       </c>
       <c r="H23">
-        <v>0.3565012348275189</v>
+        <v>0.626180569271753</v>
       </c>
       <c r="I23">
-        <v>0.2813839662860929</v>
+        <v>0.5795248508941135</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.244674256812786</v>
+        <v>0.2192662081753838</v>
       </c>
       <c r="M23">
-        <v>0.6150522792262763</v>
+        <v>0.2648092798858741</v>
       </c>
       <c r="N23">
-        <v>0.6626568140398561</v>
+        <v>1.196458706703432</v>
       </c>
       <c r="O23">
-        <v>1.946486881431468</v>
+        <v>2.271803663741252</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.00949830400549</v>
+        <v>1.098328470126887</v>
       </c>
       <c r="C24">
-        <v>0.5343235926768557</v>
+        <v>0.2856156998319932</v>
       </c>
       <c r="D24">
-        <v>0.2969590532019311</v>
+        <v>0.105070227257599</v>
       </c>
       <c r="E24">
-        <v>0.03828706310518371</v>
+        <v>0.1136868393564754</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.5177532577734638</v>
+        <v>0.5156161772651586</v>
       </c>
       <c r="H24">
-        <v>0.3323163583647641</v>
+        <v>0.6271169091876914</v>
       </c>
       <c r="I24">
-        <v>0.2713951986199206</v>
+        <v>0.585333378297392</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.214517966475654</v>
+        <v>0.2129749327051087</v>
       </c>
       <c r="M24">
-        <v>0.5263869771982854</v>
+        <v>0.239780564462734</v>
       </c>
       <c r="N24">
-        <v>0.6855697572665136</v>
+        <v>1.208590394361956</v>
       </c>
       <c r="O24">
-        <v>1.744608176798721</v>
+        <v>2.251259711173958</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.466007897596171</v>
+        <v>0.9360850605334576</v>
       </c>
       <c r="C25">
-        <v>0.4609386101369068</v>
+        <v>0.2615415967271417</v>
       </c>
       <c r="D25">
-        <v>0.2417171456828413</v>
+        <v>0.08996872981231263</v>
       </c>
       <c r="E25">
-        <v>0.04079945537692931</v>
+        <v>0.1154235049371408</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4461612555969054</v>
+        <v>0.505832945658355</v>
       </c>
       <c r="H25">
-        <v>0.3090950688229128</v>
+        <v>0.6293141973740433</v>
       </c>
       <c r="I25">
-        <v>0.2640533549266308</v>
+        <v>0.5929356889483515</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1829825613902187</v>
+        <v>0.2065614229862476</v>
       </c>
       <c r="M25">
-        <v>0.4316682285786442</v>
+        <v>0.2129588110820109</v>
       </c>
       <c r="N25">
-        <v>0.7146094264257243</v>
+        <v>1.223393979742141</v>
       </c>
       <c r="O25">
-        <v>1.543553326097594</v>
+        <v>2.234625159975309</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_1/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8167158455930235</v>
+        <v>3.658256287752636</v>
       </c>
       <c r="C2">
-        <v>0.243606436479098</v>
+        <v>1.004485800897186</v>
       </c>
       <c r="D2">
-        <v>0.07896030186675773</v>
+        <v>0.2077410507413617</v>
       </c>
       <c r="E2">
-        <v>0.1168246504437014</v>
+        <v>1.447177048112891</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4998711791772763</v>
+        <v>0.0007662851195500352</v>
       </c>
       <c r="H2">
-        <v>0.6319536109086101</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5996809284984224</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2021607255620097</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.1933652658690903</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.235775222517312</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>2.227114164706109</v>
+        <v>2.199197504103154</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.735889592759861</v>
+        <v>3.17165987179601</v>
       </c>
       <c r="C3">
-        <v>0.231322646927282</v>
+        <v>0.8777438689737096</v>
       </c>
       <c r="D3">
-        <v>0.07156802134579721</v>
+        <v>0.1794192502233329</v>
       </c>
       <c r="E3">
-        <v>0.1178508831497402</v>
+        <v>1.237860935896705</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.496601782877562</v>
+        <v>0.0007729656483942536</v>
       </c>
       <c r="H3">
-        <v>0.6343799264883501</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6049671442674232</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.199379554674735</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.180185750366455</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.245092473213312</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>2.224971769258616</v>
+        <v>1.978529846316945</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6863035602764853</v>
+        <v>2.874845599657704</v>
       </c>
       <c r="C4">
-        <v>0.2237174891204745</v>
+        <v>0.8003030684226928</v>
       </c>
       <c r="D4">
-        <v>0.06706261964929183</v>
+        <v>0.1622988428031533</v>
       </c>
       <c r="E4">
-        <v>0.1185188990756605</v>
+        <v>1.112473026855895</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4949735912858415</v>
+        <v>0.0007771654455094271</v>
       </c>
       <c r="H4">
-        <v>0.6361843334324249</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6085652076556833</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1977714459579119</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.172143436586019</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.251271022627471</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>2.225108455026771</v>
+        <v>1.852531214442479</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6661086858632643</v>
+        <v>2.7542805625597</v>
       </c>
       <c r="C5">
-        <v>0.2206026875447549</v>
+        <v>0.7688154201187558</v>
       </c>
       <c r="D5">
-        <v>0.06523506655933886</v>
+        <v>0.1553805747086727</v>
       </c>
       <c r="E5">
-        <v>0.1188006642823547</v>
+        <v>1.062038790656786</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.4944053419961705</v>
+        <v>0.000778902941657605</v>
       </c>
       <c r="H5">
-        <v>0.6369988018091135</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6101199930828365</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1971412247346862</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1688789161764319</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.253904044391575</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>2.225529148757857</v>
+        <v>1.803339995473038</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6627560976664313</v>
+        <v>2.734281495624771</v>
       </c>
       <c r="C6">
-        <v>0.220084537596648</v>
+        <v>0.7635904611757951</v>
       </c>
       <c r="D6">
-        <v>0.06493211259977727</v>
+        <v>0.154235073823358</v>
       </c>
       <c r="E6">
-        <v>0.1188480279186628</v>
+        <v>1.053700806086937</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.4943167344351806</v>
+        <v>0.0007791930638972422</v>
       </c>
       <c r="H6">
-        <v>0.6371388257661863</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6103835106339162</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1970380946578416</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1683376240071439</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.254348217674007</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>2.225621044784049</v>
+        <v>1.795295514139013</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6860311553922713</v>
+        <v>2.873218171220117</v>
       </c>
       <c r="C7">
-        <v>0.2236755449100229</v>
+        <v>0.7998781627809137</v>
       </c>
       <c r="D7">
-        <v>0.06703793845920814</v>
+        <v>0.1622053157341981</v>
       </c>
       <c r="E7">
-        <v>0.1185226604034528</v>
+        <v>1.11179032763917</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4949655421504673</v>
+        <v>0.0007771887707279101</v>
       </c>
       <c r="H7">
-        <v>0.6361949970793859</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6085858175784793</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1977628448734947</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.172099358047447</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.251306065832978</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>2.225112651014967</v>
+        <v>1.851859375080522</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.788839114474257</v>
+        <v>3.490006292520661</v>
       </c>
       <c r="C8">
-        <v>0.2393841306022466</v>
+        <v>0.9606904561643717</v>
       </c>
       <c r="D8">
-        <v>0.0764044990751529</v>
+        <v>0.1979139695765895</v>
       </c>
       <c r="E8">
-        <v>0.1171706354877067</v>
+        <v>1.374274753903663</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4986651140945355</v>
+        <v>0.0007685691362630656</v>
       </c>
       <c r="H8">
-        <v>0.6327249237267125</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6014304676505766</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2011811560239138</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.1888107295724311</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.238892879177307</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>2.226073977253606</v>
+        <v>2.120994679702704</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9907249798126827</v>
+        <v>4.720298580695101</v>
       </c>
       <c r="C9">
-        <v>0.2696837569978641</v>
+        <v>1.280344243974923</v>
       </c>
       <c r="D9">
-        <v>0.09503837246479918</v>
+        <v>0.2705394739020335</v>
       </c>
       <c r="E9">
-        <v>0.1148195229011626</v>
+        <v>1.920334129782646</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5089350954133351</v>
+        <v>0.0007523716000629962</v>
       </c>
       <c r="H9">
-        <v>0.6284153845717384</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5901964181378361</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.208671955973962</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.221969955870847</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.218177531808209</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>2.239491735291779</v>
+        <v>2.735758495839917</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.139167875544331</v>
+        <v>5.645165810325011</v>
       </c>
       <c r="C10">
-        <v>0.2916309076441905</v>
+        <v>1.519881762556622</v>
       </c>
       <c r="D10">
-        <v>0.1088927987650834</v>
+        <v>0.3262089799355721</v>
       </c>
       <c r="E10">
-        <v>0.1132743752399614</v>
+        <v>2.351142218469164</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.5183287355613544</v>
+        <v>0.0007407886798761201</v>
       </c>
       <c r="H10">
-        <v>0.6267693479512388</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5836515004502765</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2146532581521541</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.2465603121515159</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.205162584370143</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>2.256400294778388</v>
+        <v>3.258838533641551</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.206713474111325</v>
+        <v>6.07263387811463</v>
       </c>
       <c r="C11">
-        <v>0.3015458566225675</v>
+        <v>1.630415815911931</v>
       </c>
       <c r="D11">
-        <v>0.1152316541627272</v>
+        <v>0.3522233698394359</v>
       </c>
       <c r="E11">
-        <v>0.1126108431791146</v>
+        <v>2.556433983076744</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.5230057625757496</v>
+        <v>0.0007355587647205342</v>
       </c>
       <c r="H11">
-        <v>0.6263504587191022</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.5810458089727284</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2174776295043017</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.2577950332424805</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1.199719189377767</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2.265627992271476</v>
+        <v>3.51712112001178</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.232292645149698</v>
+        <v>6.23568407646394</v>
       </c>
       <c r="C12">
-        <v>0.30529033220202</v>
+        <v>1.672550619407048</v>
       </c>
       <c r="D12">
-        <v>0.1176372535958308</v>
+        <v>0.362191538609224</v>
       </c>
       <c r="E12">
-        <v>0.1123652291364738</v>
+        <v>2.635804555881734</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5248350453028223</v>
+        <v>0.0007335810939206562</v>
       </c>
       <c r="H12">
-        <v>0.6262392519639803</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5801125989595874</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2185619667716736</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.2620561015661877</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.197726443737601</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2.269343411427542</v>
+        <v>3.618321851405142</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.226783687031798</v>
+        <v>6.200512303788116</v>
       </c>
       <c r="C13">
-        <v>0.3044843446273831</v>
+        <v>1.66346285041584</v>
       </c>
       <c r="D13">
-        <v>0.117118933264635</v>
+        <v>0.3600391973929078</v>
       </c>
       <c r="E13">
-        <v>0.1124178753256491</v>
+        <v>2.618632926619171</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5244384863446498</v>
+        <v>0.0007340069470126378</v>
       </c>
       <c r="H13">
-        <v>0.6262610937705375</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.580311201509307</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2183277777589723</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.2611381091113358</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.198152569409331</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2.268533392777755</v>
+        <v>3.596367221216667</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.208817874045849</v>
+        <v>6.086023223053701</v>
       </c>
       <c r="C14">
-        <v>0.3018541203960297</v>
+        <v>1.633876371344115</v>
       </c>
       <c r="D14">
-        <v>0.1154294599443375</v>
+        <v>0.3530409996446622</v>
       </c>
       <c r="E14">
-        <v>0.112590523159386</v>
+        <v>2.562929300146649</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5231550917521872</v>
+        <v>0.0007353960226423641</v>
       </c>
       <c r="H14">
-        <v>0.6263403594804657</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5809679604294544</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2175665421680293</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.2581454605452294</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1.199553871519853</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2.265929229764168</v>
+        <v>3.525375980118213</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.197813396181232</v>
+        <v>6.016055355880837</v>
       </c>
       <c r="C15">
-        <v>0.3002417111061959</v>
+        <v>1.615791692199934</v>
       </c>
       <c r="D15">
-        <v>0.1143952868751086</v>
+        <v>0.3487702202060774</v>
       </c>
       <c r="E15">
-        <v>0.1126970106153893</v>
+        <v>2.529031181323759</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.5223765578185464</v>
+        <v>0.000736247142226658</v>
       </c>
       <c r="H15">
-        <v>0.6263950865256334</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5813772147184402</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2171021900003041</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.2563132452454653</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1.200421134836589</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>2.264362903943208</v>
+        <v>3.482349064309005</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.134753849781475</v>
+        <v>5.617382532841646</v>
       </c>
       <c r="C16">
-        <v>0.2909815393342114</v>
+        <v>1.512693959586102</v>
       </c>
       <c r="D16">
-        <v>0.1084792703333335</v>
+        <v>0.3245242369028887</v>
       </c>
       <c r="E16">
-        <v>0.1133185299195452</v>
+        <v>2.337937120989835</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.5180312174269091</v>
+        <v>0.0007411310216320262</v>
       </c>
       <c r="H16">
-        <v>0.6268033599325662</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5838292725118599</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2144707547855376</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.2458270507612568</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.205527919135832</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>2.255828169074988</v>
+        <v>3.242406996848104</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.096072452397095</v>
+        <v>5.374675259170431</v>
       </c>
       <c r="C17">
-        <v>0.2852829367180618</v>
+        <v>1.449883291916592</v>
       </c>
       <c r="D17">
-        <v>0.1048592946286391</v>
+        <v>0.3098388295100278</v>
       </c>
       <c r="E17">
-        <v>0.1137098871782576</v>
+        <v>2.223284641930519</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.515469008380407</v>
+        <v>0.0007441352645242354</v>
       </c>
       <c r="H17">
-        <v>0.627138302479409</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5854287621407934</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2128829025575527</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2394063449924317</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.208782931974966</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>2.250985932500527</v>
+        <v>3.100731791686655</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.073825736246704</v>
+        <v>5.235696939815966</v>
       </c>
       <c r="C18">
-        <v>0.2819987754809574</v>
+        <v>1.413900203825051</v>
       </c>
       <c r="D18">
-        <v>0.1027806086105585</v>
+        <v>0.3014559246615107</v>
       </c>
       <c r="E18">
-        <v>0.1139386911382076</v>
+        <v>2.158196153238208</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.5140332948411697</v>
+        <v>0.0007458671099549656</v>
       </c>
       <c r="H18">
-        <v>0.6273620057303333</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5863837211721474</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.211979352853902</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2357178992172493</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.210700046481826</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>2.248345359658714</v>
+        <v>3.021125686477831</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.066293735256295</v>
+        <v>5.188741968518457</v>
       </c>
       <c r="C19">
-        <v>0.2808857084874035</v>
+        <v>1.401740192428917</v>
       </c>
       <c r="D19">
-        <v>0.1020773907309689</v>
+        <v>0.2986280604216063</v>
       </c>
       <c r="E19">
-        <v>0.1140167969535817</v>
+        <v>2.136297362335611</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.5135537098000498</v>
+        <v>0.000746454230516425</v>
       </c>
       <c r="H19">
-        <v>0.6274430818841807</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5867130587380736</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2116751014798552</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2344698479118961</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1.211356865180761</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>2.247476127265656</v>
+        <v>2.994482350178373</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.100189977671846</v>
+        <v>5.400446231241915</v>
       </c>
       <c r="C20">
-        <v>0.2858902342844658</v>
+        <v>1.456554340319371</v>
       </c>
       <c r="D20">
-        <v>0.1052442925731896</v>
+        <v>0.3113953961328662</v>
       </c>
       <c r="E20">
-        <v>0.1136678430800204</v>
+        <v>2.235398991592064</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5157378259920335</v>
+        <v>0.0007438150750966877</v>
       </c>
       <c r="H20">
-        <v>0.6270994335451405</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5852548734619631</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2130509244719434</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2400893684139547</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.20843178203161</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>2.251486434429864</v>
+        <v>3.115615411374222</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.214094850363722</v>
+        <v>6.119617683208673</v>
       </c>
       <c r="C21">
-        <v>0.3026269566442181</v>
+        <v>1.642558635168029</v>
       </c>
       <c r="D21">
-        <v>0.1159255579342329</v>
+        <v>0.3550932080064229</v>
       </c>
       <c r="E21">
-        <v>0.1125396590085543</v>
+        <v>2.57924395209001</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.5235304754839376</v>
+        <v>0.0007349879667615796</v>
       </c>
       <c r="H21">
-        <v>0.6263157904969603</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5807736016474863</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2177897341279476</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.2590242934404117</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1.199140415208468</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>2.266688133433064</v>
+        <v>3.546131591856579</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.288544097649265</v>
+        <v>6.596619281167591</v>
       </c>
       <c r="C22">
-        <v>0.3135064113266708</v>
+        <v>1.765773764733979</v>
       </c>
       <c r="D22">
-        <v>0.1229367532744163</v>
+        <v>0.3843448240638025</v>
       </c>
       <c r="E22">
-        <v>0.1118352604641064</v>
+        <v>2.81364946070974</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5289626796728868</v>
+        <v>0.0007292335192954358</v>
       </c>
       <c r="H22">
-        <v>0.6260800098028483</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5781567537837944</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2209731082149915</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.2714384372108967</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1.193467503022305</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.277912110096366</v>
+        <v>3.847557946835479</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.248809093646969</v>
+        <v>6.34131894530708</v>
       </c>
       <c r="C23">
-        <v>0.3077052991997107</v>
+        <v>1.699840977839699</v>
       </c>
       <c r="D23">
-        <v>0.1191919752222503</v>
+        <v>0.3686627626257035</v>
       </c>
       <c r="E23">
-        <v>0.1122082007147664</v>
+        <v>2.687546027406015</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5260323266756188</v>
+        <v>0.0007323045023613182</v>
       </c>
       <c r="H23">
-        <v>0.626180569271753</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5795248508941135</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2192662081753838</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.2648092798858741</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1.196458706703432</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.271803663741252</v>
+        <v>3.684670867960449</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.098328470126887</v>
+        <v>5.388793454136021</v>
       </c>
       <c r="C24">
-        <v>0.2856156998319932</v>
+        <v>1.45353796575148</v>
       </c>
       <c r="D24">
-        <v>0.105070227257599</v>
+        <v>0.3106914870064799</v>
       </c>
       <c r="E24">
-        <v>0.1136868393564754</v>
+        <v>2.22991954024107</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.5156161772651586</v>
+        <v>0.0007439598179720779</v>
       </c>
       <c r="H24">
-        <v>0.6271169091876914</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.585333378297392</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2129749327051087</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.239780564462734</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.208590394361956</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2.251259711173958</v>
+        <v>3.108880815276933</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9360850605334576</v>
+        <v>4.384450765914437</v>
       </c>
       <c r="C25">
-        <v>0.2615415967271417</v>
+        <v>1.193211458448332</v>
       </c>
       <c r="D25">
-        <v>0.08996872981231263</v>
+        <v>0.2505438642471489</v>
       </c>
       <c r="E25">
-        <v>0.1154235049371408</v>
+        <v>1.768265364438449</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.505832945658355</v>
+        <v>0.0007566887440945971</v>
       </c>
       <c r="H25">
-        <v>0.6293141973740433</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5929356889483515</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2065614229862476</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2129588110820109</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.223393979742141</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>2.234625159975309</v>
+        <v>2.558373989244529</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_1/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,34 +415,40 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.658256287752636</v>
+        <v>3.461049437754639</v>
       </c>
       <c r="C2">
-        <v>1.004485800897186</v>
+        <v>1.012273344699565</v>
       </c>
       <c r="D2">
-        <v>0.2077410507413617</v>
+        <v>0.2010353516683807</v>
       </c>
       <c r="E2">
-        <v>1.447177048112891</v>
+        <v>1.346589557846372</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007662851195500352</v>
+        <v>0.0007909771412192437</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0103639600143904</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.003003242120124039</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,36 +466,42 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.199197504103154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>2.463728656002957</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.17165987179601</v>
+        <v>3.012219475459233</v>
       </c>
       <c r="C3">
-        <v>0.8777438689737096</v>
+        <v>0.8887778461804601</v>
       </c>
       <c r="D3">
-        <v>0.1794192502233329</v>
+        <v>0.1742357590228067</v>
       </c>
       <c r="E3">
-        <v>1.237860935896705</v>
+        <v>1.169434685896974</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007729656483942536</v>
+        <v>0.0007954484576243473</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.006955960908331782</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.001413122548911794</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,36 +519,42 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.978529846316945</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>2.270302517013079</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.874845599657704</v>
+        <v>2.736764943485241</v>
       </c>
       <c r="C4">
-        <v>0.8003030684226928</v>
+        <v>0.8136252633837273</v>
       </c>
       <c r="D4">
-        <v>0.1622988428031533</v>
+        <v>0.1579503725555185</v>
       </c>
       <c r="E4">
-        <v>1.112473026855895</v>
+        <v>1.061207587506829</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0007771654455094271</v>
+        <v>0.0007982771020863183</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.005147121927015941</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0008079613893019477</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,36 +572,42 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.852531214442479</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>2.153977629180417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.7542805625597</v>
+        <v>2.624480411616844</v>
       </c>
       <c r="C5">
-        <v>0.7688154201187558</v>
+        <v>0.7847226178253948</v>
       </c>
       <c r="D5">
-        <v>0.1553805747086727</v>
+        <v>0.1513500587162326</v>
       </c>
       <c r="E5">
-        <v>1.062038790656786</v>
+        <v>1.017192682888179</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.000778902941657605</v>
+        <v>0.0007994577402732178</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.004473790769335739</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0007092465621028055</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,36 +625,42 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.803339995473038</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>2.102535670372163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.734281495624771</v>
+        <v>2.605795165316977</v>
       </c>
       <c r="C6">
-        <v>0.7635904611757951</v>
+        <v>0.7818589551000343</v>
       </c>
       <c r="D6">
-        <v>0.154235073823358</v>
+        <v>0.1502546976355319</v>
       </c>
       <c r="E6">
-        <v>1.053700806086937</v>
+        <v>1.009864846888377</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0007791930638972422</v>
+        <v>0.0007996630428404039</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.004363709485393108</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0007807793246348282</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,36 +678,42 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.795295514139013</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>2.088429120335775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.873218171220117</v>
+        <v>2.735139804791913</v>
       </c>
       <c r="C7">
-        <v>0.7998781627809137</v>
+        <v>0.8185120424572858</v>
       </c>
       <c r="D7">
-        <v>0.1622053157341981</v>
+        <v>0.1578569517526063</v>
       </c>
       <c r="E7">
-        <v>1.11179032763917</v>
+        <v>1.060544225469044</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0007771887707279101</v>
+        <v>0.0007983142593263321</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.005131682061788601</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.001015920231903777</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,36 +731,42 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.851859375080522</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>2.137975931000625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.490006292520661</v>
+        <v>3.306082549221571</v>
       </c>
       <c r="C8">
-        <v>0.9606904561643717</v>
+        <v>0.9766016279555743</v>
       </c>
       <c r="D8">
-        <v>0.1979139695765895</v>
+        <v>0.1917497521032914</v>
       </c>
       <c r="E8">
-        <v>1.374274753903663</v>
+        <v>1.28527834738118</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007685691362630656</v>
+        <v>0.0007925283600474695</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.009116239639820112</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.002614871040475641</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,36 +784,42 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.120994679702704</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>2.376163879564899</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.720298580695101</v>
+        <v>4.428704043313871</v>
       </c>
       <c r="C9">
-        <v>1.280344243974923</v>
+        <v>1.28326224812389</v>
       </c>
       <c r="D9">
-        <v>0.2705394739020335</v>
+        <v>0.2598280663820987</v>
       </c>
       <c r="E9">
-        <v>1.920334129782646</v>
+        <v>1.731834465174558</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007523716000629962</v>
+        <v>0.0007817844010500109</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.01947490422076714</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.008746490764289128</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,36 +837,42 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.735758495839917</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>2.893649592927943</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.645165810325011</v>
+        <v>5.256449941141739</v>
       </c>
       <c r="C10">
-        <v>1.519881762556622</v>
+        <v>1.515067829262591</v>
       </c>
       <c r="D10">
-        <v>0.3262089799355721</v>
+        <v>0.3111150821903124</v>
       </c>
       <c r="E10">
-        <v>2.351142218469164</v>
+        <v>1.962569824270545</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007407886798761201</v>
+        <v>0.0007744755883196566</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.02824474436014679</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.01566676196465444</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,36 +890,42 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.258838533641551</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>3.209534414026109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.07263387811463</v>
+        <v>5.622536226086822</v>
       </c>
       <c r="C11">
-        <v>1.630415815911931</v>
+        <v>1.62007111989135</v>
       </c>
       <c r="D11">
-        <v>0.3522233698394359</v>
+        <v>0.3339967342870125</v>
       </c>
       <c r="E11">
-        <v>2.556433983076744</v>
+        <v>1.273846939128248</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007355587647205342</v>
+        <v>0.0007730125263851012</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04373863273984924</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01796882537458622</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,36 +943,42 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.51712112001178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>2.70408394381451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.23568407646394</v>
+        <v>5.757222030316541</v>
       </c>
       <c r="C12">
-        <v>1.672550619407048</v>
+        <v>1.651485538468421</v>
       </c>
       <c r="D12">
-        <v>0.362191538609224</v>
+        <v>0.3424096006076525</v>
       </c>
       <c r="E12">
-        <v>2.635804555881734</v>
+        <v>0.7764370143502504</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007335810939206562</v>
+        <v>0.0007730612440655094</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.07945867259621053</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01810715249733796</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,36 +996,42 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.618321851405142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>2.269168396181328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.200512303788116</v>
+        <v>5.7200852657719</v>
       </c>
       <c r="C13">
-        <v>1.66346285041584</v>
+        <v>1.636262764454329</v>
       </c>
       <c r="D13">
-        <v>0.3600391973929078</v>
+        <v>0.3400106681834814</v>
       </c>
       <c r="E13">
-        <v>2.618632926619171</v>
+        <v>0.3982300720573164</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007340069470126378</v>
+        <v>0.0007742999722874511</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1320969609555647</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01683727002995195</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,36 +1049,42 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.596367221216667</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.840233392357362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.086023223053701</v>
+        <v>5.616492007218767</v>
       </c>
       <c r="C14">
-        <v>1.633876371344115</v>
+        <v>1.606389617189109</v>
       </c>
       <c r="D14">
-        <v>0.3530409996446622</v>
+        <v>0.3334610125628927</v>
       </c>
       <c r="E14">
-        <v>2.562929300146649</v>
+        <v>0.2062422667850683</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007353960226423641</v>
+        <v>0.0007756840794672546</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1793365243734257</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01545973837930692</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,36 +1102,42 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.525375980118213</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1.546691373300604</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.016055355880837</v>
+        <v>5.55452199378658</v>
       </c>
       <c r="C15">
-        <v>1.615791692199934</v>
+        <v>1.59138801809371</v>
       </c>
       <c r="D15">
-        <v>0.3487702202060774</v>
+        <v>0.3295639558311763</v>
       </c>
       <c r="E15">
-        <v>2.529031181323759</v>
+        <v>0.1683537186439281</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.000736247142226658</v>
+        <v>0.0007763090466090511</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1911226116745723</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01492345635943249</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,36 +1155,42 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.482349064309005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1.468661440270438</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.617382532841646</v>
+        <v>5.204681151289719</v>
       </c>
       <c r="C16">
-        <v>1.512693959586102</v>
+        <v>1.497803298526208</v>
       </c>
       <c r="D16">
-        <v>0.3245242369028887</v>
+        <v>0.3076910403155182</v>
       </c>
       <c r="E16">
-        <v>2.337937120989835</v>
+        <v>0.1627991411191019</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007411310216320262</v>
+        <v>0.0007791528475942615</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1756743716520219</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01222722875592996</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,36 +1208,42 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.242406996848104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1.421027209788861</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.374675259170431</v>
+        <v>4.992036543776351</v>
       </c>
       <c r="C17">
-        <v>1.449883291916592</v>
+        <v>1.442251969277947</v>
       </c>
       <c r="D17">
-        <v>0.3098388295100278</v>
+        <v>0.2944834147532731</v>
       </c>
       <c r="E17">
-        <v>2.223284641930519</v>
+        <v>0.2463881333921378</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007441352645242354</v>
+        <v>0.000780624160332281</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1368493632530914</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.0109422257814904</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,36 +1261,42 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.100731791686655</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1.535420185012271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.235696939815966</v>
+        <v>4.872718468362677</v>
       </c>
       <c r="C18">
-        <v>1.413900203825051</v>
+        <v>1.408334308141491</v>
       </c>
       <c r="D18">
-        <v>0.3014559246615107</v>
+        <v>0.2871174762456121</v>
       </c>
       <c r="E18">
-        <v>2.158196153238208</v>
+        <v>0.4795118759635599</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007458671099549656</v>
+        <v>0.0007809532167095679</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.0846973023002846</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.01039142100668755</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,36 +1314,42 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.021125686477831</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.829005829348631</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.188741968518457</v>
+        <v>4.837068446173532</v>
       </c>
       <c r="C19">
-        <v>1.401740192428917</v>
+        <v>1.405461151727991</v>
       </c>
       <c r="D19">
-        <v>0.2986280604216063</v>
+        <v>0.2849570070342367</v>
       </c>
       <c r="E19">
-        <v>2.136297362335611</v>
+        <v>0.9143710867217294</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.000746454230516425</v>
+        <v>0.0007802056804552484</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.04226461605823317</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01099692884226311</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,36 +1367,42 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.994482350178373</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>2.25378353235584</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.400446231241915</v>
+        <v>5.038195435140381</v>
       </c>
       <c r="C20">
-        <v>1.456554340319371</v>
+        <v>1.470912631290901</v>
       </c>
       <c r="D20">
-        <v>0.3113953961328662</v>
+        <v>0.2975143932035849</v>
       </c>
       <c r="E20">
-        <v>2.235398991592064</v>
+        <v>1.89715308233373</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007438150750966877</v>
+        <v>0.0007764355636842007</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0257207515521789</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01425705621560258</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,36 +1420,42 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.115615411374222</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>3.074328429974969</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.119617683208673</v>
+        <v>5.677747994483184</v>
       </c>
       <c r="C21">
-        <v>1.642558635168029</v>
+        <v>1.649263905189684</v>
       </c>
       <c r="D21">
-        <v>0.3550932080064229</v>
+        <v>0.3375689671483286</v>
       </c>
       <c r="E21">
-        <v>2.57924395209001</v>
+        <v>2.235524352148502</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007349879667615796</v>
+        <v>0.0007705704111492678</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.03442693425868537</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.0206971929507711</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,36 +1473,42 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.546131591856579</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>3.451691982353623</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.596619281167591</v>
+        <v>6.09702536949959</v>
       </c>
       <c r="C22">
-        <v>1.765773764733979</v>
+        <v>1.759374626196461</v>
       </c>
       <c r="D22">
-        <v>0.3843448240638025</v>
+        <v>0.3640934771294582</v>
       </c>
       <c r="E22">
-        <v>2.81364946070974</v>
+        <v>2.406250437458837</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007292335192954358</v>
+        <v>0.0007668821670019548</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.04022807822875318</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.02521435795573357</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,36 +1526,42 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.847557946835479</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>3.685352499981889</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.34131894530708</v>
+        <v>5.873259693076591</v>
       </c>
       <c r="C23">
-        <v>1.699840977839699</v>
+        <v>1.693939003757805</v>
       </c>
       <c r="D23">
-        <v>0.3686627626257035</v>
+        <v>0.3499082279727475</v>
       </c>
       <c r="E23">
-        <v>2.687546027406015</v>
+        <v>2.315064427679815</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007323045023613182</v>
+        <v>0.0007688266353109025</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0370987168953123</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.02251674357046607</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,36 +1579,42 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.684670867960449</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>3.578326346531583</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.388793454136021</v>
+        <v>5.029102131263528</v>
       </c>
       <c r="C24">
-        <v>1.45353796575148</v>
+        <v>1.459050494817291</v>
       </c>
       <c r="D24">
-        <v>0.3106914870064799</v>
+        <v>0.2969496597197292</v>
       </c>
       <c r="E24">
-        <v>2.22991954024107</v>
+        <v>1.973055136233995</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007439598179720779</v>
+        <v>0.0007763251985198657</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02623129859828222</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.01392874286356083</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,36 +1632,42 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.108880815276933</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>3.155720742652107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.384450765914437</v>
+        <v>4.124190613918927</v>
       </c>
       <c r="C25">
-        <v>1.193211458448332</v>
+        <v>1.209311509883207</v>
       </c>
       <c r="D25">
-        <v>0.2505438642471489</v>
+        <v>0.2411898498322813</v>
       </c>
       <c r="E25">
-        <v>1.768265364438449</v>
+        <v>1.610068420514111</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007566887440945971</v>
+        <v>0.0007846594611968367</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.01634323219939326</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.007019526872079851</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1685,13 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.558373989244529</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>2.722867302746863</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_1/res_line/pl_mw.xlsx
@@ -427,52 +427,52 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.461049437754639</v>
+        <v>0.9090546309871286</v>
       </c>
       <c r="C2">
-        <v>1.012273344699565</v>
+        <v>0.1276248722645263</v>
       </c>
       <c r="D2">
-        <v>0.2010353516683807</v>
+        <v>0.2764672484795483</v>
       </c>
       <c r="E2">
-        <v>1.346589557846372</v>
+        <v>0.06834209769983524</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007909771412192437</v>
+        <v>0.5643174402470166</v>
       </c>
       <c r="H2">
-        <v>0.0103639600143904</v>
+        <v>0.0206831183531852</v>
       </c>
       <c r="I2">
-        <v>0.003003242120124039</v>
+        <v>0.01896499791033124</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4718394228392668</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5330217212472057</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.03002406842362149</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8197557931108008</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1938921069721502</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.2114187270600887</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>2.463728656002957</v>
+        <v>2.129138446751469</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -480,52 +480,52 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.012219475459233</v>
+        <v>0.7919234719332167</v>
       </c>
       <c r="C3">
-        <v>0.8887778461804601</v>
+        <v>0.1203987415147623</v>
       </c>
       <c r="D3">
-        <v>0.1742357590228067</v>
+        <v>0.2581164351781098</v>
       </c>
       <c r="E3">
-        <v>1.169434685896974</v>
+        <v>0.06543227707853028</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007954484576243473</v>
+        <v>0.5571771460753254</v>
       </c>
       <c r="H3">
-        <v>0.006955960908331782</v>
+        <v>0.02431554563413463</v>
       </c>
       <c r="I3">
-        <v>0.001413122548911794</v>
+        <v>0.02223480386089527</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4728287998054057</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5350909047190662</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.02818218505683312</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.7166276314176514</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1761539470330149</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.1854119604216322</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2.270302517013079</v>
+        <v>2.115782669714008</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -533,52 +533,52 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.736764943485241</v>
+        <v>0.7197911465962648</v>
       </c>
       <c r="C4">
-        <v>0.8136252633837273</v>
+        <v>0.1159858945537948</v>
       </c>
       <c r="D4">
-        <v>0.1579503725555185</v>
+        <v>0.2469559757432336</v>
       </c>
       <c r="E4">
-        <v>1.061207587506829</v>
+        <v>0.06362979500634758</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0007982771020863183</v>
+        <v>0.5531713706948338</v>
       </c>
       <c r="H4">
-        <v>0.005147121927015941</v>
+        <v>0.0267829176356047</v>
       </c>
       <c r="I4">
-        <v>0.0008079613893019477</v>
+        <v>0.0244880331741042</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4736973571441538</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5365946205510497</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.02703952967430645</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.6532976389175218</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1653272467414055</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.1694430423281439</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2.153977629180417</v>
+        <v>2.108923107484884</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -586,52 +586,52 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.624480411616844</v>
+        <v>0.6900591307552588</v>
       </c>
       <c r="C5">
-        <v>0.7847226178253948</v>
+        <v>0.1143528852517761</v>
       </c>
       <c r="D5">
-        <v>0.1513500587162326</v>
+        <v>0.2423643066783256</v>
       </c>
       <c r="E5">
-        <v>1.017192682888179</v>
+        <v>0.06285909877648699</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0007994577402732178</v>
+        <v>0.551135428433227</v>
       </c>
       <c r="H5">
-        <v>0.004473790769335739</v>
+        <v>0.02785283543306449</v>
       </c>
       <c r="I5">
-        <v>0.0007092465621028055</v>
+        <v>0.02556108721011885</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4738569080447661</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5368373230600127</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.02656943496128594</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.6277743745646802</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1610410436795462</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.1629426182739593</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2.102535670372163</v>
+        <v>2.104863106467533</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -639,52 +639,52 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.605795165316977</v>
+        <v>0.6847742483544721</v>
       </c>
       <c r="C6">
-        <v>0.7818589551000343</v>
+        <v>0.114279812468645</v>
       </c>
       <c r="D6">
-        <v>0.1502546976355319</v>
+        <v>0.2415184833424888</v>
       </c>
       <c r="E6">
-        <v>1.009864846888377</v>
+        <v>0.06269165938215515</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0007996630428404039</v>
+        <v>0.5501972556300245</v>
       </c>
       <c r="H6">
-        <v>0.004363709485393108</v>
+        <v>0.02804191864953409</v>
       </c>
       <c r="I6">
-        <v>0.0007807793246348282</v>
+        <v>0.02586590273446454</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4735710192125993</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5363589999629887</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.02649001222242253</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.6238921697987649</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.160466028873067</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.1618731442289736</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2.088429120335775</v>
+        <v>2.102262396054442</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -692,52 +692,52 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.735139804791913</v>
+        <v>0.7184461272726992</v>
       </c>
       <c r="C7">
-        <v>0.8185120424572858</v>
+        <v>0.1165059888620235</v>
       </c>
       <c r="D7">
-        <v>0.1578569517526063</v>
+        <v>0.2466622327220733</v>
       </c>
       <c r="E7">
-        <v>1.060544225469044</v>
+        <v>0.06351252058937007</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0007983142593263321</v>
+        <v>0.5514923876866646</v>
       </c>
       <c r="H7">
-        <v>0.005131682061788601</v>
+        <v>0.02681792970941277</v>
       </c>
       <c r="I7">
-        <v>0.001015920231903777</v>
+        <v>0.02482100535522758</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4728382556135244</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5351754053580784</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.02703029562517489</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.6539297328476295</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1656410558951862</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.1693825743347155</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2.137975931000625</v>
+        <v>2.103563514690379</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -745,52 +745,52 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.306082549221571</v>
+        <v>0.8674462736775013</v>
       </c>
       <c r="C8">
-        <v>0.9766016279555743</v>
+        <v>0.1258573050095109</v>
       </c>
       <c r="D8">
-        <v>0.1917497521032914</v>
+        <v>0.2698109235370652</v>
       </c>
       <c r="E8">
-        <v>1.28527834738118</v>
+        <v>0.06720150454568596</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007925283600474695</v>
+        <v>0.5596051476076624</v>
       </c>
       <c r="H8">
-        <v>0.009116239639820112</v>
+        <v>0.02190867574703825</v>
       </c>
       <c r="I8">
-        <v>0.002614871040475641</v>
+        <v>0.02042391185515591</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.47099906782082</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.5318235335117052</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.02938827278379286</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.785500184875275</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1882570187480042</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.202486402744686</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2.376163879564899</v>
+        <v>2.117290337511406</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -798,52 +798,52 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.428704043313871</v>
+        <v>1.15979544382256</v>
       </c>
       <c r="C9">
-        <v>1.28326224812389</v>
+        <v>0.1434615361976341</v>
       </c>
       <c r="D9">
-        <v>0.2598280663820987</v>
+        <v>0.3165277120034915</v>
       </c>
       <c r="E9">
-        <v>1.731834465174558</v>
+        <v>0.07450518927567273</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007817844010500109</v>
+        <v>0.5815956165242966</v>
       </c>
       <c r="H9">
-        <v>0.01947490422076714</v>
+        <v>0.01421230906416032</v>
       </c>
       <c r="I9">
-        <v>0.008746490764289128</v>
+        <v>0.01334090138531696</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.4710426374870167</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.52966847135135</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.03394696542731523</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.041898492041753</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2325127345711877</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.2674001789212035</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2.893649592927943</v>
+        <v>2.164682004849027</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -851,52 +851,52 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.256449941141739</v>
+        <v>1.372720053935353</v>
       </c>
       <c r="C10">
-        <v>1.515067829262591</v>
+        <v>0.1580893651420112</v>
       </c>
       <c r="D10">
-        <v>0.3111150821903124</v>
+        <v>0.3464792107562005</v>
       </c>
       <c r="E10">
-        <v>1.962569824270545</v>
+        <v>0.07767663008430326</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007744755883196566</v>
+        <v>0.5912610615719984</v>
       </c>
       <c r="H10">
-        <v>0.02824474436014679</v>
+        <v>0.0102707602809553</v>
       </c>
       <c r="I10">
-        <v>0.01566676196465444</v>
+        <v>0.009709505904086591</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.4680601096238917</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.5229391523424312</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.03762408097684045</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.234393511167326</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2577362392034956</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.3115489793817972</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3.209534414026109</v>
+        <v>2.179390259280922</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -904,52 +904,52 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.622536226086822</v>
+        <v>1.462084668316152</v>
       </c>
       <c r="C11">
-        <v>1.62007111989135</v>
+        <v>0.1771101277595335</v>
       </c>
       <c r="D11">
-        <v>0.3339967342870125</v>
+        <v>0.3181768500300564</v>
       </c>
       <c r="E11">
-        <v>1.273846939128248</v>
+        <v>0.06313777182015379</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007730125263851012</v>
+        <v>0.5281206644060603</v>
       </c>
       <c r="H11">
-        <v>0.04373863273984924</v>
+        <v>0.02870570943212059</v>
       </c>
       <c r="I11">
-        <v>0.01796882537458622</v>
+        <v>0.00937412043747976</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.4322247263585552</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.4711186503010829</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.04628003576070228</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.352402741738047</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2054110552346557</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.3000853107696386</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2.70408394381451</v>
+        <v>1.97069793612971</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -957,52 +957,52 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.757222030316541</v>
+        <v>1.494012398792307</v>
       </c>
       <c r="C12">
-        <v>1.651485538468421</v>
+        <v>0.1906063536313809</v>
       </c>
       <c r="D12">
-        <v>0.3424096006076525</v>
+        <v>0.2892686894364402</v>
       </c>
       <c r="E12">
-        <v>0.7764370143502504</v>
+        <v>0.05329434537576017</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007730612440655094</v>
+        <v>0.4778995253945197</v>
       </c>
       <c r="H12">
-        <v>0.07945867259621053</v>
+        <v>0.06763283860442471</v>
       </c>
       <c r="I12">
-        <v>0.01810715249733796</v>
+        <v>0.009229139830320143</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.4050188155525447</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.4338019716642449</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.058220762817637</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.411045003103425</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1611956287899758</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.2812071865304873</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>2.269168396181328</v>
+        <v>1.807337915202226</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1010,52 +1010,52 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.7200852657719</v>
+        <v>1.481769182028557</v>
       </c>
       <c r="C13">
-        <v>1.636262764454329</v>
+        <v>0.2013319952154689</v>
       </c>
       <c r="D13">
-        <v>0.3400106681834814</v>
+        <v>0.2579584287982897</v>
       </c>
       <c r="E13">
-        <v>0.3982300720573164</v>
+        <v>0.04631516839308247</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007742999722874511</v>
+        <v>0.432000273269324</v>
       </c>
       <c r="H13">
-        <v>0.1320969609555647</v>
+        <v>0.1240169932838739</v>
       </c>
       <c r="I13">
-        <v>0.01683727002995195</v>
+        <v>0.009643576152752686</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3814313301323509</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.4031195872067244</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.07315018844123955</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.428359921620796</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1214303138197792</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.2557106324130096</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.840233392357362</v>
+        <v>1.660623793386009</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1063,52 +1063,52 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.616492007218767</v>
+        <v>1.452903970552399</v>
       </c>
       <c r="C14">
-        <v>1.606389617189109</v>
+        <v>0.2079137657121777</v>
       </c>
       <c r="D14">
-        <v>0.3334610125628927</v>
+        <v>0.2352275394579664</v>
       </c>
       <c r="E14">
-        <v>0.2062422667850683</v>
+        <v>0.04312231748188</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007756840794672546</v>
+        <v>0.4020120022746383</v>
       </c>
       <c r="H14">
-        <v>0.1793365243734257</v>
+        <v>0.1739670099159127</v>
       </c>
       <c r="I14">
-        <v>0.01545973837930692</v>
+        <v>0.0102957763344298</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3666039399987682</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.3848277878797042</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08554804229374469</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.42204148684408</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.09669887215228101</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.2350814494127498</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.546691373300604</v>
+        <v>1.565945655413159</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1116,52 +1116,52 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.55452199378658</v>
+        <v>1.436068516040478</v>
       </c>
       <c r="C15">
-        <v>1.59138801809371</v>
+        <v>0.2090545186256492</v>
       </c>
       <c r="D15">
-        <v>0.3295639558311763</v>
+        <v>0.2290340555976371</v>
       </c>
       <c r="E15">
-        <v>0.1683537186439281</v>
+        <v>0.04256622922391706</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007763090466090511</v>
+        <v>0.3948796091771243</v>
       </c>
       <c r="H15">
-        <v>0.1911226116745723</v>
+        <v>0.1867738066698621</v>
       </c>
       <c r="I15">
-        <v>0.01492345635943249</v>
+        <v>0.01072566902235117</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3633947500590722</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.3810934254453944</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08850187764578976</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.411887545036677</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.09098834431430447</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.2286826870723679</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.468661440270438</v>
+        <v>1.544070945204481</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1169,52 +1169,52 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.204681151289719</v>
+        <v>1.346225672758237</v>
       </c>
       <c r="C16">
-        <v>1.497803298526208</v>
+        <v>0.2004868826673771</v>
       </c>
       <c r="D16">
-        <v>0.3076910403155182</v>
+        <v>0.2229788670997834</v>
       </c>
       <c r="E16">
-        <v>0.1627991411191019</v>
+        <v>0.04269777126505092</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007791528475942615</v>
+        <v>0.3990996429849858</v>
       </c>
       <c r="H16">
-        <v>0.1756743716520219</v>
+        <v>0.1757015357104308</v>
       </c>
       <c r="I16">
-        <v>0.01222722875592996</v>
+        <v>0.01231428488974995</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3688011791675834</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.3892190310317609</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.0833904214644221</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.324970442102313</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.08940012412749354</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.2155784150596176</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.421027209788861</v>
+        <v>1.564141277947741</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1222,52 +1222,52 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.992036543776351</v>
+        <v>1.292758309681602</v>
       </c>
       <c r="C17">
-        <v>1.442251969277947</v>
+        <v>0.1904107853036834</v>
       </c>
       <c r="D17">
-        <v>0.2944834147532731</v>
+        <v>0.2302189614428016</v>
       </c>
       <c r="E17">
-        <v>0.2463881333921378</v>
+        <v>0.04420898440779597</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.000780624160332281</v>
+        <v>0.4180170973541522</v>
       </c>
       <c r="H17">
-        <v>0.1368493632530914</v>
+        <v>0.1389033306910079</v>
       </c>
       <c r="I17">
-        <v>0.0109422257814904</v>
+        <v>0.01323125281073612</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.380752731177175</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.4049338499263939</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.07250604266648253</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.261929844684573</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1006487485426959</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.2163536426615877</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.535420185012271</v>
+        <v>1.629151098317124</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1275,52 +1275,52 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.872718468362677</v>
+        <v>1.265168821123893</v>
       </c>
       <c r="C18">
-        <v>1.408334308141491</v>
+        <v>0.1778366816467383</v>
       </c>
       <c r="D18">
-        <v>0.2871174762456121</v>
+        <v>0.2504891429564111</v>
       </c>
       <c r="E18">
-        <v>0.4795118759635599</v>
+        <v>0.04857837180637503</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007809532167095679</v>
+        <v>0.4542156773129093</v>
       </c>
       <c r="H18">
-        <v>0.0846973023002846</v>
+        <v>0.08632006560824834</v>
       </c>
       <c r="I18">
-        <v>0.01039142100668755</v>
+        <v>0.01324919565444826</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4008772157230212</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.4312967871135314</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.05785934515172286</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.211683643863296</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1270909803014035</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.2293381405663055</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.829005829348631</v>
+        <v>1.747964520444711</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1328,52 +1328,52 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.837068446173532</v>
+        <v>1.258425317857359</v>
       </c>
       <c r="C19">
-        <v>1.405461151727991</v>
+        <v>0.1665553245332774</v>
       </c>
       <c r="D19">
-        <v>0.2849570070342367</v>
+        <v>0.2805169421581581</v>
       </c>
       <c r="E19">
-        <v>0.9143710867217294</v>
+        <v>0.05703768234637963</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007802056804552484</v>
+        <v>0.501748315155794</v>
       </c>
       <c r="H19">
-        <v>0.04226461605823317</v>
+        <v>0.0404082579340681</v>
       </c>
       <c r="I19">
-        <v>0.01099692884226311</v>
+        <v>0.01311373825032991</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.4259561558620888</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.4648614994365019</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.04507934192063701</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.177878198317956</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1690628754291836</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.2517159710146473</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>2.25378353235584</v>
+        <v>1.901228790787499</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1381,52 +1381,52 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.038195435140381</v>
+        <v>1.313775973655851</v>
       </c>
       <c r="C20">
-        <v>1.470912631290901</v>
+        <v>0.1561008943603497</v>
       </c>
       <c r="D20">
-        <v>0.2975143932035849</v>
+        <v>0.3376525524687111</v>
       </c>
       <c r="E20">
-        <v>1.89715308233373</v>
+        <v>0.07643878874659649</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007764355636842007</v>
+        <v>0.583246174488437</v>
       </c>
       <c r="H20">
-        <v>0.0257207515521789</v>
+        <v>0.01124578615923433</v>
       </c>
       <c r="I20">
-        <v>0.01425705621560258</v>
+        <v>0.01149951969517549</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.4660036357938395</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.5201362554581515</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.03667112740316725</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.187073534437587</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2519264435392614</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.2998798880027209</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>3.074328429974969</v>
+        <v>2.157974369155369</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1434,52 +1434,52 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.677747994483184</v>
+        <v>1.478632509013778</v>
       </c>
       <c r="C21">
-        <v>1.649263905189684</v>
+        <v>0.1652659469357332</v>
       </c>
       <c r="D21">
-        <v>0.3375689671483286</v>
+        <v>0.3685901268337943</v>
       </c>
       <c r="E21">
-        <v>2.235524352148502</v>
+        <v>0.08213644035349965</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007705704111492678</v>
+        <v>0.6046187290271945</v>
       </c>
       <c r="H21">
-        <v>0.03442693425868537</v>
+        <v>0.008055150690061852</v>
       </c>
       <c r="I21">
-        <v>0.0206971929507711</v>
+        <v>0.008843476857289367</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.4709297908274266</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.525162914889048</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.03898430375104844</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.329439134056713</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2834657766949107</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.3394447082545398</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>3.451691982353623</v>
+        <v>2.213943683242974</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1487,52 +1487,52 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.09702536949959</v>
+        <v>1.587266467611471</v>
       </c>
       <c r="C22">
-        <v>1.759374626196461</v>
+        <v>0.1711696078943703</v>
       </c>
       <c r="D22">
-        <v>0.3640934771294582</v>
+        <v>0.3867632745363352</v>
       </c>
       <c r="E22">
-        <v>2.406250437458837</v>
+        <v>0.0849301954391315</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007668821670019548</v>
+        <v>0.6171421923927909</v>
       </c>
       <c r="H22">
-        <v>0.04022807822875318</v>
+        <v>0.006426925766267577</v>
       </c>
       <c r="I22">
-        <v>0.02521435795573357</v>
+        <v>0.007065656077267946</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.4734641607159062</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.5275609345362398</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.04067717837380425</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.422991082086753</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.299652118450183</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.3634557237808309</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>3.685352499981889</v>
+        <v>2.246017923343487</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1540,52 +1540,52 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.873259693076591</v>
+        <v>1.530452269360637</v>
       </c>
       <c r="C23">
-        <v>1.693939003757805</v>
+        <v>0.1673184642515366</v>
       </c>
       <c r="D23">
-        <v>0.3499082279727475</v>
+        <v>0.3773215529935783</v>
       </c>
       <c r="E23">
-        <v>2.315064427679815</v>
+        <v>0.08356276988126154</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007688266353109025</v>
+        <v>0.6123015419204307</v>
       </c>
       <c r="H23">
-        <v>0.0370987168953123</v>
+        <v>0.007260020619968416</v>
       </c>
       <c r="I23">
-        <v>0.02251674357046607</v>
+        <v>0.007640730214491853</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.4730540617098598</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.5278577574980616</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.0397724918752056</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.37185067477597</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.290551233263372</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.3506067809133384</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>3.578326346531583</v>
+        <v>2.234780912543044</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1593,52 +1593,52 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.029102131263528</v>
+        <v>1.313374742170708</v>
       </c>
       <c r="C24">
-        <v>1.459050494817291</v>
+        <v>0.1539647597395799</v>
       </c>
       <c r="D24">
-        <v>0.2969496597197292</v>
+        <v>0.3414400483987663</v>
       </c>
       <c r="E24">
-        <v>1.973055136233995</v>
+        <v>0.07817700049344367</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007763251985198657</v>
+        <v>0.5920003294584006</v>
       </c>
       <c r="H24">
-        <v>0.02623129859828222</v>
+        <v>0.01098314664085385</v>
       </c>
       <c r="I24">
-        <v>0.01392874286356083</v>
+        <v>0.01091401576576256</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.4705815998624274</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.5270344167805128</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.03636773060148712</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.180411388924568</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.257008521090853</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.3020801020917645</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>3.155720742652107</v>
+        <v>2.18611328304749</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1646,52 +1646,52 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.124190613918927</v>
+        <v>1.079100212554238</v>
       </c>
       <c r="C25">
-        <v>1.209311509883207</v>
+        <v>0.1396881554963443</v>
       </c>
       <c r="D25">
-        <v>0.2411898498322813</v>
+        <v>0.3033660040983079</v>
       </c>
       <c r="E25">
-        <v>1.610068420514111</v>
+        <v>0.07235096046617073</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007846594611968367</v>
+        <v>0.5723526459093264</v>
       </c>
       <c r="H25">
-        <v>0.01634323219939326</v>
+        <v>0.01609793329595566</v>
       </c>
       <c r="I25">
-        <v>0.007019526872079851</v>
+        <v>0.01555399636005284</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.4692776663879528</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.5275336564215678</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.03271554322371184</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.974285707791779</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2211524406829568</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.2498736453814203</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>2.722867302746863</v>
+        <v>2.14121395513115</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_1/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_1/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9090546309871286</v>
+        <v>0.8961092007039895</v>
       </c>
       <c r="C2">
-        <v>0.1276248722645263</v>
+        <v>0.1190568487325123</v>
       </c>
       <c r="D2">
-        <v>0.2764672484795483</v>
+        <v>0.271783418548452</v>
       </c>
       <c r="E2">
-        <v>0.06834209769983524</v>
+        <v>0.06594397840978594</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.5643174402470166</v>
+        <v>0.5038585878388417</v>
       </c>
       <c r="H2">
-        <v>0.0206831183531852</v>
+        <v>0.01755070490642735</v>
       </c>
       <c r="I2">
-        <v>0.01896499791033124</v>
+        <v>0.01442763652719048</v>
       </c>
       <c r="J2">
-        <v>0.4718394228392668</v>
+        <v>0.4472347129450327</v>
       </c>
       <c r="K2">
-        <v>0.5330217212472057</v>
+        <v>0.4729532770181919</v>
       </c>
       <c r="L2">
-        <v>0.03002406842362149</v>
+        <v>0.1957214596654104</v>
       </c>
       <c r="M2">
-        <v>0.8197557931108008</v>
+        <v>0.1600468378047477</v>
       </c>
       <c r="N2">
-        <v>0.1938921069721502</v>
+        <v>0.02963451744236067</v>
       </c>
       <c r="O2">
-        <v>0.2114187270600887</v>
+        <v>0.8432080986110293</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2101528568365367</v>
       </c>
       <c r="Q2">
-        <v>2.129138446751469</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.2122210862488814</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.943364623999102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7919234719332167</v>
+        <v>0.7822719444683059</v>
       </c>
       <c r="C3">
-        <v>0.1203987415147623</v>
+        <v>0.1090140504242783</v>
       </c>
       <c r="D3">
-        <v>0.2581164351781098</v>
+        <v>0.2542511370610896</v>
       </c>
       <c r="E3">
-        <v>0.06543227707853028</v>
+        <v>0.06343688285741322</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.5571771460753254</v>
+        <v>0.5026083648574726</v>
       </c>
       <c r="H3">
-        <v>0.02431554563413463</v>
+        <v>0.02067897430420357</v>
       </c>
       <c r="I3">
-        <v>0.02223480386089527</v>
+        <v>0.01695346530145825</v>
       </c>
       <c r="J3">
-        <v>0.4728287998054057</v>
+        <v>0.4464014537548451</v>
       </c>
       <c r="K3">
-        <v>0.5350909047190662</v>
+        <v>0.4775203143477142</v>
       </c>
       <c r="L3">
-        <v>0.02818218505683312</v>
+        <v>0.2005699325932682</v>
       </c>
       <c r="M3">
-        <v>0.7166276314176514</v>
+        <v>0.1603792818318812</v>
       </c>
       <c r="N3">
-        <v>0.1761539470330149</v>
+        <v>0.02781428863747148</v>
       </c>
       <c r="O3">
-        <v>0.1854119604216322</v>
+        <v>0.7360471306100749</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1913478919754752</v>
       </c>
       <c r="Q3">
-        <v>2.115782669714008</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1860120773549383</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.941223933826436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7197911465962648</v>
+        <v>0.7120706835132751</v>
       </c>
       <c r="C4">
-        <v>0.1159858945537948</v>
+        <v>0.1029415313178887</v>
       </c>
       <c r="D4">
-        <v>0.2469559757432336</v>
+        <v>0.2435831984864478</v>
       </c>
       <c r="E4">
-        <v>0.06362979500634758</v>
+        <v>0.06187961154576271</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.5531713706948338</v>
+        <v>0.5022388926638754</v>
       </c>
       <c r="H4">
-        <v>0.0267829176356047</v>
+        <v>0.02280633943591737</v>
       </c>
       <c r="I4">
-        <v>0.0244880331741042</v>
+        <v>0.0187108806920202</v>
       </c>
       <c r="J4">
-        <v>0.4736973571441538</v>
+        <v>0.44596126908489</v>
       </c>
       <c r="K4">
-        <v>0.5365946205510497</v>
+        <v>0.4804821790828342</v>
       </c>
       <c r="L4">
-        <v>0.02703952967430645</v>
+        <v>0.2036191194640757</v>
       </c>
       <c r="M4">
-        <v>0.6532976389175218</v>
+        <v>0.1611397462364152</v>
       </c>
       <c r="N4">
-        <v>0.1653272467414055</v>
+        <v>0.0266870170155018</v>
       </c>
       <c r="O4">
-        <v>0.1694430423281439</v>
+        <v>0.6702747512439657</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1798973660474559</v>
       </c>
       <c r="Q4">
-        <v>2.108923107484884</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1699126466208902</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.940930554346437</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6900591307552588</v>
+        <v>0.6831102010910399</v>
       </c>
       <c r="C5">
-        <v>0.1143528852517761</v>
+        <v>0.1006766403654069</v>
       </c>
       <c r="D5">
-        <v>0.2423643066783256</v>
+        <v>0.2391921104542121</v>
       </c>
       <c r="E5">
-        <v>0.06285909877648699</v>
+        <v>0.06120999324249965</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.551135428433227</v>
+        <v>0.5017306208775523</v>
       </c>
       <c r="H5">
-        <v>0.02785283543306449</v>
+        <v>0.02372955093642859</v>
       </c>
       <c r="I5">
-        <v>0.02556108721011885</v>
+        <v>0.01958355385979704</v>
       </c>
       <c r="J5">
-        <v>0.4738569080447661</v>
+        <v>0.4455491723906349</v>
       </c>
       <c r="K5">
-        <v>0.5368373230600127</v>
+        <v>0.4813414866671266</v>
       </c>
       <c r="L5">
-        <v>0.02656943496128594</v>
+        <v>0.2046890230657112</v>
       </c>
       <c r="M5">
-        <v>0.6277743745646802</v>
+        <v>0.1614906072449998</v>
       </c>
       <c r="N5">
-        <v>0.1610410436795462</v>
+        <v>0.0262250682505627</v>
       </c>
       <c r="O5">
-        <v>0.1629426182739593</v>
+        <v>0.6437621497740906</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1753643876445565</v>
       </c>
       <c r="Q5">
-        <v>2.104863106467533</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.163357398201839</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.939578734583833</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6847742483544721</v>
+        <v>0.6779604904464236</v>
       </c>
       <c r="C6">
-        <v>0.114279812468645</v>
+        <v>0.1005332106412453</v>
       </c>
       <c r="D6">
-        <v>0.2415184833424888</v>
+        <v>0.2383822478336697</v>
       </c>
       <c r="E6">
-        <v>0.06269165938215515</v>
+        <v>0.06106132496614691</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.5501972556300245</v>
+        <v>0.5010972385192289</v>
       </c>
       <c r="H6">
-        <v>0.02804191864953409</v>
+        <v>0.02389295691139692</v>
       </c>
       <c r="I6">
-        <v>0.02586590273446454</v>
+        <v>0.01986973164654149</v>
       </c>
       <c r="J6">
-        <v>0.4735710192125993</v>
+        <v>0.4451759829891344</v>
       </c>
       <c r="K6">
-        <v>0.5363589999629887</v>
+        <v>0.4810150538712463</v>
       </c>
       <c r="L6">
-        <v>0.02649001222242253</v>
+        <v>0.2046356658268529</v>
       </c>
       <c r="M6">
-        <v>0.6238921697987649</v>
+        <v>0.1614363643633894</v>
       </c>
       <c r="N6">
-        <v>0.160466028873067</v>
+        <v>0.02614865423615864</v>
       </c>
       <c r="O6">
-        <v>0.1618731442289736</v>
+        <v>0.6397123939806733</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1747483633306928</v>
       </c>
       <c r="Q6">
-        <v>2.102262396054442</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1622784820301391</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.937560108819895</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7184461272726992</v>
+        <v>0.7108831013696602</v>
       </c>
       <c r="C7">
-        <v>0.1165059888620235</v>
+        <v>0.1034265334612741</v>
       </c>
       <c r="D7">
-        <v>0.2466622327220733</v>
+        <v>0.243318812772614</v>
       </c>
       <c r="E7">
-        <v>0.06351252058937007</v>
+        <v>0.06177333669128515</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.5514923876866646</v>
+        <v>0.5029692440897762</v>
       </c>
       <c r="H7">
-        <v>0.02681792970941277</v>
+        <v>0.02284743086608071</v>
       </c>
       <c r="I7">
-        <v>0.02482100535522758</v>
+        <v>0.01909089685497012</v>
       </c>
       <c r="J7">
-        <v>0.4728382556135244</v>
+        <v>0.4413360688511148</v>
       </c>
       <c r="K7">
-        <v>0.5351754053580784</v>
+        <v>0.4786931891366315</v>
       </c>
       <c r="L7">
-        <v>0.02703029562517489</v>
+        <v>0.2027686395875392</v>
       </c>
       <c r="M7">
-        <v>0.6539297328476295</v>
+        <v>0.1606603331326415</v>
       </c>
       <c r="N7">
-        <v>0.1656410558951862</v>
+        <v>0.02667197544954547</v>
       </c>
       <c r="O7">
-        <v>0.1693825743347155</v>
+        <v>0.6707058201951099</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1801430570064468</v>
       </c>
       <c r="Q7">
-        <v>2.103563514690379</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1698467639376879</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.93313821062543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8674462736775013</v>
+        <v>0.8561014126089788</v>
       </c>
       <c r="C8">
-        <v>0.1258573050095109</v>
+        <v>0.1160350077733341</v>
       </c>
       <c r="D8">
-        <v>0.2698109235370652</v>
+        <v>0.2654885253453898</v>
       </c>
       <c r="E8">
-        <v>0.06720150454568596</v>
+        <v>0.06496627474590433</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.5596051476076624</v>
+        <v>0.508886688451426</v>
       </c>
       <c r="H8">
-        <v>0.02190867574703825</v>
+        <v>0.0186348197006182</v>
       </c>
       <c r="I8">
-        <v>0.02042391185515591</v>
+        <v>0.01571688445085329</v>
       </c>
       <c r="J8">
-        <v>0.47099906782082</v>
+        <v>0.4335878495436276</v>
       </c>
       <c r="K8">
-        <v>0.5318235335117052</v>
+        <v>0.4711510003817523</v>
       </c>
       <c r="L8">
-        <v>0.02938827278379286</v>
+        <v>0.1959016170350374</v>
       </c>
       <c r="M8">
-        <v>0.785500184875275</v>
+        <v>0.1590169220766349</v>
       </c>
       <c r="N8">
-        <v>0.1882570187480042</v>
+        <v>0.02897845616918993</v>
       </c>
       <c r="O8">
-        <v>0.202486402744686</v>
+        <v>0.8069488144749926</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.2039310811278838</v>
       </c>
       <c r="Q8">
-        <v>2.117290337511406</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.2032049843787789</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.926656918305682</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.15979544382256</v>
+        <v>1.139774302284422</v>
       </c>
       <c r="C9">
-        <v>0.1434615361976341</v>
+        <v>0.1408416108536272</v>
       </c>
       <c r="D9">
-        <v>0.3165277120034915</v>
+        <v>0.3101159820289894</v>
       </c>
       <c r="E9">
-        <v>0.07450518927567273</v>
+        <v>0.0712536412379059</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5815956165242966</v>
+        <v>0.5182264014576106</v>
       </c>
       <c r="H9">
-        <v>0.01421230906416032</v>
+        <v>0.01201772833934536</v>
       </c>
       <c r="I9">
-        <v>0.01334090138531696</v>
+        <v>0.01021359265078381</v>
       </c>
       <c r="J9">
-        <v>0.4710426374870167</v>
+        <v>0.4337944457845637</v>
       </c>
       <c r="K9">
-        <v>0.52966847135135</v>
+        <v>0.4617729342531938</v>
       </c>
       <c r="L9">
-        <v>0.03394696542731523</v>
+        <v>0.1848891182943468</v>
       </c>
       <c r="M9">
-        <v>1.041898492041753</v>
+        <v>0.1614340087683495</v>
       </c>
       <c r="N9">
-        <v>0.2325127345711877</v>
+        <v>0.03347939207279804</v>
       </c>
       <c r="O9">
-        <v>0.2674001789212035</v>
+        <v>1.073407169170451</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2509626991555223</v>
       </c>
       <c r="Q9">
-        <v>2.164682004849027</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2685749016536647</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.941408272418926</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.372720053935353</v>
+        <v>1.347016263496698</v>
       </c>
       <c r="C10">
-        <v>0.1580893651420112</v>
+        <v>0.1604387734082025</v>
       </c>
       <c r="D10">
-        <v>0.3464792107562005</v>
+        <v>0.3387719516237695</v>
       </c>
       <c r="E10">
-        <v>0.07767663008430326</v>
+        <v>0.07384036018093632</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.5912610615719984</v>
+        <v>0.5335337981337318</v>
       </c>
       <c r="H10">
-        <v>0.0102707602809553</v>
+        <v>0.008703360739124921</v>
       </c>
       <c r="I10">
-        <v>0.009709505904086591</v>
+        <v>0.007557199861698116</v>
       </c>
       <c r="J10">
-        <v>0.4680601096238917</v>
+        <v>0.4109357851057069</v>
       </c>
       <c r="K10">
-        <v>0.5229391523424312</v>
+        <v>0.4479599867245341</v>
       </c>
       <c r="L10">
-        <v>0.03762408097684045</v>
+        <v>0.1744377938863089</v>
       </c>
       <c r="M10">
-        <v>1.234393511167326</v>
+        <v>0.1628221560115826</v>
       </c>
       <c r="N10">
-        <v>0.2577362392034956</v>
+        <v>0.03719734339100178</v>
       </c>
       <c r="O10">
-        <v>0.3115489793817972</v>
+        <v>1.271890661184443</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2775553164209299</v>
       </c>
       <c r="Q10">
-        <v>2.179390259280922</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.3129534688670361</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.919243540709118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.462084668316152</v>
+        <v>1.439190850874695</v>
       </c>
       <c r="C11">
-        <v>0.1771101277595335</v>
+        <v>0.1801042118154754</v>
       </c>
       <c r="D11">
-        <v>0.3181768500300564</v>
+        <v>0.3115052772182736</v>
       </c>
       <c r="E11">
-        <v>0.06313777182015379</v>
+        <v>0.06018462326493612</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.5281206644060603</v>
+        <v>0.5046021778134531</v>
       </c>
       <c r="H11">
-        <v>0.02870570943212059</v>
+        <v>0.02726262269017354</v>
       </c>
       <c r="I11">
-        <v>0.00937412043747976</v>
+        <v>0.007596705587417318</v>
       </c>
       <c r="J11">
-        <v>0.4322247263585552</v>
+        <v>0.3491393056612822</v>
       </c>
       <c r="K11">
-        <v>0.4711186503010829</v>
+        <v>0.4002295708761068</v>
       </c>
       <c r="L11">
-        <v>0.04628003576070228</v>
+        <v>0.1559001807461762</v>
       </c>
       <c r="M11">
-        <v>1.352402741738047</v>
+        <v>0.1466304176027222</v>
       </c>
       <c r="N11">
-        <v>0.2054110552346557</v>
+        <v>0.04675438699125323</v>
       </c>
       <c r="O11">
-        <v>0.3000853107696386</v>
+        <v>1.386817926242401</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.2216620435943071</v>
       </c>
       <c r="Q11">
-        <v>1.97069793612971</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.3013059073072029</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.708192963103471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.494012398792307</v>
+        <v>1.474387401910064</v>
       </c>
       <c r="C12">
-        <v>0.1906063536313809</v>
+        <v>0.1927812587188669</v>
       </c>
       <c r="D12">
-        <v>0.2892686894364402</v>
+        <v>0.2835868469438907</v>
       </c>
       <c r="E12">
-        <v>0.05329434537576017</v>
+        <v>0.05104924873096195</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4778995253945197</v>
+        <v>0.4710536814477422</v>
       </c>
       <c r="H12">
-        <v>0.06763283860442471</v>
+        <v>0.06619852758586831</v>
       </c>
       <c r="I12">
-        <v>0.009229139830320143</v>
+        <v>0.00750201307224696</v>
       </c>
       <c r="J12">
-        <v>0.4050188155525447</v>
+        <v>0.3199683347958064</v>
       </c>
       <c r="K12">
-        <v>0.4338019716642449</v>
+        <v>0.3692766297978025</v>
       </c>
       <c r="L12">
-        <v>0.058220762817637</v>
+        <v>0.1451152519240324</v>
       </c>
       <c r="M12">
-        <v>1.411045003103425</v>
+        <v>0.1346631720853146</v>
       </c>
       <c r="N12">
-        <v>0.1611956287899758</v>
+        <v>0.05925910628564068</v>
       </c>
       <c r="O12">
-        <v>0.2812071865304873</v>
+        <v>1.4419954492719</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1746848517095287</v>
       </c>
       <c r="Q12">
-        <v>1.807337915202226</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2822575803628595</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.560552293972677</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.481769182028557</v>
+        <v>1.465625333729491</v>
       </c>
       <c r="C13">
-        <v>0.2013319952154689</v>
+        <v>0.2021704050778936</v>
       </c>
       <c r="D13">
-        <v>0.2579584287982897</v>
+        <v>0.2532384618270669</v>
       </c>
       <c r="E13">
-        <v>0.04631516839308247</v>
+        <v>0.04469655065823419</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.432000273269324</v>
+        <v>0.4254120135977857</v>
       </c>
       <c r="H13">
-        <v>0.1240169932838739</v>
+        <v>0.1224876156157819</v>
       </c>
       <c r="I13">
-        <v>0.009643576152752686</v>
+        <v>0.007788911288081124</v>
       </c>
       <c r="J13">
-        <v>0.3814313301323509</v>
+        <v>0.3102616011368227</v>
       </c>
       <c r="K13">
-        <v>0.4031195872067244</v>
+        <v>0.3474276833100713</v>
       </c>
       <c r="L13">
-        <v>0.07315018844123955</v>
+        <v>0.1382431990900237</v>
       </c>
       <c r="M13">
-        <v>1.428359921620796</v>
+        <v>0.1250189837258944</v>
       </c>
       <c r="N13">
-        <v>0.1214303138197792</v>
+        <v>0.07460721828905648</v>
       </c>
       <c r="O13">
-        <v>0.2557106324130096</v>
+        <v>1.45589206367228</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1326832743956103</v>
       </c>
       <c r="Q13">
-        <v>1.660623793386009</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2565983654211337</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.447398822189456</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.452903970552399</v>
+        <v>1.439294165596465</v>
       </c>
       <c r="C14">
-        <v>0.2079137657121777</v>
+        <v>0.2075845348282144</v>
       </c>
       <c r="D14">
-        <v>0.2352275394579664</v>
+        <v>0.2311625703682125</v>
       </c>
       <c r="E14">
-        <v>0.04312231748188</v>
+        <v>0.04189960064483045</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4020120022746383</v>
+        <v>0.3898227525218303</v>
       </c>
       <c r="H14">
-        <v>0.1739670099159127</v>
+        <v>0.1723225054238355</v>
       </c>
       <c r="I14">
-        <v>0.0102957763344298</v>
+        <v>0.008282314237201938</v>
       </c>
       <c r="J14">
-        <v>0.3666039399987682</v>
+        <v>0.309822112972082</v>
       </c>
       <c r="K14">
-        <v>0.3848277878797042</v>
+        <v>0.3358711200076279</v>
       </c>
       <c r="L14">
-        <v>0.08554804229374469</v>
+        <v>0.1348568029752455</v>
       </c>
       <c r="M14">
-        <v>1.42204148684408</v>
+        <v>0.1193879884961166</v>
       </c>
       <c r="N14">
-        <v>0.09669887215228101</v>
+        <v>0.0872247032018052</v>
       </c>
       <c r="O14">
-        <v>0.2350814494127498</v>
+        <v>1.447179883926282</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.1066237746223209</v>
       </c>
       <c r="Q14">
-        <v>1.565945655413159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2358548580692243</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1.381911128340249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.436068516040478</v>
+        <v>1.423127468610744</v>
       </c>
       <c r="C15">
-        <v>0.2090545186256492</v>
+        <v>0.2084145857503614</v>
       </c>
       <c r="D15">
-        <v>0.2290340555976371</v>
+        <v>0.2251383854151641</v>
       </c>
       <c r="E15">
-        <v>0.04256622922391706</v>
+        <v>0.04144360338083397</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.3948796091771243</v>
+        <v>0.3791672582153467</v>
       </c>
       <c r="H15">
-        <v>0.1867738066698621</v>
+        <v>0.1850717750026831</v>
       </c>
       <c r="I15">
-        <v>0.01072566902235117</v>
+        <v>0.008652755587255534</v>
       </c>
       <c r="J15">
-        <v>0.3633947500590722</v>
+        <v>0.3122691760633138</v>
       </c>
       <c r="K15">
-        <v>0.3810934254453944</v>
+        <v>0.3341372115903685</v>
       </c>
       <c r="L15">
-        <v>0.08850187764578976</v>
+        <v>0.1344435554487662</v>
       </c>
       <c r="M15">
-        <v>1.411887545036677</v>
+        <v>0.1183004541412416</v>
       </c>
       <c r="N15">
-        <v>0.09098834431430447</v>
+        <v>0.09023088509449195</v>
       </c>
       <c r="O15">
-        <v>0.2286826870723679</v>
+        <v>1.436450347871585</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.1006417895566898</v>
       </c>
       <c r="Q15">
-        <v>1.544070945204481</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.229425991782346</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1.369904574238532</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.346225672758237</v>
+        <v>1.333799623629744</v>
       </c>
       <c r="C16">
-        <v>0.2004868826673771</v>
+        <v>0.1994033111075737</v>
       </c>
       <c r="D16">
-        <v>0.2229788670997834</v>
+        <v>0.2192235700010343</v>
       </c>
       <c r="E16">
-        <v>0.04269777126505092</v>
+        <v>0.04166045017135356</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.3990996429849858</v>
+        <v>0.3657198647476676</v>
       </c>
       <c r="H16">
-        <v>0.1757015357104308</v>
+        <v>0.173699065556491</v>
       </c>
       <c r="I16">
-        <v>0.01231428488974995</v>
+        <v>0.009853117738220618</v>
       </c>
       <c r="J16">
-        <v>0.3688011791675834</v>
+        <v>0.338407303996128</v>
       </c>
       <c r="K16">
-        <v>0.3892190310317609</v>
+        <v>0.3454531767350684</v>
       </c>
       <c r="L16">
-        <v>0.0833904214644221</v>
+        <v>0.1388869229671172</v>
       </c>
       <c r="M16">
-        <v>1.324970442102313</v>
+        <v>0.1213579399337643</v>
       </c>
       <c r="N16">
-        <v>0.08940012412749354</v>
+        <v>0.08516788190822666</v>
       </c>
       <c r="O16">
-        <v>0.2155784150596176</v>
+        <v>1.349480122444618</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.09936089356720856</v>
       </c>
       <c r="Q16">
-        <v>1.564141277947741</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2162940675243483</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.413912958746195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.292758309681602</v>
+        <v>1.279596555748469</v>
       </c>
       <c r="C17">
-        <v>0.1904107853036834</v>
+        <v>0.1893565404199649</v>
       </c>
       <c r="D17">
-        <v>0.2302189614428016</v>
+        <v>0.2262609751583113</v>
       </c>
       <c r="E17">
-        <v>0.04420898440779597</v>
+        <v>0.04302721659746922</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.4180170973541522</v>
+        <v>0.3755712635037582</v>
       </c>
       <c r="H17">
-        <v>0.1389033306910079</v>
+        <v>0.1367328185803984</v>
       </c>
       <c r="I17">
-        <v>0.01323125281073612</v>
+        <v>0.01056052723390799</v>
       </c>
       <c r="J17">
-        <v>0.380752731177175</v>
+        <v>0.3588647503758295</v>
       </c>
       <c r="K17">
-        <v>0.4049338499263939</v>
+        <v>0.3601865557714703</v>
       </c>
       <c r="L17">
-        <v>0.07250604266648253</v>
+        <v>0.1444619144196082</v>
       </c>
       <c r="M17">
-        <v>1.261929844684573</v>
+        <v>0.1263624202281228</v>
       </c>
       <c r="N17">
-        <v>0.1006487485426959</v>
+        <v>0.07416434018142581</v>
       </c>
       <c r="O17">
-        <v>0.2163536426615877</v>
+        <v>1.28734543504774</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1115061217813391</v>
       </c>
       <c r="Q17">
-        <v>1.629151098317124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2171036271250379</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.48108638528123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.265168821123893</v>
+        <v>1.249863642936788</v>
       </c>
       <c r="C18">
-        <v>0.1778366816467383</v>
+        <v>0.1772813919433958</v>
       </c>
       <c r="D18">
-        <v>0.2504891429564111</v>
+        <v>0.2459300016539174</v>
       </c>
       <c r="E18">
-        <v>0.04857837180637503</v>
+        <v>0.04698449271035265</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.4542156773129093</v>
+        <v>0.4037548025614299</v>
       </c>
       <c r="H18">
-        <v>0.08632006560824834</v>
+        <v>0.0841036740083112</v>
       </c>
       <c r="I18">
-        <v>0.01324919565444826</v>
+        <v>0.01046565400593646</v>
       </c>
       <c r="J18">
-        <v>0.4008772157230212</v>
+        <v>0.3807643737488391</v>
       </c>
       <c r="K18">
-        <v>0.4312967871135314</v>
+        <v>0.3821788008344456</v>
       </c>
       <c r="L18">
-        <v>0.05785934515172286</v>
+        <v>0.1526962495280237</v>
       </c>
       <c r="M18">
-        <v>1.211683643863296</v>
+        <v>0.134403735325062</v>
       </c>
       <c r="N18">
-        <v>0.1270909803014035</v>
+        <v>0.05920871839610342</v>
       </c>
       <c r="O18">
-        <v>0.2293381405663055</v>
+        <v>1.239298858141638</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1396646771682271</v>
       </c>
       <c r="Q18">
-        <v>1.747964520444711</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.2301982648293617</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.587164288501924</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.258425317857359</v>
+        <v>1.239984824280498</v>
       </c>
       <c r="C19">
-        <v>0.1665553245332774</v>
+        <v>0.1668276045853929</v>
       </c>
       <c r="D19">
-        <v>0.2805169421581581</v>
+        <v>0.2750185672026078</v>
       </c>
       <c r="E19">
-        <v>0.05703768234637963</v>
+        <v>0.05476899122621859</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.501748315155794</v>
+        <v>0.4428768767580351</v>
       </c>
       <c r="H19">
-        <v>0.0404082579340681</v>
+        <v>0.03827183183300065</v>
       </c>
       <c r="I19">
-        <v>0.01311373825032991</v>
+        <v>0.01041945854920279</v>
       </c>
       <c r="J19">
-        <v>0.4259561558620888</v>
+        <v>0.4035239847059913</v>
       </c>
       <c r="K19">
-        <v>0.4648614994365019</v>
+        <v>0.4088911304620275</v>
       </c>
       <c r="L19">
-        <v>0.04507934192063701</v>
+        <v>0.1626121015150019</v>
       </c>
       <c r="M19">
-        <v>1.177878198317956</v>
+        <v>0.144464525203988</v>
       </c>
       <c r="N19">
-        <v>0.1690628754291836</v>
+        <v>0.04588303846219688</v>
       </c>
       <c r="O19">
-        <v>0.2517159710146473</v>
+        <v>1.208615409330235</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1841363044865645</v>
       </c>
       <c r="Q19">
-        <v>1.901228790787499</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2527483684246334</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.717399440070281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.313775973655851</v>
+        <v>1.289266871321217</v>
       </c>
       <c r="C20">
-        <v>0.1561008943603497</v>
+        <v>0.1579847403807975</v>
       </c>
       <c r="D20">
-        <v>0.3376525524687111</v>
+        <v>0.330243426636315</v>
       </c>
       <c r="E20">
-        <v>0.07643878874659649</v>
+        <v>0.07276158224814466</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.583246174488437</v>
+        <v>0.5162154652076083</v>
       </c>
       <c r="H20">
-        <v>0.01124578615923433</v>
+        <v>0.009502557404157397</v>
       </c>
       <c r="I20">
-        <v>0.01149951969517549</v>
+        <v>0.009238481269423282</v>
       </c>
       <c r="J20">
-        <v>0.4660036357938395</v>
+        <v>0.4266103876070844</v>
       </c>
       <c r="K20">
-        <v>0.5201362554581515</v>
+        <v>0.4494027035515096</v>
       </c>
       <c r="L20">
-        <v>0.03667112740316725</v>
+        <v>0.1763429965064311</v>
       </c>
       <c r="M20">
-        <v>1.187073534437587</v>
+        <v>0.1614944027156966</v>
       </c>
       <c r="N20">
-        <v>0.2519264435392614</v>
+        <v>0.03629447312560075</v>
       </c>
       <c r="O20">
-        <v>0.2998798880027209</v>
+        <v>1.223621789700445</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2715947989105132</v>
       </c>
       <c r="Q20">
-        <v>2.157974369155369</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.3012440916302381</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.919161150303964</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.478632509013778</v>
+        <v>1.451246464053753</v>
       </c>
       <c r="C21">
-        <v>0.1652659469357332</v>
+        <v>0.1685887689371555</v>
       </c>
       <c r="D21">
-        <v>0.3685901268337943</v>
+        <v>0.3603499458271671</v>
       </c>
       <c r="E21">
-        <v>0.08213644035349965</v>
+        <v>0.07792626265889346</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.6046187290271945</v>
+        <v>0.5863858445770944</v>
       </c>
       <c r="H21">
-        <v>0.008055150690061852</v>
+        <v>0.006845329755264085</v>
       </c>
       <c r="I21">
-        <v>0.008843476857289367</v>
+        <v>0.00732827529730784</v>
       </c>
       <c r="J21">
-        <v>0.4709297908274266</v>
+        <v>0.3587214925799813</v>
       </c>
       <c r="K21">
-        <v>0.525162914889048</v>
+        <v>0.4378414146120804</v>
       </c>
       <c r="L21">
-        <v>0.03898430375104844</v>
+        <v>0.1683369784504585</v>
       </c>
       <c r="M21">
-        <v>1.329439134056713</v>
+        <v>0.1625961318042854</v>
       </c>
       <c r="N21">
-        <v>0.2834657766949107</v>
+        <v>0.03825529983347487</v>
       </c>
       <c r="O21">
-        <v>0.3394447082545398</v>
+        <v>1.367757619783305</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.3036714705175285</v>
       </c>
       <c r="Q21">
-        <v>2.213943683242974</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3409019876216988</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.888107834653511</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.587266467611471</v>
+        <v>1.558339075338978</v>
       </c>
       <c r="C22">
-        <v>0.1711696078943703</v>
+        <v>0.1751455465930292</v>
       </c>
       <c r="D22">
-        <v>0.3867632745363352</v>
+        <v>0.3781071513507612</v>
       </c>
       <c r="E22">
-        <v>0.0849301954391315</v>
+        <v>0.08046052549056704</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.6171421923927909</v>
+        <v>0.6390545252503159</v>
       </c>
       <c r="H22">
-        <v>0.006426925766267577</v>
+        <v>0.005499617561981307</v>
       </c>
       <c r="I22">
-        <v>0.007065656077267946</v>
+        <v>0.005897682503119839</v>
       </c>
       <c r="J22">
-        <v>0.4734641607159062</v>
+        <v>0.3200276348807165</v>
       </c>
       <c r="K22">
-        <v>0.5275609345362398</v>
+        <v>0.4290162883611437</v>
       </c>
       <c r="L22">
-        <v>0.04067717837380425</v>
+        <v>0.1628761516829762</v>
       </c>
       <c r="M22">
-        <v>1.422991082086753</v>
+        <v>0.16303339124714</v>
       </c>
       <c r="N22">
-        <v>0.299652118450183</v>
+        <v>0.03977417599885502</v>
       </c>
       <c r="O22">
-        <v>0.3634557237808309</v>
+        <v>1.461932277637914</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.3198866681037771</v>
       </c>
       <c r="Q22">
-        <v>2.246017923343487</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.364933688326893</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.860243312175299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.530452269360637</v>
+        <v>1.501972399740566</v>
       </c>
       <c r="C23">
-        <v>0.1673184642515366</v>
+        <v>0.1711275361419951</v>
       </c>
       <c r="D23">
-        <v>0.3773215529935783</v>
+        <v>0.3688098883499151</v>
       </c>
       <c r="E23">
-        <v>0.08356276988126154</v>
+        <v>0.07920106829300622</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.6123015419204307</v>
+        <v>0.6054316306631762</v>
       </c>
       <c r="H23">
-        <v>0.007260020619968416</v>
+        <v>0.006179775443759472</v>
       </c>
       <c r="I23">
-        <v>0.007640730214491853</v>
+        <v>0.006225293852958558</v>
       </c>
       <c r="J23">
-        <v>0.4730540617098598</v>
+        <v>0.3464184514027622</v>
       </c>
       <c r="K23">
-        <v>0.5278577574980616</v>
+        <v>0.436254901336568</v>
       </c>
       <c r="L23">
-        <v>0.0397724918752056</v>
+        <v>0.1665991909294959</v>
       </c>
       <c r="M23">
-        <v>1.37185067477597</v>
+        <v>0.1638488214717881</v>
       </c>
       <c r="N23">
-        <v>0.290551233263372</v>
+        <v>0.0389769216841982</v>
       </c>
       <c r="O23">
-        <v>0.3506067809133384</v>
+        <v>1.410959715087074</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.3109432518697872</v>
       </c>
       <c r="Q23">
-        <v>2.234780912543044</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3520908988229152</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.88729745191668</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.313374742170708</v>
+        <v>1.288510785655234</v>
       </c>
       <c r="C24">
-        <v>0.1539647597395799</v>
+        <v>0.1555795432541203</v>
       </c>
       <c r="D24">
-        <v>0.3414400483987663</v>
+        <v>0.3339022352820393</v>
       </c>
       <c r="E24">
-        <v>0.07817700049344367</v>
+        <v>0.07439076492540586</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.5920003294584006</v>
+        <v>0.5233983031053242</v>
       </c>
       <c r="H24">
-        <v>0.01098314664085385</v>
+        <v>0.009253312503753025</v>
       </c>
       <c r="I24">
-        <v>0.01091401576576256</v>
+        <v>0.00856139199956818</v>
       </c>
       <c r="J24">
-        <v>0.4705815998624274</v>
+        <v>0.4311372182503561</v>
       </c>
       <c r="K24">
-        <v>0.5270344167805128</v>
+        <v>0.4551267464000937</v>
       </c>
       <c r="L24">
-        <v>0.03636773060148712</v>
+        <v>0.1784761967580728</v>
       </c>
       <c r="M24">
-        <v>1.180411388924568</v>
+        <v>0.1636368421436565</v>
       </c>
       <c r="N24">
-        <v>0.257008521090853</v>
+        <v>0.0358798516264951</v>
       </c>
       <c r="O24">
-        <v>0.3020801020917645</v>
+        <v>1.217246134740975</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2770043329775831</v>
       </c>
       <c r="Q24">
-        <v>2.18611328304749</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.3034641112436418</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.943868198743644</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.079100212554238</v>
+        <v>1.061388849904887</v>
       </c>
       <c r="C25">
-        <v>0.1396881554963443</v>
+        <v>0.1354549402741156</v>
       </c>
       <c r="D25">
-        <v>0.3033660040983079</v>
+        <v>0.2975150351437463</v>
       </c>
       <c r="E25">
-        <v>0.07235096046617073</v>
+        <v>0.06938073747245177</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.5723526459093264</v>
+        <v>0.5093985815297373</v>
       </c>
       <c r="H25">
-        <v>0.01609793329595566</v>
+        <v>0.01362734603283142</v>
       </c>
       <c r="I25">
-        <v>0.01555399636005284</v>
+        <v>0.01210395965880107</v>
       </c>
       <c r="J25">
-        <v>0.4692776663879528</v>
+        <v>0.4374283692112471</v>
       </c>
       <c r="K25">
-        <v>0.5275336564215678</v>
+        <v>0.462688195488365</v>
       </c>
       <c r="L25">
-        <v>0.03271554322371184</v>
+        <v>0.1872203389505138</v>
       </c>
       <c r="M25">
-        <v>0.974285707791779</v>
+        <v>0.1597810134063522</v>
       </c>
       <c r="N25">
-        <v>0.2211524406829568</v>
+        <v>0.03228748120308556</v>
       </c>
       <c r="O25">
-        <v>0.2498736453814203</v>
+        <v>1.003298008597994</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2389185438273245</v>
       </c>
       <c r="Q25">
-        <v>2.14121395513115</v>
+        <v>0.2509381914594826</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.931890027335939</v>
       </c>
     </row>
   </sheetData>
